--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E419F-D26F-1F4B-89A9-1A868B36EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1E590-F756-DE47-8C77-374D1C34FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-29700" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="2220" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="629">
   <si>
     <t>DateTime</t>
   </si>
@@ -1890,6 +1890,33 @@
   </si>
   <si>
     <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1926,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2045,6 +2072,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2762,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="K602" sqref="K602"/>
+    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="K624" sqref="K624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11461,7 +11494,7 @@
         <v>72</v>
       </c>
       <c r="D579" s="3">
-        <f t="shared" ref="D579:D618" si="9">C579/B579</f>
+        <f t="shared" ref="D579:D628" si="9">C579/B579</f>
         <v>0.96</v>
       </c>
     </row>
@@ -12060,8 +12093,148 @@
       <c r="C619" s="2">
         <v>51</v>
       </c>
+      <c r="D619" s="3">
+        <f t="shared" si="9"/>
+        <v>0.87931034482758619</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B620" s="2">
+        <v>78</v>
+      </c>
+      <c r="C620" s="2">
+        <v>65</v>
+      </c>
+      <c r="D620" s="3">
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B621" s="2">
+        <v>71</v>
+      </c>
+      <c r="C621" s="2">
+        <v>67</v>
+      </c>
+      <c r="D621" s="3">
+        <f t="shared" si="9"/>
+        <v>0.94366197183098588</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B622" s="2">
+        <v>63</v>
+      </c>
+      <c r="C622" s="2">
+        <v>62</v>
+      </c>
+      <c r="D622" s="3">
+        <f t="shared" si="9"/>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B623" s="2">
+        <v>66</v>
+      </c>
+      <c r="C623" s="2">
+        <v>63</v>
+      </c>
+      <c r="D623" s="3">
+        <f t="shared" si="9"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B624" s="2">
+        <v>68</v>
+      </c>
+      <c r="C624" s="2">
+        <v>68</v>
+      </c>
+      <c r="D624" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B625" s="2">
+        <v>67</v>
+      </c>
+      <c r="C625" s="2">
+        <v>64</v>
+      </c>
+      <c r="D625" s="3">
+        <f t="shared" si="9"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B626" s="2">
+        <v>67</v>
+      </c>
+      <c r="C626" s="2">
+        <v>64</v>
+      </c>
+      <c r="D626" s="3">
+        <f t="shared" si="9"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B627" s="2">
+        <v>71</v>
+      </c>
+      <c r="C627" s="2">
+        <v>68</v>
+      </c>
+      <c r="D627" s="3">
+        <f t="shared" si="9"/>
+        <v>0.95774647887323938</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B628" s="2">
+        <v>48</v>
+      </c>
+      <c r="C628" s="2">
+        <v>45</v>
+      </c>
+      <c r="D628" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9375</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1E590-F756-DE47-8C77-374D1C34FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E804F1-52BA-2F47-8284-F1E8261406FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="2220" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="636">
   <si>
     <t>DateTime</t>
   </si>
@@ -1917,6 +1917,27 @@
   </si>
   <si>
     <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
   </si>
 </sst>
 </file>
@@ -2795,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K628"/>
+  <dimension ref="A1:K635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="K624" sqref="K624"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="I633" sqref="I633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11494,7 +11515,7 @@
         <v>72</v>
       </c>
       <c r="D579" s="3">
-        <f t="shared" ref="D579:D628" si="9">C579/B579</f>
+        <f t="shared" ref="D579:D635" si="9">C579/B579</f>
         <v>0.96</v>
       </c>
     </row>
@@ -12231,6 +12252,111 @@
       <c r="D628" s="3">
         <f t="shared" si="9"/>
         <v>0.9375</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B629" s="2">
+        <v>32</v>
+      </c>
+      <c r="C629" s="2">
+        <v>31</v>
+      </c>
+      <c r="D629" s="3">
+        <f t="shared" si="9"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B630" s="2">
+        <v>61</v>
+      </c>
+      <c r="C630" s="2">
+        <v>55</v>
+      </c>
+      <c r="D630" s="3">
+        <f t="shared" si="9"/>
+        <v>0.90163934426229508</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B631" s="2">
+        <v>68</v>
+      </c>
+      <c r="C631" s="2">
+        <v>67</v>
+      </c>
+      <c r="D631" s="3">
+        <f t="shared" si="9"/>
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B632" s="2">
+        <v>56</v>
+      </c>
+      <c r="C632" s="2">
+        <v>52</v>
+      </c>
+      <c r="D632" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B633" s="2">
+        <v>63</v>
+      </c>
+      <c r="C633" s="2">
+        <v>54</v>
+      </c>
+      <c r="D633" s="3">
+        <f t="shared" si="9"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B634" s="2">
+        <v>71</v>
+      </c>
+      <c r="C634" s="2">
+        <v>61</v>
+      </c>
+      <c r="D634" s="3">
+        <f t="shared" si="9"/>
+        <v>0.85915492957746475</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B635" s="2">
+        <v>53</v>
+      </c>
+      <c r="C635" s="2">
+        <v>47</v>
+      </c>
+      <c r="D635" s="3">
+        <f t="shared" si="9"/>
+        <v>0.8867924528301887</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E804F1-52BA-2F47-8284-F1E8261406FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D634741-F79C-CA43-9039-BA181482A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="1180" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="650">
   <si>
     <t>DateTime</t>
   </si>
@@ -1938,6 +1938,48 @@
   </si>
   <si>
     <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
   </si>
 </sst>
 </file>
@@ -2816,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K635"/>
+  <dimension ref="A1:K649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="I633" sqref="I633"/>
+    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="F647" sqref="F647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11515,7 +11557,7 @@
         <v>72</v>
       </c>
       <c r="D579" s="3">
-        <f t="shared" ref="D579:D635" si="9">C579/B579</f>
+        <f t="shared" ref="D579:D642" si="9">C579/B579</f>
         <v>0.96</v>
       </c>
     </row>
@@ -12357,6 +12399,216 @@
       <c r="D635" s="3">
         <f t="shared" si="9"/>
         <v>0.8867924528301887</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B636" s="2">
+        <v>37</v>
+      </c>
+      <c r="C636" s="2">
+        <v>28</v>
+      </c>
+      <c r="D636" s="3">
+        <f t="shared" si="9"/>
+        <v>0.7567567567567568</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B637" s="2">
+        <v>65</v>
+      </c>
+      <c r="C637" s="2">
+        <v>54</v>
+      </c>
+      <c r="D637" s="3">
+        <f t="shared" si="9"/>
+        <v>0.83076923076923082</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B638" s="2">
+        <v>63</v>
+      </c>
+      <c r="C638" s="2">
+        <v>55</v>
+      </c>
+      <c r="D638" s="3">
+        <f t="shared" si="9"/>
+        <v>0.87301587301587302</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B639" s="2">
+        <v>58</v>
+      </c>
+      <c r="C639" s="2">
+        <v>51</v>
+      </c>
+      <c r="D639" s="3">
+        <f t="shared" si="9"/>
+        <v>0.87931034482758619</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B640" s="2">
+        <v>48</v>
+      </c>
+      <c r="C640" s="2">
+        <v>39</v>
+      </c>
+      <c r="D640" s="3">
+        <f t="shared" si="9"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B641" s="2">
+        <v>64</v>
+      </c>
+      <c r="C641" s="2">
+        <v>59</v>
+      </c>
+      <c r="D641" s="3">
+        <f t="shared" si="9"/>
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B642" s="2">
+        <v>69</v>
+      </c>
+      <c r="C642" s="2">
+        <v>63</v>
+      </c>
+      <c r="D642" s="3">
+        <f t="shared" si="9"/>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B643" s="2">
+        <v>48</v>
+      </c>
+      <c r="C643" s="2">
+        <v>44</v>
+      </c>
+      <c r="D643" s="3">
+        <f t="shared" ref="D643:D649" si="10">C643/B643</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B644" s="2">
+        <v>56</v>
+      </c>
+      <c r="C644" s="2">
+        <v>52</v>
+      </c>
+      <c r="D644" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B645" s="2">
+        <v>56</v>
+      </c>
+      <c r="C645" s="2">
+        <v>53</v>
+      </c>
+      <c r="D645" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B646" s="2">
+        <v>60</v>
+      </c>
+      <c r="C646" s="2">
+        <v>51</v>
+      </c>
+      <c r="D646" s="3">
+        <f t="shared" si="10"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B647" s="2">
+        <v>57</v>
+      </c>
+      <c r="C647" s="2">
+        <v>55</v>
+      </c>
+      <c r="D647" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B648" s="2">
+        <v>71</v>
+      </c>
+      <c r="C648" s="2">
+        <v>68</v>
+      </c>
+      <c r="D648" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95774647887323938</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B649" s="2">
+        <v>58</v>
+      </c>
+      <c r="C649" s="2">
+        <v>52</v>
+      </c>
+      <c r="D649" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89655172413793105</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D634741-F79C-CA43-9039-BA181482A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C320D216-56E4-764F-8ECF-08709665BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="1180" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="659">
   <si>
     <t>DateTime</t>
   </si>
@@ -1980,6 +1980,33 @@
   </si>
   <si>
     <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
   </si>
 </sst>
 </file>
@@ -2858,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K649"/>
+  <dimension ref="A1:K658"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="F647" sqref="F647"/>
+      <selection activeCell="G655" sqref="G655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12517,7 +12544,7 @@
         <v>44</v>
       </c>
       <c r="D643" s="3">
-        <f t="shared" ref="D643:D649" si="10">C643/B643</f>
+        <f t="shared" ref="D643:D658" si="10">C643/B643</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -12609,6 +12636,141 @@
       <c r="D649" s="3">
         <f t="shared" si="10"/>
         <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B650" s="2">
+        <v>50</v>
+      </c>
+      <c r="C650" s="2">
+        <v>41</v>
+      </c>
+      <c r="D650" s="3">
+        <f t="shared" si="10"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B651" s="2">
+        <v>53</v>
+      </c>
+      <c r="C651" s="2">
+        <v>48</v>
+      </c>
+      <c r="D651" s="3">
+        <f t="shared" si="10"/>
+        <v>0.90566037735849059</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B652" s="2">
+        <v>60</v>
+      </c>
+      <c r="C652" s="2">
+        <v>54</v>
+      </c>
+      <c r="D652" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B653" s="2">
+        <v>55</v>
+      </c>
+      <c r="C653" s="2">
+        <v>54</v>
+      </c>
+      <c r="D653" s="3">
+        <f t="shared" si="10"/>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B654" s="2">
+        <v>55</v>
+      </c>
+      <c r="C654" s="2">
+        <v>51</v>
+      </c>
+      <c r="D654" s="3">
+        <f t="shared" si="10"/>
+        <v>0.92727272727272725</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B655" s="2">
+        <v>75</v>
+      </c>
+      <c r="C655" s="2">
+        <v>71</v>
+      </c>
+      <c r="D655" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B656" s="2">
+        <v>70</v>
+      </c>
+      <c r="C656" s="2">
+        <v>66</v>
+      </c>
+      <c r="D656" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B657" s="2">
+        <v>48</v>
+      </c>
+      <c r="C657" s="2">
+        <v>43</v>
+      </c>
+      <c r="D657" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B658" s="2">
+        <v>57</v>
+      </c>
+      <c r="C658" s="2">
+        <v>54</v>
+      </c>
+      <c r="D658" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94736842105263153</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C320D216-56E4-764F-8ECF-08709665BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E166036-322A-714D-9017-00A07B0667ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="692">
   <si>
     <t>DateTime</t>
   </si>
@@ -2007,6 +2007,105 @@
   </si>
   <si>
     <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>2022-01-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>2022-02-03</t>
+  </si>
+  <si>
+    <t>2022-02-04</t>
+  </si>
+  <si>
+    <t>2022-02-05</t>
+  </si>
+  <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-09</t>
+  </si>
+  <si>
+    <t>2022-02-10</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>2022-02-13</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>2022-02-17</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-19</t>
+  </si>
+  <si>
+    <t>2022-02-20</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
   </si>
 </sst>
 </file>
@@ -2885,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K658"/>
+  <dimension ref="A1:K691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="G655" sqref="G655"/>
+    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="F690" sqref="F690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12544,7 +12643,7 @@
         <v>44</v>
       </c>
       <c r="D643" s="3">
-        <f t="shared" ref="D643:D658" si="10">C643/B643</f>
+        <f t="shared" ref="D643:D691" si="10">C643/B643</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -12771,6 +12870,501 @@
       <c r="D658" s="3">
         <f t="shared" si="10"/>
         <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B659" s="2">
+        <v>66</v>
+      </c>
+      <c r="C659" s="2">
+        <v>64</v>
+      </c>
+      <c r="D659" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B660" s="2">
+        <v>52</v>
+      </c>
+      <c r="C660" s="2">
+        <v>48</v>
+      </c>
+      <c r="D660" s="3">
+        <f t="shared" si="10"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B661" s="2">
+        <v>59</v>
+      </c>
+      <c r="C661" s="2">
+        <v>56</v>
+      </c>
+      <c r="D661" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94915254237288138</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B662" s="2">
+        <v>76</v>
+      </c>
+      <c r="C662" s="2">
+        <v>76</v>
+      </c>
+      <c r="D662" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B663" s="2">
+        <v>70</v>
+      </c>
+      <c r="C663" s="2">
+        <v>66</v>
+      </c>
+      <c r="D663" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B664" s="2">
+        <v>55</v>
+      </c>
+      <c r="C664" s="2">
+        <v>53</v>
+      </c>
+      <c r="D664" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B665" s="2">
+        <v>56</v>
+      </c>
+      <c r="C665" s="2">
+        <v>56</v>
+      </c>
+      <c r="D665" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B666" s="2">
+        <v>64</v>
+      </c>
+      <c r="C666" s="2">
+        <v>62</v>
+      </c>
+      <c r="D666" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B667" s="2">
+        <v>55</v>
+      </c>
+      <c r="C667" s="2">
+        <v>53</v>
+      </c>
+      <c r="D667" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B668" s="2">
+        <v>54</v>
+      </c>
+      <c r="C668" s="2">
+        <v>43</v>
+      </c>
+      <c r="D668" s="3">
+        <f t="shared" si="10"/>
+        <v>0.79629629629629628</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B669" s="2">
+        <v>79</v>
+      </c>
+      <c r="C669" s="2">
+        <v>65</v>
+      </c>
+      <c r="D669" s="3">
+        <f t="shared" si="10"/>
+        <v>0.82278481012658233</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B670" s="2">
+        <v>69</v>
+      </c>
+      <c r="C670" s="2">
+        <v>58</v>
+      </c>
+      <c r="D670" s="3">
+        <f t="shared" si="10"/>
+        <v>0.84057971014492749</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A671" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B671" s="2">
+        <v>52</v>
+      </c>
+      <c r="C671" s="2">
+        <v>44</v>
+      </c>
+      <c r="D671" s="3">
+        <f t="shared" si="10"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A672" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B672" s="2">
+        <v>55</v>
+      </c>
+      <c r="C672" s="2">
+        <v>52</v>
+      </c>
+      <c r="D672" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B673" s="2">
+        <v>69</v>
+      </c>
+      <c r="C673" s="2">
+        <v>65</v>
+      </c>
+      <c r="D673" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94202898550724634</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B674" s="2">
+        <v>59</v>
+      </c>
+      <c r="C674" s="2">
+        <v>55</v>
+      </c>
+      <c r="D674" s="3">
+        <f t="shared" si="10"/>
+        <v>0.93220338983050843</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B675" s="2">
+        <v>57</v>
+      </c>
+      <c r="C675" s="2">
+        <v>53</v>
+      </c>
+      <c r="D675" s="3">
+        <f t="shared" si="10"/>
+        <v>0.92982456140350878</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B676" s="2">
+        <v>73</v>
+      </c>
+      <c r="C676" s="2">
+        <v>69</v>
+      </c>
+      <c r="D676" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B677" s="2">
+        <v>69</v>
+      </c>
+      <c r="C677" s="2">
+        <v>66</v>
+      </c>
+      <c r="D677" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B678" s="2">
+        <v>47</v>
+      </c>
+      <c r="C678" s="2">
+        <v>45</v>
+      </c>
+      <c r="D678" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B679" s="2">
+        <v>54</v>
+      </c>
+      <c r="C679" s="2">
+        <v>50</v>
+      </c>
+      <c r="D679" s="3">
+        <f t="shared" si="10"/>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B680" s="2">
+        <v>69</v>
+      </c>
+      <c r="C680" s="2">
+        <v>67</v>
+      </c>
+      <c r="D680" s="3">
+        <f t="shared" si="10"/>
+        <v>0.97101449275362317</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B681" s="2">
+        <v>61</v>
+      </c>
+      <c r="C681" s="2">
+        <v>59</v>
+      </c>
+      <c r="D681" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B682" s="2">
+        <v>57</v>
+      </c>
+      <c r="C682" s="2">
+        <v>54</v>
+      </c>
+      <c r="D682" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B683" s="2">
+        <v>74</v>
+      </c>
+      <c r="C683" s="2">
+        <v>68</v>
+      </c>
+      <c r="D683" s="3">
+        <f t="shared" si="10"/>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B684" s="2">
+        <v>76</v>
+      </c>
+      <c r="C684" s="2">
+        <v>68</v>
+      </c>
+      <c r="D684" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B685" s="2">
+        <v>56</v>
+      </c>
+      <c r="C685" s="2">
+        <v>54</v>
+      </c>
+      <c r="D685" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B686" s="2">
+        <v>58</v>
+      </c>
+      <c r="C686" s="2">
+        <v>54</v>
+      </c>
+      <c r="D686" s="3">
+        <f t="shared" si="10"/>
+        <v>0.93103448275862066</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B687" s="2">
+        <v>70</v>
+      </c>
+      <c r="C687" s="2">
+        <v>65</v>
+      </c>
+      <c r="D687" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B688" s="2">
+        <v>67</v>
+      </c>
+      <c r="C688" s="2">
+        <v>62</v>
+      </c>
+      <c r="D688" s="3">
+        <f t="shared" si="10"/>
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B689" s="2">
+        <v>68</v>
+      </c>
+      <c r="C689" s="2">
+        <v>56</v>
+      </c>
+      <c r="D689" s="3">
+        <f t="shared" si="10"/>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B690" s="2">
+        <v>76</v>
+      </c>
+      <c r="C690" s="2">
+        <v>69</v>
+      </c>
+      <c r="D690" s="3">
+        <f t="shared" si="10"/>
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B691" s="2">
+        <v>78</v>
+      </c>
+      <c r="C691" s="2">
+        <v>72</v>
+      </c>
+      <c r="D691" s="3">
+        <f t="shared" si="10"/>
+        <v>0.92307692307692313</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E166036-322A-714D-9017-00A07B0667ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F555FF45-904A-F647-B250-BF02F3BFE5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="706">
   <si>
     <t>DateTime</t>
   </si>
@@ -2106,6 +2106,48 @@
   </si>
   <si>
     <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
+    <t>2022-02-27</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2022-03-06</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
   </si>
 </sst>
 </file>
@@ -2984,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K691"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="F690" sqref="F690"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="H701" sqref="H701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12643,7 +12685,7 @@
         <v>44</v>
       </c>
       <c r="D643" s="3">
-        <f t="shared" ref="D643:D691" si="10">C643/B643</f>
+        <f t="shared" ref="D643:D705" si="10">C643/B643</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -13365,6 +13407,216 @@
       <c r="D691" s="3">
         <f t="shared" si="10"/>
         <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B692" s="2">
+        <v>54</v>
+      </c>
+      <c r="C692" s="2">
+        <v>51</v>
+      </c>
+      <c r="D692" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B693" s="2">
+        <v>64</v>
+      </c>
+      <c r="C693" s="2">
+        <v>60</v>
+      </c>
+      <c r="D693" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B694" s="2">
+        <v>72</v>
+      </c>
+      <c r="C694" s="2">
+        <v>70</v>
+      </c>
+      <c r="D694" s="3">
+        <f t="shared" si="10"/>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B695" s="2">
+        <v>65</v>
+      </c>
+      <c r="C695" s="2">
+        <v>65</v>
+      </c>
+      <c r="D695" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B696" s="2">
+        <v>61</v>
+      </c>
+      <c r="C696" s="2">
+        <v>59</v>
+      </c>
+      <c r="D696" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B697" s="2">
+        <v>72</v>
+      </c>
+      <c r="C697" s="2">
+        <v>68</v>
+      </c>
+      <c r="D697" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B698" s="2">
+        <v>76</v>
+      </c>
+      <c r="C698" s="2">
+        <v>71</v>
+      </c>
+      <c r="D698" s="3">
+        <f t="shared" si="10"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B699" s="2">
+        <v>56</v>
+      </c>
+      <c r="C699" s="2">
+        <v>56</v>
+      </c>
+      <c r="D699" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B700" s="2">
+        <v>70</v>
+      </c>
+      <c r="C700" s="2">
+        <v>66</v>
+      </c>
+      <c r="D700" s="3">
+        <f t="shared" si="10"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B701" s="2">
+        <v>61</v>
+      </c>
+      <c r="C701" s="2">
+        <v>58</v>
+      </c>
+      <c r="D701" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B702" s="2">
+        <v>62</v>
+      </c>
+      <c r="C702" s="2">
+        <v>61</v>
+      </c>
+      <c r="D702" s="3">
+        <f t="shared" si="10"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B703" s="2">
+        <v>66</v>
+      </c>
+      <c r="C703" s="2">
+        <v>62</v>
+      </c>
+      <c r="D703" s="3">
+        <f t="shared" si="10"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B704" s="2">
+        <v>76</v>
+      </c>
+      <c r="C704" s="2">
+        <v>73</v>
+      </c>
+      <c r="D704" s="3">
+        <f t="shared" si="10"/>
+        <v>0.96052631578947367</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B705" s="2">
+        <v>80</v>
+      </c>
+      <c r="C705" s="2">
+        <v>73</v>
+      </c>
+      <c r="D705" s="3">
+        <f t="shared" si="10"/>
+        <v>0.91249999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F555FF45-904A-F647-B250-BF02F3BFE5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA870F1D-E742-3A48-AE06-022A7D5C18CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2680" yWindow="-32340" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="718">
   <si>
     <t>DateTime</t>
   </si>
@@ -2148,6 +2148,42 @@
   </si>
   <si>
     <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+  </si>
+  <si>
+    <t>2022-03-20</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
   </si>
 </sst>
 </file>
@@ -3026,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="H701" sqref="H701"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="G709" sqref="G709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12685,7 +12721,7 @@
         <v>44</v>
       </c>
       <c r="D643" s="3">
-        <f t="shared" ref="D643:D705" si="10">C643/B643</f>
+        <f t="shared" ref="D643:D706" si="10">C643/B643</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -13617,6 +13653,186 @@
       <c r="D705" s="3">
         <f t="shared" si="10"/>
         <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B706" s="2">
+        <v>67</v>
+      </c>
+      <c r="C706" s="2">
+        <v>59</v>
+      </c>
+      <c r="D706" s="3">
+        <f t="shared" si="10"/>
+        <v>0.88059701492537312</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B707" s="2">
+        <v>67</v>
+      </c>
+      <c r="C707" s="2">
+        <v>65</v>
+      </c>
+      <c r="D707" s="3">
+        <f t="shared" ref="D707:D717" si="11">C707/B707</f>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B708" s="2">
+        <v>69</v>
+      </c>
+      <c r="C708" s="2">
+        <v>65</v>
+      </c>
+      <c r="D708" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94202898550724634</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B709" s="2">
+        <v>66</v>
+      </c>
+      <c r="C709" s="2">
+        <v>65</v>
+      </c>
+      <c r="D709" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98484848484848486</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B710" s="2">
+        <v>67</v>
+      </c>
+      <c r="C710" s="2">
+        <v>64</v>
+      </c>
+      <c r="D710" s="3">
+        <f t="shared" si="11"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B711" s="2">
+        <v>70</v>
+      </c>
+      <c r="C711" s="2">
+        <v>68</v>
+      </c>
+      <c r="D711" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B712" s="2">
+        <v>62</v>
+      </c>
+      <c r="C712" s="2">
+        <v>60</v>
+      </c>
+      <c r="D712" s="3">
+        <f t="shared" si="11"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B713" s="2">
+        <v>62</v>
+      </c>
+      <c r="C713" s="2">
+        <v>62</v>
+      </c>
+      <c r="D713" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B714" s="2">
+        <v>68</v>
+      </c>
+      <c r="C714" s="2">
+        <v>67</v>
+      </c>
+      <c r="D714" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B715" s="2">
+        <v>64</v>
+      </c>
+      <c r="C715" s="2">
+        <v>63</v>
+      </c>
+      <c r="D715" s="3">
+        <f t="shared" si="11"/>
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B716" s="2">
+        <v>56</v>
+      </c>
+      <c r="C716" s="2">
+        <v>53</v>
+      </c>
+      <c r="D716" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B717" s="2">
+        <v>61</v>
+      </c>
+      <c r="C717" s="2">
+        <v>61</v>
+      </c>
+      <c r="D717" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA870F1D-E742-3A48-AE06-022A7D5C18CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE15C8BA-E201-2F48-862D-61ABD02F355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2680" yWindow="-32340" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="7200" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="758">
   <si>
     <t>DateTime</t>
   </si>
@@ -2184,6 +2184,126 @@
   </si>
   <si>
     <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-04-02</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>2022-04-13</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
   </si>
 </sst>
 </file>
@@ -3062,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K717"/>
+  <dimension ref="A1:K757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="G709" sqref="G709"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="F754" sqref="F754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13681,7 +13801,7 @@
         <v>65</v>
       </c>
       <c r="D707" s="3">
-        <f t="shared" ref="D707:D717" si="11">C707/B707</f>
+        <f t="shared" ref="D707:D757" si="11">C707/B707</f>
         <v>0.97014925373134331</v>
       </c>
     </row>
@@ -13833,6 +13953,606 @@
       <c r="D717" s="3">
         <f t="shared" si="11"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B718" s="2">
+        <v>71</v>
+      </c>
+      <c r="C718" s="2">
+        <v>70</v>
+      </c>
+      <c r="D718" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B719" s="2">
+        <v>72</v>
+      </c>
+      <c r="C719" s="2">
+        <v>71</v>
+      </c>
+      <c r="D719" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B720" s="2">
+        <v>60</v>
+      </c>
+      <c r="C720" s="2">
+        <v>58</v>
+      </c>
+      <c r="D720" s="3">
+        <f t="shared" si="11"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B721" s="2">
+        <v>73</v>
+      </c>
+      <c r="C721" s="2">
+        <v>72</v>
+      </c>
+      <c r="D721" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98630136986301364</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B722" s="2">
+        <v>69</v>
+      </c>
+      <c r="C722" s="2">
+        <v>68</v>
+      </c>
+      <c r="D722" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B723" s="2">
+        <v>58</v>
+      </c>
+      <c r="C723" s="2">
+        <v>57</v>
+      </c>
+      <c r="D723" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98275862068965514</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B724" s="2">
+        <v>61</v>
+      </c>
+      <c r="C724" s="2">
+        <v>61</v>
+      </c>
+      <c r="D724" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B725" s="2">
+        <v>76</v>
+      </c>
+      <c r="C725" s="2">
+        <v>73</v>
+      </c>
+      <c r="D725" s="3">
+        <f t="shared" si="11"/>
+        <v>0.96052631578947367</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B726" s="2">
+        <v>77</v>
+      </c>
+      <c r="C726" s="2">
+        <v>75</v>
+      </c>
+      <c r="D726" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97402597402597402</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B727" s="2">
+        <v>51</v>
+      </c>
+      <c r="C727" s="2">
+        <v>49</v>
+      </c>
+      <c r="D727" s="3">
+        <f t="shared" si="11"/>
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B728" s="2">
+        <v>62</v>
+      </c>
+      <c r="C728" s="2">
+        <v>59</v>
+      </c>
+      <c r="D728" s="3">
+        <f t="shared" si="11"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B729" s="2">
+        <v>67</v>
+      </c>
+      <c r="C729" s="2">
+        <v>66</v>
+      </c>
+      <c r="D729" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A730" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B730" s="2">
+        <v>61</v>
+      </c>
+      <c r="C730" s="2">
+        <v>59</v>
+      </c>
+      <c r="D730" s="3">
+        <f t="shared" si="11"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A731" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B731" s="2">
+        <v>73</v>
+      </c>
+      <c r="C731" s="2">
+        <v>70</v>
+      </c>
+      <c r="D731" s="3">
+        <f t="shared" si="11"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B732" s="2">
+        <v>87</v>
+      </c>
+      <c r="C732" s="2">
+        <v>78</v>
+      </c>
+      <c r="D732" s="3">
+        <f t="shared" si="11"/>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B733" s="2">
+        <v>69</v>
+      </c>
+      <c r="C733" s="2">
+        <v>65</v>
+      </c>
+      <c r="D733" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94202898550724634</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B734" s="2">
+        <v>49</v>
+      </c>
+      <c r="C734" s="2">
+        <v>45</v>
+      </c>
+      <c r="D734" s="3">
+        <f t="shared" si="11"/>
+        <v>0.91836734693877553</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A735" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B735" s="2">
+        <v>65</v>
+      </c>
+      <c r="C735" s="2">
+        <v>64</v>
+      </c>
+      <c r="D735" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B736" s="2">
+        <v>63</v>
+      </c>
+      <c r="C736" s="2">
+        <v>63</v>
+      </c>
+      <c r="D736" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B737" s="2">
+        <v>53</v>
+      </c>
+      <c r="C737" s="2">
+        <v>53</v>
+      </c>
+      <c r="D737" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B738" s="2">
+        <v>69</v>
+      </c>
+      <c r="C738" s="2">
+        <v>65</v>
+      </c>
+      <c r="D738" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94202898550724634</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B739" s="2">
+        <v>78</v>
+      </c>
+      <c r="C739" s="2">
+        <v>76</v>
+      </c>
+      <c r="D739" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97435897435897434</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B740" s="2">
+        <v>68</v>
+      </c>
+      <c r="C740" s="2">
+        <v>66</v>
+      </c>
+      <c r="D740" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B741" s="2">
+        <v>52</v>
+      </c>
+      <c r="C741" s="2">
+        <v>52</v>
+      </c>
+      <c r="D741" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B742" s="2">
+        <v>52</v>
+      </c>
+      <c r="C742" s="2">
+        <v>52</v>
+      </c>
+      <c r="D742" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B743" s="2">
+        <v>67</v>
+      </c>
+      <c r="C743" s="2">
+        <v>65</v>
+      </c>
+      <c r="D743" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B744" s="2">
+        <v>74</v>
+      </c>
+      <c r="C744" s="2">
+        <v>72</v>
+      </c>
+      <c r="D744" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B745" s="2">
+        <v>72</v>
+      </c>
+      <c r="C745" s="2">
+        <v>71</v>
+      </c>
+      <c r="D745" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B746" s="2">
+        <v>85</v>
+      </c>
+      <c r="C746" s="2">
+        <v>83</v>
+      </c>
+      <c r="D746" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97647058823529409</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B747" s="2">
+        <v>68</v>
+      </c>
+      <c r="C747" s="2">
+        <v>66</v>
+      </c>
+      <c r="D747" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A748" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B748" s="2">
+        <v>49</v>
+      </c>
+      <c r="C748" s="2">
+        <v>47</v>
+      </c>
+      <c r="D748" s="3">
+        <f t="shared" si="11"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A749" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B749" s="2">
+        <v>60</v>
+      </c>
+      <c r="C749" s="2">
+        <v>59</v>
+      </c>
+      <c r="D749" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A750" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B750" s="2">
+        <v>72</v>
+      </c>
+      <c r="C750" s="2">
+        <v>66</v>
+      </c>
+      <c r="D750" s="3">
+        <f t="shared" si="11"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A751" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B751" s="2">
+        <v>63</v>
+      </c>
+      <c r="C751" s="2">
+        <v>62</v>
+      </c>
+      <c r="D751" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B752" s="2">
+        <v>67</v>
+      </c>
+      <c r="C752" s="2">
+        <v>63</v>
+      </c>
+      <c r="D752" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94029850746268662</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B753" s="2">
+        <v>70</v>
+      </c>
+      <c r="C753" s="2">
+        <v>68</v>
+      </c>
+      <c r="D753" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A754" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B754" s="2">
+        <v>70</v>
+      </c>
+      <c r="C754" s="2">
+        <v>69</v>
+      </c>
+      <c r="D754" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A755" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B755" s="2">
+        <v>59</v>
+      </c>
+      <c r="C755" s="2">
+        <v>56</v>
+      </c>
+      <c r="D755" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94915254237288138</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A756" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B756" s="2">
+        <v>63</v>
+      </c>
+      <c r="C756" s="2">
+        <v>57</v>
+      </c>
+      <c r="D756" s="3">
+        <f t="shared" si="11"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A757" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B757" s="2">
+        <v>69</v>
+      </c>
+      <c r="C757" s="2">
+        <v>68</v>
+      </c>
+      <c r="D757" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98550724637681164</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE15C8BA-E201-2F48-862D-61ABD02F355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A302657-8CBD-0E4D-8215-ABF7C17A0995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="7200" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="782">
   <si>
     <t>DateTime</t>
   </si>
@@ -2304,6 +2304,78 @@
   </si>
   <si>
     <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
   </si>
 </sst>
 </file>
@@ -3182,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K757"/>
+  <dimension ref="A1:K781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
-      <selection activeCell="F754" sqref="F754"/>
+    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
+      <selection activeCell="A758" sqref="A758:XFD758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13801,7 +13873,7 @@
         <v>65</v>
       </c>
       <c r="D707" s="3">
-        <f t="shared" ref="D707:D757" si="11">C707/B707</f>
+        <f t="shared" ref="D707:D769" si="11">C707/B707</f>
         <v>0.97014925373134331</v>
       </c>
     </row>
@@ -14553,6 +14625,366 @@
       <c r="D757" s="3">
         <f t="shared" si="11"/>
         <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A758" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B758" s="2">
+        <v>58</v>
+      </c>
+      <c r="C758" s="2">
+        <v>57</v>
+      </c>
+      <c r="D758" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98275862068965514</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A759" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B759" s="2">
+        <v>71</v>
+      </c>
+      <c r="C759" s="2">
+        <v>71</v>
+      </c>
+      <c r="D759" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A760" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B760" s="2">
+        <v>79</v>
+      </c>
+      <c r="C760" s="2">
+        <v>73</v>
+      </c>
+      <c r="D760" s="3">
+        <f t="shared" si="11"/>
+        <v>0.92405063291139244</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A761" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B761" s="2">
+        <v>81</v>
+      </c>
+      <c r="C761" s="2">
+        <v>69</v>
+      </c>
+      <c r="D761" s="3">
+        <f t="shared" si="11"/>
+        <v>0.85185185185185186</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A762" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B762" s="2">
+        <v>47</v>
+      </c>
+      <c r="C762" s="2">
+        <v>46</v>
+      </c>
+      <c r="D762" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A763" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B763" s="2">
+        <v>62</v>
+      </c>
+      <c r="C763" s="2">
+        <v>59</v>
+      </c>
+      <c r="D763" s="3">
+        <f t="shared" si="11"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A764" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B764" s="2">
+        <v>61</v>
+      </c>
+      <c r="C764" s="2">
+        <v>60</v>
+      </c>
+      <c r="D764" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98360655737704916</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B765" s="2">
+        <v>57</v>
+      </c>
+      <c r="C765" s="2">
+        <v>55</v>
+      </c>
+      <c r="D765" s="3">
+        <f t="shared" si="11"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B766" s="2">
+        <v>57</v>
+      </c>
+      <c r="C766" s="2">
+        <v>56</v>
+      </c>
+      <c r="D766" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B767" s="2">
+        <v>82</v>
+      </c>
+      <c r="C767" s="2">
+        <v>81</v>
+      </c>
+      <c r="D767" s="3">
+        <f t="shared" si="11"/>
+        <v>0.98780487804878048</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A768" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B768" s="2">
+        <v>73</v>
+      </c>
+      <c r="C768" s="2">
+        <v>73</v>
+      </c>
+      <c r="D768" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A769" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B769" s="2">
+        <v>45</v>
+      </c>
+      <c r="C769" s="2">
+        <v>43</v>
+      </c>
+      <c r="D769" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A770" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B770" s="2">
+        <v>58</v>
+      </c>
+      <c r="C770" s="2">
+        <v>57</v>
+      </c>
+      <c r="D770" s="3">
+        <f t="shared" ref="D770:D781" si="12">C770/B770</f>
+        <v>0.98275862068965514</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A771" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B771" s="2">
+        <v>61</v>
+      </c>
+      <c r="C771" s="2">
+        <v>58</v>
+      </c>
+      <c r="D771" s="3">
+        <f t="shared" si="12"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B772" s="2">
+        <v>66</v>
+      </c>
+      <c r="C772" s="2">
+        <v>64</v>
+      </c>
+      <c r="D772" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A773" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B773" s="2">
+        <v>72</v>
+      </c>
+      <c r="C773" s="2">
+        <v>69</v>
+      </c>
+      <c r="D773" s="3">
+        <f t="shared" si="12"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A774" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B774" s="2">
+        <v>71</v>
+      </c>
+      <c r="C774" s="2">
+        <v>67</v>
+      </c>
+      <c r="D774" s="3">
+        <f t="shared" si="12"/>
+        <v>0.94366197183098588</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A775" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B775" s="2">
+        <v>68</v>
+      </c>
+      <c r="C775" s="2">
+        <v>64</v>
+      </c>
+      <c r="D775" s="3">
+        <f t="shared" si="12"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B776" s="2">
+        <v>56</v>
+      </c>
+      <c r="C776" s="2">
+        <v>51</v>
+      </c>
+      <c r="D776" s="3">
+        <f t="shared" si="12"/>
+        <v>0.9107142857142857</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B777" s="2">
+        <v>57</v>
+      </c>
+      <c r="C777" s="2">
+        <v>55</v>
+      </c>
+      <c r="D777" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B778" s="2">
+        <v>62</v>
+      </c>
+      <c r="C778" s="2">
+        <v>57</v>
+      </c>
+      <c r="D778" s="3">
+        <f t="shared" si="12"/>
+        <v>0.91935483870967738</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A779" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B779" s="2">
+        <v>59</v>
+      </c>
+      <c r="C779" s="2">
+        <v>55</v>
+      </c>
+      <c r="D779" s="3">
+        <f t="shared" si="12"/>
+        <v>0.93220338983050843</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B780" s="2">
+        <v>66</v>
+      </c>
+      <c r="C780" s="2">
+        <v>63</v>
+      </c>
+      <c r="D780" s="3">
+        <f t="shared" si="12"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B781" s="2">
+        <v>81</v>
+      </c>
+      <c r="C781" s="2">
+        <v>78</v>
+      </c>
+      <c r="D781" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96296296296296291</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A302657-8CBD-0E4D-8215-ABF7C17A0995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D224B-E950-9545-9B76-A787D053C40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4080" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="801">
   <si>
     <t>DateTime</t>
   </si>
@@ -2376,6 +2376,63 @@
   </si>
   <si>
     <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-11</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
   </si>
 </sst>
 </file>
@@ -3254,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K781"/>
+  <dimension ref="A1:K800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
-      <selection activeCell="A758" sqref="A758:XFD758"/>
+    <sheetView tabSelected="1" topLeftCell="A771" workbookViewId="0">
+      <selection activeCell="F799" sqref="F799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14818,7 +14875,7 @@
         <v>57</v>
       </c>
       <c r="D770" s="3">
-        <f t="shared" ref="D770:D781" si="12">C770/B770</f>
+        <f t="shared" ref="D770:D800" si="12">C770/B770</f>
         <v>0.98275862068965514</v>
       </c>
     </row>
@@ -14985,6 +15042,291 @@
       <c r="D781" s="3">
         <f t="shared" si="12"/>
         <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A782" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B782" s="2">
+        <v>70</v>
+      </c>
+      <c r="C782" s="2">
+        <v>70</v>
+      </c>
+      <c r="D782" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A783" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B783" s="2">
+        <v>50</v>
+      </c>
+      <c r="C783" s="2">
+        <v>48</v>
+      </c>
+      <c r="D783" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A784" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B784" s="2">
+        <v>49</v>
+      </c>
+      <c r="C784" s="2">
+        <v>47</v>
+      </c>
+      <c r="D784" s="3">
+        <f t="shared" si="12"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A785" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B785" s="2">
+        <v>56</v>
+      </c>
+      <c r="C785" s="2">
+        <v>56</v>
+      </c>
+      <c r="D785" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A786" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B786" s="2">
+        <v>51</v>
+      </c>
+      <c r="C786" s="2">
+        <v>50</v>
+      </c>
+      <c r="D786" s="3">
+        <f t="shared" si="12"/>
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A787" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B787" s="2">
+        <v>64</v>
+      </c>
+      <c r="C787" s="2">
+        <v>58</v>
+      </c>
+      <c r="D787" s="3">
+        <f t="shared" si="12"/>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B788" s="2">
+        <v>73</v>
+      </c>
+      <c r="C788" s="2">
+        <v>67</v>
+      </c>
+      <c r="D788" s="3">
+        <f t="shared" si="12"/>
+        <v>0.9178082191780822</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A789" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B789" s="2">
+        <v>84</v>
+      </c>
+      <c r="C789" s="2">
+        <v>73</v>
+      </c>
+      <c r="D789" s="3">
+        <f t="shared" si="12"/>
+        <v>0.86904761904761907</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A790" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B790" s="2">
+        <v>59</v>
+      </c>
+      <c r="C790" s="2">
+        <v>57</v>
+      </c>
+      <c r="D790" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A791" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B791" s="2">
+        <v>64</v>
+      </c>
+      <c r="C791" s="2">
+        <v>59</v>
+      </c>
+      <c r="D791" s="3">
+        <f t="shared" si="12"/>
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A792" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B792" s="2">
+        <v>70</v>
+      </c>
+      <c r="C792" s="2">
+        <v>69</v>
+      </c>
+      <c r="D792" s="3">
+        <f t="shared" si="12"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A793" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B793" s="2">
+        <v>66</v>
+      </c>
+      <c r="C793" s="2">
+        <v>62</v>
+      </c>
+      <c r="D793" s="3">
+        <f t="shared" si="12"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A794" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B794" s="2">
+        <v>78</v>
+      </c>
+      <c r="C794" s="2">
+        <v>78</v>
+      </c>
+      <c r="D794" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A795" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B795" s="2">
+        <v>80</v>
+      </c>
+      <c r="C795" s="2">
+        <v>76</v>
+      </c>
+      <c r="D795" s="3">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A796" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B796" s="2">
+        <v>70</v>
+      </c>
+      <c r="C796" s="2">
+        <v>67</v>
+      </c>
+      <c r="D796" s="3">
+        <f t="shared" si="12"/>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A797" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B797" s="2">
+        <v>60</v>
+      </c>
+      <c r="C797" s="2">
+        <v>58</v>
+      </c>
+      <c r="D797" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A798" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B798" s="2">
+        <v>63</v>
+      </c>
+      <c r="C798" s="2">
+        <v>61</v>
+      </c>
+      <c r="D798" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A799" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B799" s="2">
+        <v>86</v>
+      </c>
+      <c r="C799" s="2">
+        <v>81</v>
+      </c>
+      <c r="D799" s="3">
+        <f t="shared" si="12"/>
+        <v>0.94186046511627908</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A800" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B800" s="2">
+        <v>79</v>
+      </c>
+      <c r="C800" s="2">
+        <v>74</v>
+      </c>
+      <c r="D800" s="3">
+        <f t="shared" si="12"/>
+        <v>0.93670886075949367</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96ABC9-685A-7A4D-9E68-2730246F2B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE264032-71D5-554F-85EE-53618FB4867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37020" yWindow="780" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,8 +50,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="173" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -552,7 +552,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -565,12 +565,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -928,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D894"/>
+  <dimension ref="A1:D923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345:A894"/>
+    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
+      <selection activeCell="H917" sqref="H917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13416,7 +13422,7 @@
         <v>68</v>
       </c>
       <c r="D832" s="1">
-        <f t="shared" ref="D832:D894" si="13">C832/B832</f>
+        <f t="shared" ref="D832:D895" si="13">C832/B832</f>
         <v>0.93150684931506844</v>
       </c>
     </row>
@@ -14348,6 +14354,441 @@
       <c r="D894" s="1">
         <f t="shared" si="13"/>
         <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A895" s="9">
+        <v>44823</v>
+      </c>
+      <c r="B895" s="10">
+        <v>72</v>
+      </c>
+      <c r="C895" s="10">
+        <v>70</v>
+      </c>
+      <c r="D895" s="1">
+        <f t="shared" si="13"/>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A896" s="9">
+        <v>44824</v>
+      </c>
+      <c r="B896" s="10">
+        <v>66</v>
+      </c>
+      <c r="C896" s="10">
+        <v>61</v>
+      </c>
+      <c r="D896" s="1">
+        <f t="shared" ref="D896:D923" si="14">C896/B896</f>
+        <v>0.9242424242424242</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A897" s="9">
+        <v>44825</v>
+      </c>
+      <c r="B897" s="10">
+        <v>69</v>
+      </c>
+      <c r="C897" s="10">
+        <v>69</v>
+      </c>
+      <c r="D897" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A898" s="9">
+        <v>44826</v>
+      </c>
+      <c r="B898" s="10">
+        <v>79</v>
+      </c>
+      <c r="C898" s="10">
+        <v>79</v>
+      </c>
+      <c r="D898" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A899" s="9">
+        <v>44827</v>
+      </c>
+      <c r="B899" s="10">
+        <v>79</v>
+      </c>
+      <c r="C899" s="10">
+        <v>75</v>
+      </c>
+      <c r="D899" s="1">
+        <f t="shared" si="14"/>
+        <v>0.94936708860759489</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A900" s="9">
+        <v>44828</v>
+      </c>
+      <c r="B900" s="10">
+        <v>51</v>
+      </c>
+      <c r="C900" s="10">
+        <v>49</v>
+      </c>
+      <c r="D900" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A901" s="9">
+        <v>44829</v>
+      </c>
+      <c r="B901" s="10">
+        <v>62</v>
+      </c>
+      <c r="C901" s="10">
+        <v>61</v>
+      </c>
+      <c r="D901" s="1">
+        <f t="shared" si="14"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A902" s="9">
+        <v>44830</v>
+      </c>
+      <c r="B902" s="10">
+        <v>68</v>
+      </c>
+      <c r="C902" s="10">
+        <v>67</v>
+      </c>
+      <c r="D902" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A903" s="9">
+        <v>44831</v>
+      </c>
+      <c r="B903" s="10">
+        <v>69</v>
+      </c>
+      <c r="C903" s="10">
+        <v>69</v>
+      </c>
+      <c r="D903" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A904" s="9">
+        <v>44832</v>
+      </c>
+      <c r="B904" s="10">
+        <v>58</v>
+      </c>
+      <c r="C904" s="10">
+        <v>56</v>
+      </c>
+      <c r="D904" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A905" s="9">
+        <v>44833</v>
+      </c>
+      <c r="B905" s="10">
+        <v>70</v>
+      </c>
+      <c r="C905" s="10">
+        <v>67</v>
+      </c>
+      <c r="D905" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A906" s="9">
+        <v>44834</v>
+      </c>
+      <c r="B906" s="10">
+        <v>68</v>
+      </c>
+      <c r="C906" s="10">
+        <v>63</v>
+      </c>
+      <c r="D906" s="1">
+        <f t="shared" si="14"/>
+        <v>0.92647058823529416</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A907" s="9">
+        <v>44835</v>
+      </c>
+      <c r="B907" s="10">
+        <v>52</v>
+      </c>
+      <c r="C907" s="10">
+        <v>52</v>
+      </c>
+      <c r="D907" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A908" s="9">
+        <v>44836</v>
+      </c>
+      <c r="B908" s="10">
+        <v>56</v>
+      </c>
+      <c r="C908" s="10">
+        <v>54</v>
+      </c>
+      <c r="D908" s="1">
+        <f t="shared" si="14"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A909" s="9">
+        <v>44837</v>
+      </c>
+      <c r="B909" s="10">
+        <v>66</v>
+      </c>
+      <c r="C909" s="10">
+        <v>65</v>
+      </c>
+      <c r="D909" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98484848484848486</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A910" s="9">
+        <v>44838</v>
+      </c>
+      <c r="B910" s="10">
+        <v>64</v>
+      </c>
+      <c r="C910" s="10">
+        <v>62</v>
+      </c>
+      <c r="D910" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A911" s="9">
+        <v>44839</v>
+      </c>
+      <c r="B911" s="10">
+        <v>72</v>
+      </c>
+      <c r="C911" s="10">
+        <v>72</v>
+      </c>
+      <c r="D911" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A912" s="9">
+        <v>44840</v>
+      </c>
+      <c r="B912" s="10">
+        <v>89</v>
+      </c>
+      <c r="C912" s="10">
+        <v>83</v>
+      </c>
+      <c r="D912" s="1">
+        <f t="shared" si="14"/>
+        <v>0.93258426966292129</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A913" s="9">
+        <v>44841</v>
+      </c>
+      <c r="B913" s="10">
+        <v>69</v>
+      </c>
+      <c r="C913" s="10">
+        <v>67</v>
+      </c>
+      <c r="D913" s="1">
+        <f t="shared" si="14"/>
+        <v>0.97101449275362317</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A914" s="9">
+        <v>44842</v>
+      </c>
+      <c r="B914" s="10">
+        <v>51</v>
+      </c>
+      <c r="C914" s="10">
+        <v>51</v>
+      </c>
+      <c r="D914" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A915" s="9">
+        <v>44843</v>
+      </c>
+      <c r="B915" s="10">
+        <v>65</v>
+      </c>
+      <c r="C915" s="10">
+        <v>62</v>
+      </c>
+      <c r="D915" s="1">
+        <f t="shared" si="14"/>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A916" s="9">
+        <v>44844</v>
+      </c>
+      <c r="B916" s="10">
+        <v>68</v>
+      </c>
+      <c r="C916" s="10">
+        <v>66</v>
+      </c>
+      <c r="D916" s="1">
+        <f t="shared" si="14"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A917" s="9">
+        <v>44845</v>
+      </c>
+      <c r="B917" s="10">
+        <v>65</v>
+      </c>
+      <c r="C917" s="10">
+        <v>65</v>
+      </c>
+      <c r="D917" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A918" s="9">
+        <v>44846</v>
+      </c>
+      <c r="B918" s="10">
+        <v>67</v>
+      </c>
+      <c r="C918" s="10">
+        <v>65</v>
+      </c>
+      <c r="D918" s="1">
+        <f t="shared" si="14"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A919" s="9">
+        <v>44847</v>
+      </c>
+      <c r="B919" s="10">
+        <v>79</v>
+      </c>
+      <c r="C919" s="10">
+        <v>79</v>
+      </c>
+      <c r="D919" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A920" s="9">
+        <v>44848</v>
+      </c>
+      <c r="B920" s="10">
+        <v>73</v>
+      </c>
+      <c r="C920" s="10">
+        <v>70</v>
+      </c>
+      <c r="D920" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A921" s="9">
+        <v>44849</v>
+      </c>
+      <c r="B921" s="10">
+        <v>56</v>
+      </c>
+      <c r="C921" s="10">
+        <v>56</v>
+      </c>
+      <c r="D921" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A922" s="9">
+        <v>44850</v>
+      </c>
+      <c r="B922" s="10">
+        <v>65</v>
+      </c>
+      <c r="C922" s="10">
+        <v>64</v>
+      </c>
+      <c r="D922" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A923" s="9">
+        <v>44851</v>
+      </c>
+      <c r="B923" s="10">
+        <v>77</v>
+      </c>
+      <c r="C923" s="10">
+        <v>74</v>
+      </c>
+      <c r="D923" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96103896103896103</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE264032-71D5-554F-85EE-53618FB4867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1ED6F8-3001-B448-BAB0-1471F7E68D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="780" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="3320" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D923"/>
+  <dimension ref="A1:D946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
-      <selection activeCell="H917" sqref="H917"/>
+    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="D921" sqref="D921:D946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14382,7 +14382,7 @@
         <v>61</v>
       </c>
       <c r="D896" s="1">
-        <f t="shared" ref="D896:D923" si="14">C896/B896</f>
+        <f t="shared" ref="D896:D946" si="14">C896/B896</f>
         <v>0.9242424242424242</v>
       </c>
     </row>
@@ -14789,6 +14789,351 @@
       <c r="D923" s="1">
         <f t="shared" si="14"/>
         <v>0.96103896103896103</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A924" s="9">
+        <v>44852</v>
+      </c>
+      <c r="B924" s="10">
+        <v>58</v>
+      </c>
+      <c r="C924" s="10">
+        <v>54</v>
+      </c>
+      <c r="D924" s="1">
+        <f t="shared" si="14"/>
+        <v>0.93103448275862066</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A925" s="9">
+        <v>44853</v>
+      </c>
+      <c r="B925" s="10">
+        <v>68</v>
+      </c>
+      <c r="C925" s="10">
+        <v>65</v>
+      </c>
+      <c r="D925" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95588235294117652</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A926" s="9">
+        <v>44854</v>
+      </c>
+      <c r="B926" s="10">
+        <v>90</v>
+      </c>
+      <c r="C926" s="10">
+        <v>89</v>
+      </c>
+      <c r="D926" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98888888888888893</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A927" s="9">
+        <v>44855</v>
+      </c>
+      <c r="B927" s="10">
+        <v>71</v>
+      </c>
+      <c r="C927" s="10">
+        <v>71</v>
+      </c>
+      <c r="D927" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A928" s="9">
+        <v>44856</v>
+      </c>
+      <c r="B928" s="10">
+        <v>53</v>
+      </c>
+      <c r="C928" s="10">
+        <v>52</v>
+      </c>
+      <c r="D928" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A929" s="9">
+        <v>44857</v>
+      </c>
+      <c r="B929" s="10">
+        <v>61</v>
+      </c>
+      <c r="C929" s="10">
+        <v>60</v>
+      </c>
+      <c r="D929" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98360655737704916</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A930" s="9">
+        <v>44858</v>
+      </c>
+      <c r="B930" s="10">
+        <v>71</v>
+      </c>
+      <c r="C930" s="10">
+        <v>70</v>
+      </c>
+      <c r="D930" s="1">
+        <f t="shared" si="14"/>
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A931" s="9">
+        <v>44859</v>
+      </c>
+      <c r="B931" s="10">
+        <v>68</v>
+      </c>
+      <c r="C931" s="10">
+        <v>67</v>
+      </c>
+      <c r="D931" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A932" s="9">
+        <v>44860</v>
+      </c>
+      <c r="B932" s="10">
+        <v>61</v>
+      </c>
+      <c r="C932" s="10">
+        <v>61</v>
+      </c>
+      <c r="D932" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A933" s="9">
+        <v>44861</v>
+      </c>
+      <c r="B933" s="10">
+        <v>86</v>
+      </c>
+      <c r="C933" s="10">
+        <v>82</v>
+      </c>
+      <c r="D933" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A934" s="9">
+        <v>44862</v>
+      </c>
+      <c r="B934" s="10">
+        <v>78</v>
+      </c>
+      <c r="C934" s="10">
+        <v>77</v>
+      </c>
+      <c r="D934" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98717948717948723</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A935" s="9">
+        <v>44863</v>
+      </c>
+      <c r="B935" s="10">
+        <v>51</v>
+      </c>
+      <c r="C935" s="10">
+        <v>50</v>
+      </c>
+      <c r="D935" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A936" s="9">
+        <v>44864</v>
+      </c>
+      <c r="B936" s="10">
+        <v>55</v>
+      </c>
+      <c r="C936" s="10">
+        <v>54</v>
+      </c>
+      <c r="D936" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A937" s="9">
+        <v>44865</v>
+      </c>
+      <c r="B937" s="10">
+        <v>60</v>
+      </c>
+      <c r="C937" s="10">
+        <v>56</v>
+      </c>
+      <c r="D937" s="1">
+        <f t="shared" si="14"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A938" s="9">
+        <v>44866</v>
+      </c>
+      <c r="B938" s="10">
+        <v>57</v>
+      </c>
+      <c r="C938" s="10">
+        <v>56</v>
+      </c>
+      <c r="D938" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A939" s="9">
+        <v>44867</v>
+      </c>
+      <c r="B939" s="10">
+        <v>73</v>
+      </c>
+      <c r="C939" s="10">
+        <v>68</v>
+      </c>
+      <c r="D939" s="1">
+        <f t="shared" si="14"/>
+        <v>0.93150684931506844</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A940" s="9">
+        <v>44868</v>
+      </c>
+      <c r="B940" s="10">
+        <v>76</v>
+      </c>
+      <c r="C940" s="10">
+        <v>73</v>
+      </c>
+      <c r="D940" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96052631578947367</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A941" s="9">
+        <v>44869</v>
+      </c>
+      <c r="B941" s="10">
+        <v>69</v>
+      </c>
+      <c r="C941" s="10">
+        <v>66</v>
+      </c>
+      <c r="D941" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A942" s="9">
+        <v>44870</v>
+      </c>
+      <c r="B942" s="10">
+        <v>49</v>
+      </c>
+      <c r="C942" s="10">
+        <v>46</v>
+      </c>
+      <c r="D942" s="1">
+        <f t="shared" si="14"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A943" s="9">
+        <v>44871</v>
+      </c>
+      <c r="B943" s="10">
+        <v>61</v>
+      </c>
+      <c r="C943" s="10">
+        <v>58</v>
+      </c>
+      <c r="D943" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A944" s="9">
+        <v>44872</v>
+      </c>
+      <c r="B944" s="10">
+        <v>55</v>
+      </c>
+      <c r="C944" s="10">
+        <v>55</v>
+      </c>
+      <c r="D944" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A945" s="9">
+        <v>44873</v>
+      </c>
+      <c r="B945" s="10">
+        <v>71</v>
+      </c>
+      <c r="C945" s="10">
+        <v>70</v>
+      </c>
+      <c r="D945" s="1">
+        <f t="shared" si="14"/>
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A946" s="9">
+        <v>44874</v>
+      </c>
+      <c r="B946" s="10">
+        <v>56</v>
+      </c>
+      <c r="C946" s="10">
+        <v>54</v>
+      </c>
+      <c r="D946" s="1">
+        <f t="shared" si="14"/>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1ED6F8-3001-B448-BAB0-1471F7E68D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE52CBE-59A3-4A4D-9665-3ED56568E632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="3320" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37440" yWindow="1620" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D946"/>
+  <dimension ref="A1:D963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
-      <selection activeCell="D921" sqref="D921:D946"/>
+    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
+      <selection activeCell="G959" sqref="G959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14382,7 +14382,7 @@
         <v>61</v>
       </c>
       <c r="D896" s="1">
-        <f t="shared" ref="D896:D946" si="14">C896/B896</f>
+        <f t="shared" ref="D896:D959" si="14">C896/B896</f>
         <v>0.9242424242424242</v>
       </c>
     </row>
@@ -15134,6 +15134,261 @@
       <c r="D946" s="1">
         <f t="shared" si="14"/>
         <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A947" s="9">
+        <v>44875</v>
+      </c>
+      <c r="B947" s="10">
+        <v>81</v>
+      </c>
+      <c r="C947" s="10">
+        <v>79</v>
+      </c>
+      <c r="D947" s="1">
+        <f t="shared" si="14"/>
+        <v>0.97530864197530864</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A948" s="9">
+        <v>44876</v>
+      </c>
+      <c r="B948" s="10">
+        <v>83</v>
+      </c>
+      <c r="C948" s="10">
+        <v>78</v>
+      </c>
+      <c r="D948" s="1">
+        <f t="shared" si="14"/>
+        <v>0.93975903614457834</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A949" s="9">
+        <v>44877</v>
+      </c>
+      <c r="B949" s="10">
+        <v>43</v>
+      </c>
+      <c r="C949" s="10">
+        <v>43</v>
+      </c>
+      <c r="D949" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A950" s="9">
+        <v>44878</v>
+      </c>
+      <c r="B950" s="10">
+        <v>67</v>
+      </c>
+      <c r="C950" s="10">
+        <v>65</v>
+      </c>
+      <c r="D950" s="1">
+        <f t="shared" si="14"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A951" s="9">
+        <v>44879</v>
+      </c>
+      <c r="B951" s="10">
+        <v>63</v>
+      </c>
+      <c r="C951" s="10">
+        <v>61</v>
+      </c>
+      <c r="D951" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A952" s="9">
+        <v>44880</v>
+      </c>
+      <c r="B952" s="10">
+        <v>60</v>
+      </c>
+      <c r="C952" s="10">
+        <v>59</v>
+      </c>
+      <c r="D952" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A953" s="9">
+        <v>44881</v>
+      </c>
+      <c r="B953" s="10">
+        <v>66</v>
+      </c>
+      <c r="C953" s="10">
+        <v>64</v>
+      </c>
+      <c r="D953" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A954" s="9">
+        <v>44882</v>
+      </c>
+      <c r="B954" s="10">
+        <v>87</v>
+      </c>
+      <c r="C954" s="10">
+        <v>84</v>
+      </c>
+      <c r="D954" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A955" s="9">
+        <v>44883</v>
+      </c>
+      <c r="B955" s="10">
+        <v>78</v>
+      </c>
+      <c r="C955" s="10">
+        <v>75</v>
+      </c>
+      <c r="D955" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A956" s="9">
+        <v>44884</v>
+      </c>
+      <c r="B956" s="10">
+        <v>52</v>
+      </c>
+      <c r="C956" s="10">
+        <v>52</v>
+      </c>
+      <c r="D956" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A957" s="9">
+        <v>44885</v>
+      </c>
+      <c r="B957" s="10">
+        <v>65</v>
+      </c>
+      <c r="C957" s="10">
+        <v>64</v>
+      </c>
+      <c r="D957" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A958" s="9">
+        <v>44886</v>
+      </c>
+      <c r="B958" s="10">
+        <v>58</v>
+      </c>
+      <c r="C958" s="10">
+        <v>58</v>
+      </c>
+      <c r="D958" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A959" s="9">
+        <v>44887</v>
+      </c>
+      <c r="B959" s="10">
+        <v>63</v>
+      </c>
+      <c r="C959" s="10">
+        <v>62</v>
+      </c>
+      <c r="D959" s="1">
+        <f t="shared" si="14"/>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A960" s="9">
+        <v>44888</v>
+      </c>
+      <c r="B960" s="10">
+        <v>62</v>
+      </c>
+      <c r="C960" s="10">
+        <v>62</v>
+      </c>
+      <c r="D960" s="1">
+        <f t="shared" ref="D960:D963" si="15">C960/B960</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A961" s="9">
+        <v>44889</v>
+      </c>
+      <c r="B961" s="10">
+        <v>39</v>
+      </c>
+      <c r="C961" s="10">
+        <v>36</v>
+      </c>
+      <c r="D961" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A962" s="9">
+        <v>44890</v>
+      </c>
+      <c r="B962" s="10">
+        <v>44</v>
+      </c>
+      <c r="C962" s="10">
+        <v>43</v>
+      </c>
+      <c r="D962" s="1">
+        <f t="shared" si="15"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A963" s="9">
+        <v>44891</v>
+      </c>
+      <c r="B963" s="10">
+        <v>62</v>
+      </c>
+      <c r="C963" s="10">
+        <v>61</v>
+      </c>
+      <c r="D963" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9838709677419355</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE52CBE-59A3-4A4D-9665-3ED56568E632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD4A82-3EAB-6847-B8F0-0C568854C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="1620" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D963"/>
+  <dimension ref="A1:D969"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
-      <selection activeCell="G959" sqref="G959"/>
+      <selection activeCell="E967" sqref="E967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15342,7 +15342,7 @@
         <v>62</v>
       </c>
       <c r="D960" s="1">
-        <f t="shared" ref="D960:D963" si="15">C960/B960</f>
+        <f t="shared" ref="D960:D969" si="15">C960/B960</f>
         <v>1</v>
       </c>
     </row>
@@ -15389,6 +15389,96 @@
       <c r="D963" s="1">
         <f t="shared" si="15"/>
         <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A964" s="9">
+        <v>44892</v>
+      </c>
+      <c r="B964" s="10">
+        <v>69</v>
+      </c>
+      <c r="C964" s="10">
+        <v>68</v>
+      </c>
+      <c r="D964" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A965" s="9">
+        <v>44893</v>
+      </c>
+      <c r="B965" s="10">
+        <v>62</v>
+      </c>
+      <c r="C965" s="10">
+        <v>61</v>
+      </c>
+      <c r="D965" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A966" s="9">
+        <v>44894</v>
+      </c>
+      <c r="B966" s="10">
+        <v>70</v>
+      </c>
+      <c r="C966" s="10">
+        <v>69</v>
+      </c>
+      <c r="D966" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A967" s="9">
+        <v>44895</v>
+      </c>
+      <c r="B967" s="10">
+        <v>81</v>
+      </c>
+      <c r="C967" s="10">
+        <v>74</v>
+      </c>
+      <c r="D967" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9135802469135802</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A968" s="9">
+        <v>44896</v>
+      </c>
+      <c r="B968" s="10">
+        <v>74</v>
+      </c>
+      <c r="C968" s="10">
+        <v>71</v>
+      </c>
+      <c r="D968" s="1">
+        <f t="shared" si="15"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A969" s="9">
+        <v>44897</v>
+      </c>
+      <c r="B969" s="10">
+        <v>73</v>
+      </c>
+      <c r="C969" s="10">
+        <v>70</v>
+      </c>
+      <c r="D969" s="1">
+        <f t="shared" si="15"/>
+        <v>0.95890410958904104</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD4A82-3EAB-6847-B8F0-0C568854C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98A2BE3-6F90-0E44-9EF6-99A1D5FFFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D969"/>
+  <dimension ref="A1:D991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
-      <selection activeCell="E967" sqref="E967"/>
+    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
+      <selection activeCell="F984" sqref="F984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15342,7 +15342,7 @@
         <v>62</v>
       </c>
       <c r="D960" s="1">
-        <f t="shared" ref="D960:D969" si="15">C960/B960</f>
+        <f t="shared" ref="D960:D991" si="15">C960/B960</f>
         <v>1</v>
       </c>
     </row>
@@ -15479,6 +15479,336 @@
       <c r="D969" s="1">
         <f t="shared" si="15"/>
         <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A970" s="9">
+        <v>44898</v>
+      </c>
+      <c r="B970" s="10">
+        <v>48</v>
+      </c>
+      <c r="C970" s="10">
+        <v>48</v>
+      </c>
+      <c r="D970" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A971" s="9">
+        <v>44899</v>
+      </c>
+      <c r="B971" s="10">
+        <v>63</v>
+      </c>
+      <c r="C971" s="10">
+        <v>63</v>
+      </c>
+      <c r="D971" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A972" s="9">
+        <v>44900</v>
+      </c>
+      <c r="B972" s="10">
+        <v>66</v>
+      </c>
+      <c r="C972" s="10">
+        <v>63</v>
+      </c>
+      <c r="D972" s="1">
+        <f t="shared" si="15"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A973" s="9">
+        <v>44901</v>
+      </c>
+      <c r="B973" s="10">
+        <v>75</v>
+      </c>
+      <c r="C973" s="10">
+        <v>72</v>
+      </c>
+      <c r="D973" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A974" s="9">
+        <v>44902</v>
+      </c>
+      <c r="B974" s="10">
+        <v>74</v>
+      </c>
+      <c r="C974" s="10">
+        <v>69</v>
+      </c>
+      <c r="D974" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93243243243243246</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A975" s="9">
+        <v>44903</v>
+      </c>
+      <c r="B975" s="10">
+        <v>83</v>
+      </c>
+      <c r="C975" s="10">
+        <v>77</v>
+      </c>
+      <c r="D975" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92771084337349397</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A976" s="9">
+        <v>44904</v>
+      </c>
+      <c r="B976" s="10">
+        <v>66</v>
+      </c>
+      <c r="C976" s="10">
+        <v>62</v>
+      </c>
+      <c r="D976" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A977" s="9">
+        <v>44905</v>
+      </c>
+      <c r="B977" s="10">
+        <v>50</v>
+      </c>
+      <c r="C977" s="10">
+        <v>48</v>
+      </c>
+      <c r="D977" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A978" s="9">
+        <v>44906</v>
+      </c>
+      <c r="B978" s="10">
+        <v>60</v>
+      </c>
+      <c r="C978" s="10">
+        <v>59</v>
+      </c>
+      <c r="D978" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A979" s="9">
+        <v>44907</v>
+      </c>
+      <c r="B979" s="10">
+        <v>68</v>
+      </c>
+      <c r="C979" s="10">
+        <v>67</v>
+      </c>
+      <c r="D979" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A980" s="9">
+        <v>44908</v>
+      </c>
+      <c r="B980" s="10">
+        <v>63</v>
+      </c>
+      <c r="C980" s="10">
+        <v>58</v>
+      </c>
+      <c r="D980" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92063492063492058</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A981" s="9">
+        <v>44909</v>
+      </c>
+      <c r="B981" s="10">
+        <v>65</v>
+      </c>
+      <c r="C981" s="10">
+        <v>64</v>
+      </c>
+      <c r="D981" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A982" s="9">
+        <v>44910</v>
+      </c>
+      <c r="B982" s="10">
+        <v>72</v>
+      </c>
+      <c r="C982" s="10">
+        <v>67</v>
+      </c>
+      <c r="D982" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A983" s="9">
+        <v>44911</v>
+      </c>
+      <c r="B983" s="10">
+        <v>78</v>
+      </c>
+      <c r="C983" s="10">
+        <v>76</v>
+      </c>
+      <c r="D983" s="1">
+        <f t="shared" si="15"/>
+        <v>0.97435897435897434</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A984" s="9">
+        <v>44912</v>
+      </c>
+      <c r="B984" s="10">
+        <v>52</v>
+      </c>
+      <c r="C984" s="10">
+        <v>51</v>
+      </c>
+      <c r="D984" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98076923076923073</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A985" s="9">
+        <v>44913</v>
+      </c>
+      <c r="B985" s="10">
+        <v>55</v>
+      </c>
+      <c r="C985" s="10">
+        <v>53</v>
+      </c>
+      <c r="D985" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A986" s="9">
+        <v>44914</v>
+      </c>
+      <c r="B986" s="10">
+        <v>56</v>
+      </c>
+      <c r="C986" s="10">
+        <v>54</v>
+      </c>
+      <c r="D986" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A987" s="9">
+        <v>44915</v>
+      </c>
+      <c r="B987" s="10">
+        <v>76</v>
+      </c>
+      <c r="C987" s="10">
+        <v>72</v>
+      </c>
+      <c r="D987" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A988" s="9">
+        <v>44916</v>
+      </c>
+      <c r="B988" s="10">
+        <v>73</v>
+      </c>
+      <c r="C988" s="10">
+        <v>63</v>
+      </c>
+      <c r="D988" s="1">
+        <f t="shared" si="15"/>
+        <v>0.86301369863013699</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A989" s="9">
+        <v>44917</v>
+      </c>
+      <c r="B989" s="10">
+        <v>62</v>
+      </c>
+      <c r="C989" s="10">
+        <v>45</v>
+      </c>
+      <c r="D989" s="1">
+        <f t="shared" si="15"/>
+        <v>0.72580645161290325</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A990" s="9">
+        <v>44918</v>
+      </c>
+      <c r="B990" s="10">
+        <v>57</v>
+      </c>
+      <c r="C990" s="10">
+        <v>35</v>
+      </c>
+      <c r="D990" s="1">
+        <f t="shared" si="15"/>
+        <v>0.61403508771929827</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A991" s="9">
+        <v>44919</v>
+      </c>
+      <c r="B991" s="10">
+        <v>53</v>
+      </c>
+      <c r="C991" s="10">
+        <v>41</v>
+      </c>
+      <c r="D991" s="1">
+        <f t="shared" si="15"/>
+        <v>0.77358490566037741</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98A2BE3-6F90-0E44-9EF6-99A1D5FFFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27512294-C967-6940-8BDF-64067E977191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1060" yWindow="5380" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D991"/>
+  <dimension ref="A1:D1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="F984" sqref="F984"/>
+    <sheetView tabSelected="1" topLeftCell="A999" workbookViewId="0">
+      <selection activeCell="F1019" sqref="F1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15342,7 +15342,7 @@
         <v>62</v>
       </c>
       <c r="D960" s="1">
-        <f t="shared" ref="D960:D991" si="15">C960/B960</f>
+        <f t="shared" ref="D960:D1023" si="15">C960/B960</f>
         <v>1</v>
       </c>
     </row>
@@ -15809,6 +15809,497 @@
       <c r="D991" s="1">
         <f t="shared" si="15"/>
         <v>0.77358490566037741</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A992" s="9">
+        <v>44920</v>
+      </c>
+      <c r="B992" s="10">
+        <v>37</v>
+      </c>
+      <c r="C992" s="10">
+        <v>31</v>
+      </c>
+      <c r="D992" s="1">
+        <f t="shared" si="15"/>
+        <v>0.83783783783783783</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A993" s="9">
+        <v>44921</v>
+      </c>
+      <c r="B993" s="10">
+        <v>58</v>
+      </c>
+      <c r="C993" s="10">
+        <v>51</v>
+      </c>
+      <c r="D993" s="1">
+        <f t="shared" si="15"/>
+        <v>0.87931034482758619</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A994" s="9">
+        <v>44922</v>
+      </c>
+      <c r="B994" s="10">
+        <v>70</v>
+      </c>
+      <c r="C994" s="10">
+        <v>61</v>
+      </c>
+      <c r="D994" s="1">
+        <f t="shared" si="15"/>
+        <v>0.87142857142857144</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A995" s="9">
+        <v>44923</v>
+      </c>
+      <c r="B995" s="10">
+        <v>64</v>
+      </c>
+      <c r="C995" s="10">
+        <v>60</v>
+      </c>
+      <c r="D995" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A996" s="9">
+        <v>44924</v>
+      </c>
+      <c r="B996" s="10">
+        <v>65</v>
+      </c>
+      <c r="C996" s="10">
+        <v>58</v>
+      </c>
+      <c r="D996" s="1">
+        <f t="shared" si="15"/>
+        <v>0.89230769230769236</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A997" s="9">
+        <v>44925</v>
+      </c>
+      <c r="B997" s="10">
+        <v>62</v>
+      </c>
+      <c r="C997" s="10">
+        <v>60</v>
+      </c>
+      <c r="D997" s="1">
+        <f t="shared" si="15"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A998" s="9">
+        <v>44926</v>
+      </c>
+      <c r="B998" s="10">
+        <v>52</v>
+      </c>
+      <c r="C998" s="10">
+        <v>50</v>
+      </c>
+      <c r="D998" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A999" s="9">
+        <v>44927</v>
+      </c>
+      <c r="B999" s="10">
+        <v>46</v>
+      </c>
+      <c r="C999" s="10">
+        <v>44</v>
+      </c>
+      <c r="D999" s="1">
+        <f t="shared" si="15"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1000" s="9">
+        <v>44928</v>
+      </c>
+      <c r="B1000" s="10">
+        <v>50</v>
+      </c>
+      <c r="C1000" s="10">
+        <v>48</v>
+      </c>
+      <c r="D1000" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1001" s="9">
+        <v>44929</v>
+      </c>
+      <c r="B1001" s="10">
+        <v>63</v>
+      </c>
+      <c r="C1001" s="10">
+        <v>59</v>
+      </c>
+      <c r="D1001" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1002" s="9">
+        <v>44930</v>
+      </c>
+      <c r="B1002" s="10">
+        <v>57</v>
+      </c>
+      <c r="C1002" s="10">
+        <v>55</v>
+      </c>
+      <c r="D1002" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1003" s="9">
+        <v>44931</v>
+      </c>
+      <c r="B1003" s="10">
+        <v>61</v>
+      </c>
+      <c r="C1003" s="10">
+        <v>60</v>
+      </c>
+      <c r="D1003" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98360655737704916</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1004" s="9">
+        <v>44932</v>
+      </c>
+      <c r="B1004" s="10">
+        <v>71</v>
+      </c>
+      <c r="C1004" s="10">
+        <v>69</v>
+      </c>
+      <c r="D1004" s="1">
+        <f t="shared" si="15"/>
+        <v>0.971830985915493</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1005" s="9">
+        <v>44933</v>
+      </c>
+      <c r="B1005" s="10">
+        <v>54</v>
+      </c>
+      <c r="C1005" s="10">
+        <v>52</v>
+      </c>
+      <c r="D1005" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1006" s="9">
+        <v>44934</v>
+      </c>
+      <c r="B1006" s="10">
+        <v>47</v>
+      </c>
+      <c r="C1006" s="10">
+        <v>47</v>
+      </c>
+      <c r="D1006" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1007" s="9">
+        <v>44935</v>
+      </c>
+      <c r="B1007" s="10">
+        <v>54</v>
+      </c>
+      <c r="C1007" s="10">
+        <v>51</v>
+      </c>
+      <c r="D1007" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1008" s="9">
+        <v>44936</v>
+      </c>
+      <c r="B1008" s="10">
+        <v>65</v>
+      </c>
+      <c r="C1008" s="10">
+        <v>61</v>
+      </c>
+      <c r="D1008" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1009" s="9">
+        <v>44937</v>
+      </c>
+      <c r="B1009" s="10">
+        <v>72</v>
+      </c>
+      <c r="C1009" s="10">
+        <v>67</v>
+      </c>
+      <c r="D1009" s="1">
+        <f t="shared" si="15"/>
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1010" s="9">
+        <v>44938</v>
+      </c>
+      <c r="B1010" s="10">
+        <v>75</v>
+      </c>
+      <c r="C1010" s="10">
+        <v>68</v>
+      </c>
+      <c r="D1010" s="1">
+        <f t="shared" si="15"/>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1011" s="9">
+        <v>44939</v>
+      </c>
+      <c r="B1011" s="10">
+        <v>69</v>
+      </c>
+      <c r="C1011" s="10">
+        <v>67</v>
+      </c>
+      <c r="D1011" s="1">
+        <f t="shared" si="15"/>
+        <v>0.97101449275362317</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1012" s="9">
+        <v>44940</v>
+      </c>
+      <c r="B1012" s="10">
+        <v>50</v>
+      </c>
+      <c r="C1012" s="10">
+        <v>49</v>
+      </c>
+      <c r="D1012" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1013" s="9">
+        <v>44941</v>
+      </c>
+      <c r="B1013" s="10">
+        <v>56</v>
+      </c>
+      <c r="C1013" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1013" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1014" s="9">
+        <v>44942</v>
+      </c>
+      <c r="B1014" s="10">
+        <v>63</v>
+      </c>
+      <c r="C1014" s="10">
+        <v>61</v>
+      </c>
+      <c r="D1014" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1015" s="9">
+        <v>44943</v>
+      </c>
+      <c r="B1015" s="10">
+        <v>60</v>
+      </c>
+      <c r="C1015" s="10">
+        <v>60</v>
+      </c>
+      <c r="D1015" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1016" s="9">
+        <v>44944</v>
+      </c>
+      <c r="B1016" s="10">
+        <v>66</v>
+      </c>
+      <c r="C1016" s="10">
+        <v>66</v>
+      </c>
+      <c r="D1016" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1017" s="9">
+        <v>44945</v>
+      </c>
+      <c r="B1017" s="10">
+        <v>67</v>
+      </c>
+      <c r="C1017" s="10">
+        <v>62</v>
+      </c>
+      <c r="D1017" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1018" s="9">
+        <v>44946</v>
+      </c>
+      <c r="B1018" s="10">
+        <v>56</v>
+      </c>
+      <c r="C1018" s="10">
+        <v>55</v>
+      </c>
+      <c r="D1018" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1019" s="9">
+        <v>44947</v>
+      </c>
+      <c r="B1019" s="10">
+        <v>43</v>
+      </c>
+      <c r="C1019" s="10">
+        <v>43</v>
+      </c>
+      <c r="D1019" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1020" s="9">
+        <v>44948</v>
+      </c>
+      <c r="B1020" s="10">
+        <v>52</v>
+      </c>
+      <c r="C1020" s="10">
+        <v>52</v>
+      </c>
+      <c r="D1020" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1021" s="9">
+        <v>44949</v>
+      </c>
+      <c r="B1021" s="10">
+        <v>71</v>
+      </c>
+      <c r="C1021" s="10">
+        <v>70</v>
+      </c>
+      <c r="D1021" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1022" s="9">
+        <v>44950</v>
+      </c>
+      <c r="B1022" s="10">
+        <v>61</v>
+      </c>
+      <c r="C1022" s="10">
+        <v>59</v>
+      </c>
+      <c r="D1022" s="1">
+        <f t="shared" si="15"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1023" s="9">
+        <v>44951</v>
+      </c>
+      <c r="B1023" s="10">
+        <v>63</v>
+      </c>
+      <c r="C1023" s="10">
+        <v>62</v>
+      </c>
+      <c r="D1023" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1024" s="9">
+        <v>44952</v>
+      </c>
+      <c r="B1024" s="10">
+        <v>85</v>
+      </c>
+      <c r="C1024" s="10">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27512294-C967-6940-8BDF-64067E977191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55B2F1-9826-164E-B9A5-C9C19F93738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1060" yWindow="5380" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="6680" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1024"/>
+  <dimension ref="A1:D1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A999" workbookViewId="0">
-      <selection activeCell="F1019" sqref="F1019"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
+      <selection activeCell="D1084" sqref="D1084:D1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15342,7 +15342,7 @@
         <v>62</v>
       </c>
       <c r="D960" s="1">
-        <f t="shared" ref="D960:D1023" si="15">C960/B960</f>
+        <f t="shared" ref="D960:D1024" si="15">C960/B960</f>
         <v>1</v>
       </c>
     </row>
@@ -16300,6 +16300,1030 @@
       </c>
       <c r="C1024" s="10">
         <v>83</v>
+      </c>
+      <c r="D1024" s="1">
+        <f t="shared" si="15"/>
+        <v>0.97647058823529409</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1025" s="9">
+        <v>44953</v>
+      </c>
+      <c r="B1025" s="10">
+        <v>65</v>
+      </c>
+      <c r="C1025" s="10">
+        <v>65</v>
+      </c>
+      <c r="D1025" s="1">
+        <f t="shared" ref="D1025:D1088" si="16">C1025/B1025</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1026" s="9">
+        <v>44954</v>
+      </c>
+      <c r="B1026" s="10">
+        <v>48</v>
+      </c>
+      <c r="C1026" s="10">
+        <v>45</v>
+      </c>
+      <c r="D1026" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1027" s="9">
+        <v>44955</v>
+      </c>
+      <c r="B1027" s="10">
+        <v>53</v>
+      </c>
+      <c r="C1027" s="10">
+        <v>52</v>
+      </c>
+      <c r="D1027" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1028" s="9">
+        <v>44956</v>
+      </c>
+      <c r="B1028" s="10">
+        <v>58</v>
+      </c>
+      <c r="C1028" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1028" s="1">
+        <f t="shared" si="16"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1029" s="9">
+        <v>44957</v>
+      </c>
+      <c r="B1029" s="10">
+        <v>60</v>
+      </c>
+      <c r="C1029" s="10">
+        <v>49</v>
+      </c>
+      <c r="D1029" s="1">
+        <f t="shared" si="16"/>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1030" s="9">
+        <v>44958</v>
+      </c>
+      <c r="B1030" s="10">
+        <v>65</v>
+      </c>
+      <c r="C1030" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1030" s="1">
+        <f t="shared" si="16"/>
+        <v>0.86153846153846159</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1031" s="9">
+        <v>44959</v>
+      </c>
+      <c r="B1031" s="10">
+        <v>62</v>
+      </c>
+      <c r="C1031" s="10">
+        <v>60</v>
+      </c>
+      <c r="D1031" s="1">
+        <f t="shared" si="16"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1032" s="9">
+        <v>44960</v>
+      </c>
+      <c r="B1032" s="10">
+        <v>71</v>
+      </c>
+      <c r="C1032" s="10">
+        <v>67</v>
+      </c>
+      <c r="D1032" s="1">
+        <f t="shared" si="16"/>
+        <v>0.94366197183098588</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1033" s="9">
+        <v>44961</v>
+      </c>
+      <c r="B1033" s="10">
+        <v>48</v>
+      </c>
+      <c r="C1033" s="10">
+        <v>44</v>
+      </c>
+      <c r="D1033" s="1">
+        <f t="shared" si="16"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1034" s="9">
+        <v>44962</v>
+      </c>
+      <c r="B1034" s="10">
+        <v>53</v>
+      </c>
+      <c r="C1034" s="10">
+        <v>52</v>
+      </c>
+      <c r="D1034" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1035" s="9">
+        <v>44963</v>
+      </c>
+      <c r="B1035" s="10">
+        <v>58</v>
+      </c>
+      <c r="C1035" s="10">
+        <v>57</v>
+      </c>
+      <c r="D1035" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98275862068965514</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1036" s="9">
+        <v>44964</v>
+      </c>
+      <c r="B1036" s="10">
+        <v>62</v>
+      </c>
+      <c r="C1036" s="10">
+        <v>62</v>
+      </c>
+      <c r="D1036" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1037" s="9">
+        <v>44965</v>
+      </c>
+      <c r="B1037" s="10">
+        <v>60</v>
+      </c>
+      <c r="C1037" s="10">
+        <v>59</v>
+      </c>
+      <c r="D1037" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1038" s="9">
+        <v>44966</v>
+      </c>
+      <c r="B1038" s="10">
+        <v>65</v>
+      </c>
+      <c r="C1038" s="10">
+        <v>65</v>
+      </c>
+      <c r="D1038" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1039" s="9">
+        <v>44967</v>
+      </c>
+      <c r="B1039" s="10">
+        <v>77</v>
+      </c>
+      <c r="C1039" s="10">
+        <v>69</v>
+      </c>
+      <c r="D1039" s="1">
+        <f t="shared" si="16"/>
+        <v>0.89610389610389607</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1040" s="9">
+        <v>44968</v>
+      </c>
+      <c r="B1040" s="10">
+        <v>49</v>
+      </c>
+      <c r="C1040" s="10">
+        <v>47</v>
+      </c>
+      <c r="D1040" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1041" s="9">
+        <v>44969</v>
+      </c>
+      <c r="B1041" s="10">
+        <v>59</v>
+      </c>
+      <c r="C1041" s="10">
+        <v>57</v>
+      </c>
+      <c r="D1041" s="1">
+        <f t="shared" si="16"/>
+        <v>0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1042" s="9">
+        <v>44970</v>
+      </c>
+      <c r="B1042" s="10">
+        <v>67</v>
+      </c>
+      <c r="C1042" s="10">
+        <v>66</v>
+      </c>
+      <c r="D1042" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1043" s="9">
+        <v>44971</v>
+      </c>
+      <c r="B1043" s="10">
+        <v>57</v>
+      </c>
+      <c r="C1043" s="10">
+        <v>57</v>
+      </c>
+      <c r="D1043" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1044" s="9">
+        <v>44972</v>
+      </c>
+      <c r="B1044" s="10">
+        <v>71</v>
+      </c>
+      <c r="C1044" s="10">
+        <v>65</v>
+      </c>
+      <c r="D1044" s="1">
+        <f t="shared" si="16"/>
+        <v>0.91549295774647887</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1045" s="9">
+        <v>44973</v>
+      </c>
+      <c r="B1045" s="10">
+        <v>64</v>
+      </c>
+      <c r="C1045" s="10">
+        <v>60</v>
+      </c>
+      <c r="D1045" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1046" s="9">
+        <v>44974</v>
+      </c>
+      <c r="B1046" s="10">
+        <v>76</v>
+      </c>
+      <c r="C1046" s="10">
+        <v>73</v>
+      </c>
+      <c r="D1046" s="1">
+        <f t="shared" si="16"/>
+        <v>0.96052631578947367</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1047" s="9">
+        <v>44975</v>
+      </c>
+      <c r="B1047" s="10">
+        <v>58</v>
+      </c>
+      <c r="C1047" s="10">
+        <v>55</v>
+      </c>
+      <c r="D1047" s="1">
+        <f t="shared" si="16"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1048" s="9">
+        <v>44976</v>
+      </c>
+      <c r="B1048" s="10">
+        <v>52</v>
+      </c>
+      <c r="C1048" s="10">
+        <v>52</v>
+      </c>
+      <c r="D1048" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1049" s="9">
+        <v>44977</v>
+      </c>
+      <c r="B1049" s="10">
+        <v>61</v>
+      </c>
+      <c r="C1049" s="10">
+        <v>61</v>
+      </c>
+      <c r="D1049" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1050" s="9">
+        <v>44978</v>
+      </c>
+      <c r="B1050" s="10">
+        <v>77</v>
+      </c>
+      <c r="C1050" s="10">
+        <v>72</v>
+      </c>
+      <c r="D1050" s="1">
+        <f t="shared" si="16"/>
+        <v>0.93506493506493504</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1051" s="9">
+        <v>44979</v>
+      </c>
+      <c r="B1051" s="10">
+        <v>64</v>
+      </c>
+      <c r="C1051" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1051" s="1">
+        <f t="shared" si="16"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1052" s="9">
+        <v>44980</v>
+      </c>
+      <c r="B1052" s="10">
+        <v>68</v>
+      </c>
+      <c r="C1052" s="10">
+        <v>64</v>
+      </c>
+      <c r="D1052" s="1">
+        <f t="shared" si="16"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1053" s="9">
+        <v>44981</v>
+      </c>
+      <c r="B1053" s="10">
+        <v>70</v>
+      </c>
+      <c r="C1053" s="10">
+        <v>67</v>
+      </c>
+      <c r="D1053" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1054" s="9">
+        <v>44982</v>
+      </c>
+      <c r="B1054" s="10">
+        <v>59</v>
+      </c>
+      <c r="C1054" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1054" s="1">
+        <f t="shared" si="16"/>
+        <v>0.94915254237288138</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1055" s="9">
+        <v>44983</v>
+      </c>
+      <c r="B1055" s="10">
+        <v>63</v>
+      </c>
+      <c r="C1055" s="10">
+        <v>63</v>
+      </c>
+      <c r="D1055" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1056" s="9">
+        <v>44984</v>
+      </c>
+      <c r="B1056" s="10">
+        <v>60</v>
+      </c>
+      <c r="C1056" s="10">
+        <v>55</v>
+      </c>
+      <c r="D1056" s="1">
+        <f t="shared" si="16"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1057" s="9">
+        <v>44985</v>
+      </c>
+      <c r="B1057" s="10">
+        <v>79</v>
+      </c>
+      <c r="C1057" s="10">
+        <v>77</v>
+      </c>
+      <c r="D1057" s="1">
+        <f t="shared" si="16"/>
+        <v>0.97468354430379744</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1058" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B1058" s="10">
+        <v>62</v>
+      </c>
+      <c r="C1058" s="10">
+        <v>62</v>
+      </c>
+      <c r="D1058" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1059" s="9">
+        <v>44987</v>
+      </c>
+      <c r="B1059" s="10">
+        <v>69</v>
+      </c>
+      <c r="C1059" s="10">
+        <v>66</v>
+      </c>
+      <c r="D1059" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1060" s="9">
+        <v>44988</v>
+      </c>
+      <c r="B1060" s="10">
+        <v>66</v>
+      </c>
+      <c r="C1060" s="10">
+        <v>61</v>
+      </c>
+      <c r="D1060" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9242424242424242</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1061" s="9">
+        <v>44989</v>
+      </c>
+      <c r="B1061" s="10">
+        <v>57</v>
+      </c>
+      <c r="C1061" s="10">
+        <v>53</v>
+      </c>
+      <c r="D1061" s="1">
+        <f t="shared" si="16"/>
+        <v>0.92982456140350878</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1062" s="9">
+        <v>44990</v>
+      </c>
+      <c r="B1062" s="10">
+        <v>56</v>
+      </c>
+      <c r="C1062" s="10">
+        <v>55</v>
+      </c>
+      <c r="D1062" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1063" s="9">
+        <v>44991</v>
+      </c>
+      <c r="B1063" s="10">
+        <v>60</v>
+      </c>
+      <c r="C1063" s="10">
+        <v>60</v>
+      </c>
+      <c r="D1063" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1064" s="9">
+        <v>44992</v>
+      </c>
+      <c r="B1064" s="10">
+        <v>62</v>
+      </c>
+      <c r="C1064" s="10">
+        <v>62</v>
+      </c>
+      <c r="D1064" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1065" s="9">
+        <v>44993</v>
+      </c>
+      <c r="B1065" s="10">
+        <v>69</v>
+      </c>
+      <c r="C1065" s="10">
+        <v>67</v>
+      </c>
+      <c r="D1065" s="1">
+        <f t="shared" si="16"/>
+        <v>0.97101449275362317</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1066" s="9">
+        <v>44994</v>
+      </c>
+      <c r="B1066" s="10">
+        <v>66</v>
+      </c>
+      <c r="C1066" s="10">
+        <v>63</v>
+      </c>
+      <c r="D1066" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1067" s="9">
+        <v>44995</v>
+      </c>
+      <c r="B1067" s="10">
+        <v>76</v>
+      </c>
+      <c r="C1067" s="10">
+        <v>75</v>
+      </c>
+      <c r="D1067" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1068" s="9">
+        <v>44996</v>
+      </c>
+      <c r="B1068" s="10">
+        <v>59</v>
+      </c>
+      <c r="C1068" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1068" s="1">
+        <f t="shared" si="16"/>
+        <v>0.94915254237288138</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1069" s="9">
+        <v>44997</v>
+      </c>
+      <c r="B1069" s="10">
+        <v>71</v>
+      </c>
+      <c r="C1069" s="10">
+        <v>65</v>
+      </c>
+      <c r="D1069" s="1">
+        <f t="shared" si="16"/>
+        <v>0.91549295774647887</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1070" s="9">
+        <v>44998</v>
+      </c>
+      <c r="B1070" s="10">
+        <v>53</v>
+      </c>
+      <c r="C1070" s="10">
+        <v>53</v>
+      </c>
+      <c r="D1070" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1071" s="9">
+        <v>44999</v>
+      </c>
+      <c r="B1071" s="10">
+        <v>77</v>
+      </c>
+      <c r="C1071" s="10">
+        <v>76</v>
+      </c>
+      <c r="D1071" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98701298701298701</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1072" s="9">
+        <v>45000</v>
+      </c>
+      <c r="B1072" s="10">
+        <v>65</v>
+      </c>
+      <c r="C1072" s="10">
+        <v>64</v>
+      </c>
+      <c r="D1072" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1073" s="9">
+        <v>45001</v>
+      </c>
+      <c r="B1073" s="10">
+        <v>74</v>
+      </c>
+      <c r="C1073" s="10">
+        <v>73</v>
+      </c>
+      <c r="D1073" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98648648648648651</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1074" s="9">
+        <v>45002</v>
+      </c>
+      <c r="B1074" s="10">
+        <v>73</v>
+      </c>
+      <c r="C1074" s="10">
+        <v>72</v>
+      </c>
+      <c r="D1074" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98630136986301364</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1075" s="9">
+        <v>45003</v>
+      </c>
+      <c r="B1075" s="10">
+        <v>71</v>
+      </c>
+      <c r="C1075" s="10">
+        <v>71</v>
+      </c>
+      <c r="D1075" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1076" s="9">
+        <v>45004</v>
+      </c>
+      <c r="B1076" s="10">
+        <v>90</v>
+      </c>
+      <c r="C1076" s="10">
+        <v>84</v>
+      </c>
+      <c r="D1076" s="1">
+        <f t="shared" si="16"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1077" s="9">
+        <v>45005</v>
+      </c>
+      <c r="B1077" s="10">
+        <v>69</v>
+      </c>
+      <c r="C1077" s="10">
+        <v>66</v>
+      </c>
+      <c r="D1077" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1078" s="9">
+        <v>45006</v>
+      </c>
+      <c r="B1078" s="10">
+        <v>69</v>
+      </c>
+      <c r="C1078" s="10">
+        <v>68</v>
+      </c>
+      <c r="D1078" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1079" s="9">
+        <v>45007</v>
+      </c>
+      <c r="B1079" s="10">
+        <v>63</v>
+      </c>
+      <c r="C1079" s="10">
+        <v>59</v>
+      </c>
+      <c r="D1079" s="1">
+        <f t="shared" si="16"/>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1080" s="9">
+        <v>45008</v>
+      </c>
+      <c r="B1080" s="10">
+        <v>75</v>
+      </c>
+      <c r="C1080" s="10">
+        <v>72</v>
+      </c>
+      <c r="D1080" s="1">
+        <f t="shared" si="16"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1081" s="9">
+        <v>45009</v>
+      </c>
+      <c r="B1081" s="10">
+        <v>67</v>
+      </c>
+      <c r="C1081" s="10">
+        <v>64</v>
+      </c>
+      <c r="D1081" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1082" s="9">
+        <v>45010</v>
+      </c>
+      <c r="B1082" s="10">
+        <v>54</v>
+      </c>
+      <c r="C1082" s="10">
+        <v>53</v>
+      </c>
+      <c r="D1082" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98148148148148151</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1083" s="9">
+        <v>45011</v>
+      </c>
+      <c r="B1083" s="10">
+        <v>62</v>
+      </c>
+      <c r="C1083" s="10">
+        <v>61</v>
+      </c>
+      <c r="D1083" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1084" s="9">
+        <v>45012</v>
+      </c>
+      <c r="B1084" s="10">
+        <v>66</v>
+      </c>
+      <c r="C1084" s="10">
+        <v>63</v>
+      </c>
+      <c r="D1084" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1085" s="9">
+        <v>45013</v>
+      </c>
+      <c r="B1085" s="10">
+        <v>77</v>
+      </c>
+      <c r="C1085" s="10">
+        <v>76</v>
+      </c>
+      <c r="D1085" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98701298701298701</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1086" s="9">
+        <v>45014</v>
+      </c>
+      <c r="B1086" s="10">
+        <v>78</v>
+      </c>
+      <c r="C1086" s="10">
+        <v>72</v>
+      </c>
+      <c r="D1086" s="1">
+        <f t="shared" si="16"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1087" s="9">
+        <v>45015</v>
+      </c>
+      <c r="B1087" s="10">
+        <v>72</v>
+      </c>
+      <c r="C1087" s="10">
+        <v>71</v>
+      </c>
+      <c r="D1087" s="1">
+        <f t="shared" si="16"/>
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1088" s="9">
+        <v>45016</v>
+      </c>
+      <c r="B1088" s="10">
+        <v>65</v>
+      </c>
+      <c r="C1088" s="10">
+        <v>56</v>
+      </c>
+      <c r="D1088" s="1">
+        <f t="shared" si="16"/>
+        <v>0.86153846153846159</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1089" s="9">
+        <v>45017</v>
+      </c>
+      <c r="B1089" s="10">
+        <v>49</v>
+      </c>
+      <c r="C1089" s="10">
+        <v>47</v>
+      </c>
+      <c r="D1089" s="1">
+        <f t="shared" ref="D1089:D1092" si="17">C1089/B1089</f>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1090" s="9">
+        <v>45018</v>
+      </c>
+      <c r="B1090" s="10">
+        <v>49</v>
+      </c>
+      <c r="C1090" s="10">
+        <v>48</v>
+      </c>
+      <c r="D1090" s="1">
+        <f t="shared" si="17"/>
+        <v>0.97959183673469385</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1091" s="9">
+        <v>45019</v>
+      </c>
+      <c r="B1091" s="10">
+        <v>55</v>
+      </c>
+      <c r="C1091" s="10">
+        <v>53</v>
+      </c>
+      <c r="D1091" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1092" s="9">
+        <v>45020</v>
+      </c>
+      <c r="B1092" s="10">
+        <v>60</v>
+      </c>
+      <c r="C1092" s="10">
+        <v>58</v>
+      </c>
+      <c r="D1092" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55B2F1-9826-164E-B9A5-C9C19F93738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9134B75C-B8AB-C74A-A91F-57036D0EF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="6680" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41980" yWindow="-4740" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +23,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +56,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +211,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -552,7 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -565,17 +574,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,21 +952,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1092"/>
+  <dimension ref="A1:D1134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
-      <selection activeCell="D1084" sqref="D1084:D1092"/>
+    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
+      <selection activeCell="I1131" sqref="I1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -14360,10 +14378,10 @@
       <c r="A895" s="9">
         <v>44823</v>
       </c>
-      <c r="B895" s="10">
+      <c r="B895" s="6">
         <v>72</v>
       </c>
-      <c r="C895" s="10">
+      <c r="C895" s="6">
         <v>70</v>
       </c>
       <c r="D895" s="1">
@@ -14375,10 +14393,10 @@
       <c r="A896" s="9">
         <v>44824</v>
       </c>
-      <c r="B896" s="10">
+      <c r="B896" s="6">
         <v>66</v>
       </c>
-      <c r="C896" s="10">
+      <c r="C896" s="6">
         <v>61</v>
       </c>
       <c r="D896" s="1">
@@ -14390,10 +14408,10 @@
       <c r="A897" s="9">
         <v>44825</v>
       </c>
-      <c r="B897" s="10">
+      <c r="B897" s="6">
         <v>69</v>
       </c>
-      <c r="C897" s="10">
+      <c r="C897" s="6">
         <v>69</v>
       </c>
       <c r="D897" s="1">
@@ -14405,10 +14423,10 @@
       <c r="A898" s="9">
         <v>44826</v>
       </c>
-      <c r="B898" s="10">
+      <c r="B898" s="6">
         <v>79</v>
       </c>
-      <c r="C898" s="10">
+      <c r="C898" s="6">
         <v>79</v>
       </c>
       <c r="D898" s="1">
@@ -14420,10 +14438,10 @@
       <c r="A899" s="9">
         <v>44827</v>
       </c>
-      <c r="B899" s="10">
+      <c r="B899" s="6">
         <v>79</v>
       </c>
-      <c r="C899" s="10">
+      <c r="C899" s="6">
         <v>75</v>
       </c>
       <c r="D899" s="1">
@@ -14435,10 +14453,10 @@
       <c r="A900" s="9">
         <v>44828</v>
       </c>
-      <c r="B900" s="10">
+      <c r="B900" s="6">
         <v>51</v>
       </c>
-      <c r="C900" s="10">
+      <c r="C900" s="6">
         <v>49</v>
       </c>
       <c r="D900" s="1">
@@ -14450,10 +14468,10 @@
       <c r="A901" s="9">
         <v>44829</v>
       </c>
-      <c r="B901" s="10">
+      <c r="B901" s="6">
         <v>62</v>
       </c>
-      <c r="C901" s="10">
+      <c r="C901" s="6">
         <v>61</v>
       </c>
       <c r="D901" s="1">
@@ -14465,10 +14483,10 @@
       <c r="A902" s="9">
         <v>44830</v>
       </c>
-      <c r="B902" s="10">
+      <c r="B902" s="6">
         <v>68</v>
       </c>
-      <c r="C902" s="10">
+      <c r="C902" s="6">
         <v>67</v>
       </c>
       <c r="D902" s="1">
@@ -14480,10 +14498,10 @@
       <c r="A903" s="9">
         <v>44831</v>
       </c>
-      <c r="B903" s="10">
+      <c r="B903" s="6">
         <v>69</v>
       </c>
-      <c r="C903" s="10">
+      <c r="C903" s="6">
         <v>69</v>
       </c>
       <c r="D903" s="1">
@@ -14495,10 +14513,10 @@
       <c r="A904" s="9">
         <v>44832</v>
       </c>
-      <c r="B904" s="10">
+      <c r="B904" s="6">
         <v>58</v>
       </c>
-      <c r="C904" s="10">
+      <c r="C904" s="6">
         <v>56</v>
       </c>
       <c r="D904" s="1">
@@ -14510,10 +14528,10 @@
       <c r="A905" s="9">
         <v>44833</v>
       </c>
-      <c r="B905" s="10">
+      <c r="B905" s="6">
         <v>70</v>
       </c>
-      <c r="C905" s="10">
+      <c r="C905" s="6">
         <v>67</v>
       </c>
       <c r="D905" s="1">
@@ -14525,10 +14543,10 @@
       <c r="A906" s="9">
         <v>44834</v>
       </c>
-      <c r="B906" s="10">
+      <c r="B906" s="6">
         <v>68</v>
       </c>
-      <c r="C906" s="10">
+      <c r="C906" s="6">
         <v>63</v>
       </c>
       <c r="D906" s="1">
@@ -14540,10 +14558,10 @@
       <c r="A907" s="9">
         <v>44835</v>
       </c>
-      <c r="B907" s="10">
+      <c r="B907" s="6">
         <v>52</v>
       </c>
-      <c r="C907" s="10">
+      <c r="C907" s="6">
         <v>52</v>
       </c>
       <c r="D907" s="1">
@@ -14555,10 +14573,10 @@
       <c r="A908" s="9">
         <v>44836</v>
       </c>
-      <c r="B908" s="10">
+      <c r="B908" s="6">
         <v>56</v>
       </c>
-      <c r="C908" s="10">
+      <c r="C908" s="6">
         <v>54</v>
       </c>
       <c r="D908" s="1">
@@ -14570,10 +14588,10 @@
       <c r="A909" s="9">
         <v>44837</v>
       </c>
-      <c r="B909" s="10">
+      <c r="B909" s="6">
         <v>66</v>
       </c>
-      <c r="C909" s="10">
+      <c r="C909" s="6">
         <v>65</v>
       </c>
       <c r="D909" s="1">
@@ -14585,10 +14603,10 @@
       <c r="A910" s="9">
         <v>44838</v>
       </c>
-      <c r="B910" s="10">
+      <c r="B910" s="6">
         <v>64</v>
       </c>
-      <c r="C910" s="10">
+      <c r="C910" s="6">
         <v>62</v>
       </c>
       <c r="D910" s="1">
@@ -14600,10 +14618,10 @@
       <c r="A911" s="9">
         <v>44839</v>
       </c>
-      <c r="B911" s="10">
+      <c r="B911" s="6">
         <v>72</v>
       </c>
-      <c r="C911" s="10">
+      <c r="C911" s="6">
         <v>72</v>
       </c>
       <c r="D911" s="1">
@@ -14615,10 +14633,10 @@
       <c r="A912" s="9">
         <v>44840</v>
       </c>
-      <c r="B912" s="10">
+      <c r="B912" s="6">
         <v>89</v>
       </c>
-      <c r="C912" s="10">
+      <c r="C912" s="6">
         <v>83</v>
       </c>
       <c r="D912" s="1">
@@ -14630,10 +14648,10 @@
       <c r="A913" s="9">
         <v>44841</v>
       </c>
-      <c r="B913" s="10">
+      <c r="B913" s="6">
         <v>69</v>
       </c>
-      <c r="C913" s="10">
+      <c r="C913" s="6">
         <v>67</v>
       </c>
       <c r="D913" s="1">
@@ -14645,10 +14663,10 @@
       <c r="A914" s="9">
         <v>44842</v>
       </c>
-      <c r="B914" s="10">
+      <c r="B914" s="6">
         <v>51</v>
       </c>
-      <c r="C914" s="10">
+      <c r="C914" s="6">
         <v>51</v>
       </c>
       <c r="D914" s="1">
@@ -14660,10 +14678,10 @@
       <c r="A915" s="9">
         <v>44843</v>
       </c>
-      <c r="B915" s="10">
+      <c r="B915" s="6">
         <v>65</v>
       </c>
-      <c r="C915" s="10">
+      <c r="C915" s="6">
         <v>62</v>
       </c>
       <c r="D915" s="1">
@@ -14675,10 +14693,10 @@
       <c r="A916" s="9">
         <v>44844</v>
       </c>
-      <c r="B916" s="10">
+      <c r="B916" s="6">
         <v>68</v>
       </c>
-      <c r="C916" s="10">
+      <c r="C916" s="6">
         <v>66</v>
       </c>
       <c r="D916" s="1">
@@ -14690,10 +14708,10 @@
       <c r="A917" s="9">
         <v>44845</v>
       </c>
-      <c r="B917" s="10">
+      <c r="B917" s="6">
         <v>65</v>
       </c>
-      <c r="C917" s="10">
+      <c r="C917" s="6">
         <v>65</v>
       </c>
       <c r="D917" s="1">
@@ -14705,10 +14723,10 @@
       <c r="A918" s="9">
         <v>44846</v>
       </c>
-      <c r="B918" s="10">
+      <c r="B918" s="6">
         <v>67</v>
       </c>
-      <c r="C918" s="10">
+      <c r="C918" s="6">
         <v>65</v>
       </c>
       <c r="D918" s="1">
@@ -14720,10 +14738,10 @@
       <c r="A919" s="9">
         <v>44847</v>
       </c>
-      <c r="B919" s="10">
+      <c r="B919" s="6">
         <v>79</v>
       </c>
-      <c r="C919" s="10">
+      <c r="C919" s="6">
         <v>79</v>
       </c>
       <c r="D919" s="1">
@@ -14735,10 +14753,10 @@
       <c r="A920" s="9">
         <v>44848</v>
       </c>
-      <c r="B920" s="10">
+      <c r="B920" s="6">
         <v>73</v>
       </c>
-      <c r="C920" s="10">
+      <c r="C920" s="6">
         <v>70</v>
       </c>
       <c r="D920" s="1">
@@ -14750,10 +14768,10 @@
       <c r="A921" s="9">
         <v>44849</v>
       </c>
-      <c r="B921" s="10">
+      <c r="B921" s="6">
         <v>56</v>
       </c>
-      <c r="C921" s="10">
+      <c r="C921" s="6">
         <v>56</v>
       </c>
       <c r="D921" s="1">
@@ -14765,10 +14783,10 @@
       <c r="A922" s="9">
         <v>44850</v>
       </c>
-      <c r="B922" s="10">
+      <c r="B922" s="6">
         <v>65</v>
       </c>
-      <c r="C922" s="10">
+      <c r="C922" s="6">
         <v>64</v>
       </c>
       <c r="D922" s="1">
@@ -14780,10 +14798,10 @@
       <c r="A923" s="9">
         <v>44851</v>
       </c>
-      <c r="B923" s="10">
+      <c r="B923" s="6">
         <v>77</v>
       </c>
-      <c r="C923" s="10">
+      <c r="C923" s="6">
         <v>74</v>
       </c>
       <c r="D923" s="1">
@@ -14795,10 +14813,10 @@
       <c r="A924" s="9">
         <v>44852</v>
       </c>
-      <c r="B924" s="10">
+      <c r="B924" s="6">
         <v>58</v>
       </c>
-      <c r="C924" s="10">
+      <c r="C924" s="6">
         <v>54</v>
       </c>
       <c r="D924" s="1">
@@ -14810,10 +14828,10 @@
       <c r="A925" s="9">
         <v>44853</v>
       </c>
-      <c r="B925" s="10">
+      <c r="B925" s="6">
         <v>68</v>
       </c>
-      <c r="C925" s="10">
+      <c r="C925" s="6">
         <v>65</v>
       </c>
       <c r="D925" s="1">
@@ -14825,10 +14843,10 @@
       <c r="A926" s="9">
         <v>44854</v>
       </c>
-      <c r="B926" s="10">
+      <c r="B926" s="6">
         <v>90</v>
       </c>
-      <c r="C926" s="10">
+      <c r="C926" s="6">
         <v>89</v>
       </c>
       <c r="D926" s="1">
@@ -14840,10 +14858,10 @@
       <c r="A927" s="9">
         <v>44855</v>
       </c>
-      <c r="B927" s="10">
+      <c r="B927" s="6">
         <v>71</v>
       </c>
-      <c r="C927" s="10">
+      <c r="C927" s="6">
         <v>71</v>
       </c>
       <c r="D927" s="1">
@@ -14855,10 +14873,10 @@
       <c r="A928" s="9">
         <v>44856</v>
       </c>
-      <c r="B928" s="10">
+      <c r="B928" s="6">
         <v>53</v>
       </c>
-      <c r="C928" s="10">
+      <c r="C928" s="6">
         <v>52</v>
       </c>
       <c r="D928" s="1">
@@ -14870,10 +14888,10 @@
       <c r="A929" s="9">
         <v>44857</v>
       </c>
-      <c r="B929" s="10">
+      <c r="B929" s="6">
         <v>61</v>
       </c>
-      <c r="C929" s="10">
+      <c r="C929" s="6">
         <v>60</v>
       </c>
       <c r="D929" s="1">
@@ -14885,10 +14903,10 @@
       <c r="A930" s="9">
         <v>44858</v>
       </c>
-      <c r="B930" s="10">
+      <c r="B930" s="6">
         <v>71</v>
       </c>
-      <c r="C930" s="10">
+      <c r="C930" s="6">
         <v>70</v>
       </c>
       <c r="D930" s="1">
@@ -14900,10 +14918,10 @@
       <c r="A931" s="9">
         <v>44859</v>
       </c>
-      <c r="B931" s="10">
+      <c r="B931" s="6">
         <v>68</v>
       </c>
-      <c r="C931" s="10">
+      <c r="C931" s="6">
         <v>67</v>
       </c>
       <c r="D931" s="1">
@@ -14915,10 +14933,10 @@
       <c r="A932" s="9">
         <v>44860</v>
       </c>
-      <c r="B932" s="10">
+      <c r="B932" s="6">
         <v>61</v>
       </c>
-      <c r="C932" s="10">
+      <c r="C932" s="6">
         <v>61</v>
       </c>
       <c r="D932" s="1">
@@ -14930,10 +14948,10 @@
       <c r="A933" s="9">
         <v>44861</v>
       </c>
-      <c r="B933" s="10">
+      <c r="B933" s="6">
         <v>86</v>
       </c>
-      <c r="C933" s="10">
+      <c r="C933" s="6">
         <v>82</v>
       </c>
       <c r="D933" s="1">
@@ -14945,10 +14963,10 @@
       <c r="A934" s="9">
         <v>44862</v>
       </c>
-      <c r="B934" s="10">
+      <c r="B934" s="6">
         <v>78</v>
       </c>
-      <c r="C934" s="10">
+      <c r="C934" s="6">
         <v>77</v>
       </c>
       <c r="D934" s="1">
@@ -14960,10 +14978,10 @@
       <c r="A935" s="9">
         <v>44863</v>
       </c>
-      <c r="B935" s="10">
+      <c r="B935" s="6">
         <v>51</v>
       </c>
-      <c r="C935" s="10">
+      <c r="C935" s="6">
         <v>50</v>
       </c>
       <c r="D935" s="1">
@@ -14975,10 +14993,10 @@
       <c r="A936" s="9">
         <v>44864</v>
       </c>
-      <c r="B936" s="10">
+      <c r="B936" s="6">
         <v>55</v>
       </c>
-      <c r="C936" s="10">
+      <c r="C936" s="6">
         <v>54</v>
       </c>
       <c r="D936" s="1">
@@ -14990,10 +15008,10 @@
       <c r="A937" s="9">
         <v>44865</v>
       </c>
-      <c r="B937" s="10">
+      <c r="B937" s="6">
         <v>60</v>
       </c>
-      <c r="C937" s="10">
+      <c r="C937" s="6">
         <v>56</v>
       </c>
       <c r="D937" s="1">
@@ -15005,10 +15023,10 @@
       <c r="A938" s="9">
         <v>44866</v>
       </c>
-      <c r="B938" s="10">
+      <c r="B938" s="6">
         <v>57</v>
       </c>
-      <c r="C938" s="10">
+      <c r="C938" s="6">
         <v>56</v>
       </c>
       <c r="D938" s="1">
@@ -15020,10 +15038,10 @@
       <c r="A939" s="9">
         <v>44867</v>
       </c>
-      <c r="B939" s="10">
+      <c r="B939" s="6">
         <v>73</v>
       </c>
-      <c r="C939" s="10">
+      <c r="C939" s="6">
         <v>68</v>
       </c>
       <c r="D939" s="1">
@@ -15035,10 +15053,10 @@
       <c r="A940" s="9">
         <v>44868</v>
       </c>
-      <c r="B940" s="10">
+      <c r="B940" s="6">
         <v>76</v>
       </c>
-      <c r="C940" s="10">
+      <c r="C940" s="6">
         <v>73</v>
       </c>
       <c r="D940" s="1">
@@ -15050,10 +15068,10 @@
       <c r="A941" s="9">
         <v>44869</v>
       </c>
-      <c r="B941" s="10">
+      <c r="B941" s="6">
         <v>69</v>
       </c>
-      <c r="C941" s="10">
+      <c r="C941" s="6">
         <v>66</v>
       </c>
       <c r="D941" s="1">
@@ -15065,10 +15083,10 @@
       <c r="A942" s="9">
         <v>44870</v>
       </c>
-      <c r="B942" s="10">
+      <c r="B942" s="6">
         <v>49</v>
       </c>
-      <c r="C942" s="10">
+      <c r="C942" s="6">
         <v>46</v>
       </c>
       <c r="D942" s="1">
@@ -15080,10 +15098,10 @@
       <c r="A943" s="9">
         <v>44871</v>
       </c>
-      <c r="B943" s="10">
+      <c r="B943" s="6">
         <v>61</v>
       </c>
-      <c r="C943" s="10">
+      <c r="C943" s="6">
         <v>58</v>
       </c>
       <c r="D943" s="1">
@@ -15095,10 +15113,10 @@
       <c r="A944" s="9">
         <v>44872</v>
       </c>
-      <c r="B944" s="10">
+      <c r="B944" s="6">
         <v>55</v>
       </c>
-      <c r="C944" s="10">
+      <c r="C944" s="6">
         <v>55</v>
       </c>
       <c r="D944" s="1">
@@ -15110,10 +15128,10 @@
       <c r="A945" s="9">
         <v>44873</v>
       </c>
-      <c r="B945" s="10">
+      <c r="B945" s="6">
         <v>71</v>
       </c>
-      <c r="C945" s="10">
+      <c r="C945" s="6">
         <v>70</v>
       </c>
       <c r="D945" s="1">
@@ -15125,10 +15143,10 @@
       <c r="A946" s="9">
         <v>44874</v>
       </c>
-      <c r="B946" s="10">
+      <c r="B946" s="6">
         <v>56</v>
       </c>
-      <c r="C946" s="10">
+      <c r="C946" s="6">
         <v>54</v>
       </c>
       <c r="D946" s="1">
@@ -15140,10 +15158,10 @@
       <c r="A947" s="9">
         <v>44875</v>
       </c>
-      <c r="B947" s="10">
+      <c r="B947" s="6">
         <v>81</v>
       </c>
-      <c r="C947" s="10">
+      <c r="C947" s="6">
         <v>79</v>
       </c>
       <c r="D947" s="1">
@@ -15155,10 +15173,10 @@
       <c r="A948" s="9">
         <v>44876</v>
       </c>
-      <c r="B948" s="10">
+      <c r="B948" s="6">
         <v>83</v>
       </c>
-      <c r="C948" s="10">
+      <c r="C948" s="6">
         <v>78</v>
       </c>
       <c r="D948" s="1">
@@ -15170,10 +15188,10 @@
       <c r="A949" s="9">
         <v>44877</v>
       </c>
-      <c r="B949" s="10">
+      <c r="B949" s="6">
         <v>43</v>
       </c>
-      <c r="C949" s="10">
+      <c r="C949" s="6">
         <v>43</v>
       </c>
       <c r="D949" s="1">
@@ -15185,10 +15203,10 @@
       <c r="A950" s="9">
         <v>44878</v>
       </c>
-      <c r="B950" s="10">
+      <c r="B950" s="6">
         <v>67</v>
       </c>
-      <c r="C950" s="10">
+      <c r="C950" s="6">
         <v>65</v>
       </c>
       <c r="D950" s="1">
@@ -15200,10 +15218,10 @@
       <c r="A951" s="9">
         <v>44879</v>
       </c>
-      <c r="B951" s="10">
+      <c r="B951" s="6">
         <v>63</v>
       </c>
-      <c r="C951" s="10">
+      <c r="C951" s="6">
         <v>61</v>
       </c>
       <c r="D951" s="1">
@@ -15215,10 +15233,10 @@
       <c r="A952" s="9">
         <v>44880</v>
       </c>
-      <c r="B952" s="10">
+      <c r="B952" s="6">
         <v>60</v>
       </c>
-      <c r="C952" s="10">
+      <c r="C952" s="6">
         <v>59</v>
       </c>
       <c r="D952" s="1">
@@ -15230,10 +15248,10 @@
       <c r="A953" s="9">
         <v>44881</v>
       </c>
-      <c r="B953" s="10">
+      <c r="B953" s="6">
         <v>66</v>
       </c>
-      <c r="C953" s="10">
+      <c r="C953" s="6">
         <v>64</v>
       </c>
       <c r="D953" s="1">
@@ -15245,10 +15263,10 @@
       <c r="A954" s="9">
         <v>44882</v>
       </c>
-      <c r="B954" s="10">
+      <c r="B954" s="6">
         <v>87</v>
       </c>
-      <c r="C954" s="10">
+      <c r="C954" s="6">
         <v>84</v>
       </c>
       <c r="D954" s="1">
@@ -15260,10 +15278,10 @@
       <c r="A955" s="9">
         <v>44883</v>
       </c>
-      <c r="B955" s="10">
+      <c r="B955" s="6">
         <v>78</v>
       </c>
-      <c r="C955" s="10">
+      <c r="C955" s="6">
         <v>75</v>
       </c>
       <c r="D955" s="1">
@@ -15275,10 +15293,10 @@
       <c r="A956" s="9">
         <v>44884</v>
       </c>
-      <c r="B956" s="10">
+      <c r="B956" s="6">
         <v>52</v>
       </c>
-      <c r="C956" s="10">
+      <c r="C956" s="6">
         <v>52</v>
       </c>
       <c r="D956" s="1">
@@ -15290,10 +15308,10 @@
       <c r="A957" s="9">
         <v>44885</v>
       </c>
-      <c r="B957" s="10">
+      <c r="B957" s="6">
         <v>65</v>
       </c>
-      <c r="C957" s="10">
+      <c r="C957" s="6">
         <v>64</v>
       </c>
       <c r="D957" s="1">
@@ -15305,10 +15323,10 @@
       <c r="A958" s="9">
         <v>44886</v>
       </c>
-      <c r="B958" s="10">
+      <c r="B958" s="6">
         <v>58</v>
       </c>
-      <c r="C958" s="10">
+      <c r="C958" s="6">
         <v>58</v>
       </c>
       <c r="D958" s="1">
@@ -15320,10 +15338,10 @@
       <c r="A959" s="9">
         <v>44887</v>
       </c>
-      <c r="B959" s="10">
+      <c r="B959" s="6">
         <v>63</v>
       </c>
-      <c r="C959" s="10">
+      <c r="C959" s="6">
         <v>62</v>
       </c>
       <c r="D959" s="1">
@@ -15335,10 +15353,10 @@
       <c r="A960" s="9">
         <v>44888</v>
       </c>
-      <c r="B960" s="10">
+      <c r="B960" s="6">
         <v>62</v>
       </c>
-      <c r="C960" s="10">
+      <c r="C960" s="6">
         <v>62</v>
       </c>
       <c r="D960" s="1">
@@ -15350,10 +15368,10 @@
       <c r="A961" s="9">
         <v>44889</v>
       </c>
-      <c r="B961" s="10">
+      <c r="B961" s="6">
         <v>39</v>
       </c>
-      <c r="C961" s="10">
+      <c r="C961" s="6">
         <v>36</v>
       </c>
       <c r="D961" s="1">
@@ -15365,10 +15383,10 @@
       <c r="A962" s="9">
         <v>44890</v>
       </c>
-      <c r="B962" s="10">
+      <c r="B962" s="6">
         <v>44</v>
       </c>
-      <c r="C962" s="10">
+      <c r="C962" s="6">
         <v>43</v>
       </c>
       <c r="D962" s="1">
@@ -15380,10 +15398,10 @@
       <c r="A963" s="9">
         <v>44891</v>
       </c>
-      <c r="B963" s="10">
+      <c r="B963" s="6">
         <v>62</v>
       </c>
-      <c r="C963" s="10">
+      <c r="C963" s="6">
         <v>61</v>
       </c>
       <c r="D963" s="1">
@@ -15395,10 +15413,10 @@
       <c r="A964" s="9">
         <v>44892</v>
       </c>
-      <c r="B964" s="10">
+      <c r="B964" s="6">
         <v>69</v>
       </c>
-      <c r="C964" s="10">
+      <c r="C964" s="6">
         <v>68</v>
       </c>
       <c r="D964" s="1">
@@ -15410,10 +15428,10 @@
       <c r="A965" s="9">
         <v>44893</v>
       </c>
-      <c r="B965" s="10">
+      <c r="B965" s="6">
         <v>62</v>
       </c>
-      <c r="C965" s="10">
+      <c r="C965" s="6">
         <v>61</v>
       </c>
       <c r="D965" s="1">
@@ -15425,10 +15443,10 @@
       <c r="A966" s="9">
         <v>44894</v>
       </c>
-      <c r="B966" s="10">
+      <c r="B966" s="6">
         <v>70</v>
       </c>
-      <c r="C966" s="10">
+      <c r="C966" s="6">
         <v>69</v>
       </c>
       <c r="D966" s="1">
@@ -15440,10 +15458,10 @@
       <c r="A967" s="9">
         <v>44895</v>
       </c>
-      <c r="B967" s="10">
+      <c r="B967" s="6">
         <v>81</v>
       </c>
-      <c r="C967" s="10">
+      <c r="C967" s="6">
         <v>74</v>
       </c>
       <c r="D967" s="1">
@@ -15455,10 +15473,10 @@
       <c r="A968" s="9">
         <v>44896</v>
       </c>
-      <c r="B968" s="10">
+      <c r="B968" s="6">
         <v>74</v>
       </c>
-      <c r="C968" s="10">
+      <c r="C968" s="6">
         <v>71</v>
       </c>
       <c r="D968" s="1">
@@ -15470,10 +15488,10 @@
       <c r="A969" s="9">
         <v>44897</v>
       </c>
-      <c r="B969" s="10">
+      <c r="B969" s="6">
         <v>73</v>
       </c>
-      <c r="C969" s="10">
+      <c r="C969" s="6">
         <v>70</v>
       </c>
       <c r="D969" s="1">
@@ -15485,10 +15503,10 @@
       <c r="A970" s="9">
         <v>44898</v>
       </c>
-      <c r="B970" s="10">
+      <c r="B970" s="6">
         <v>48</v>
       </c>
-      <c r="C970" s="10">
+      <c r="C970" s="6">
         <v>48</v>
       </c>
       <c r="D970" s="1">
@@ -15500,10 +15518,10 @@
       <c r="A971" s="9">
         <v>44899</v>
       </c>
-      <c r="B971" s="10">
+      <c r="B971" s="6">
         <v>63</v>
       </c>
-      <c r="C971" s="10">
+      <c r="C971" s="6">
         <v>63</v>
       </c>
       <c r="D971" s="1">
@@ -15515,10 +15533,10 @@
       <c r="A972" s="9">
         <v>44900</v>
       </c>
-      <c r="B972" s="10">
+      <c r="B972" s="6">
         <v>66</v>
       </c>
-      <c r="C972" s="10">
+      <c r="C972" s="6">
         <v>63</v>
       </c>
       <c r="D972" s="1">
@@ -15530,10 +15548,10 @@
       <c r="A973" s="9">
         <v>44901</v>
       </c>
-      <c r="B973" s="10">
+      <c r="B973" s="6">
         <v>75</v>
       </c>
-      <c r="C973" s="10">
+      <c r="C973" s="6">
         <v>72</v>
       </c>
       <c r="D973" s="1">
@@ -15545,10 +15563,10 @@
       <c r="A974" s="9">
         <v>44902</v>
       </c>
-      <c r="B974" s="10">
+      <c r="B974" s="6">
         <v>74</v>
       </c>
-      <c r="C974" s="10">
+      <c r="C974" s="6">
         <v>69</v>
       </c>
       <c r="D974" s="1">
@@ -15560,10 +15578,10 @@
       <c r="A975" s="9">
         <v>44903</v>
       </c>
-      <c r="B975" s="10">
+      <c r="B975" s="6">
         <v>83</v>
       </c>
-      <c r="C975" s="10">
+      <c r="C975" s="6">
         <v>77</v>
       </c>
       <c r="D975" s="1">
@@ -15575,10 +15593,10 @@
       <c r="A976" s="9">
         <v>44904</v>
       </c>
-      <c r="B976" s="10">
+      <c r="B976" s="6">
         <v>66</v>
       </c>
-      <c r="C976" s="10">
+      <c r="C976" s="6">
         <v>62</v>
       </c>
       <c r="D976" s="1">
@@ -15590,10 +15608,10 @@
       <c r="A977" s="9">
         <v>44905</v>
       </c>
-      <c r="B977" s="10">
+      <c r="B977" s="6">
         <v>50</v>
       </c>
-      <c r="C977" s="10">
+      <c r="C977" s="6">
         <v>48</v>
       </c>
       <c r="D977" s="1">
@@ -15605,10 +15623,10 @@
       <c r="A978" s="9">
         <v>44906</v>
       </c>
-      <c r="B978" s="10">
+      <c r="B978" s="6">
         <v>60</v>
       </c>
-      <c r="C978" s="10">
+      <c r="C978" s="6">
         <v>59</v>
       </c>
       <c r="D978" s="1">
@@ -15620,10 +15638,10 @@
       <c r="A979" s="9">
         <v>44907</v>
       </c>
-      <c r="B979" s="10">
+      <c r="B979" s="6">
         <v>68</v>
       </c>
-      <c r="C979" s="10">
+      <c r="C979" s="6">
         <v>67</v>
       </c>
       <c r="D979" s="1">
@@ -15635,10 +15653,10 @@
       <c r="A980" s="9">
         <v>44908</v>
       </c>
-      <c r="B980" s="10">
+      <c r="B980" s="6">
         <v>63</v>
       </c>
-      <c r="C980" s="10">
+      <c r="C980" s="6">
         <v>58</v>
       </c>
       <c r="D980" s="1">
@@ -15650,10 +15668,10 @@
       <c r="A981" s="9">
         <v>44909</v>
       </c>
-      <c r="B981" s="10">
+      <c r="B981" s="6">
         <v>65</v>
       </c>
-      <c r="C981" s="10">
+      <c r="C981" s="6">
         <v>64</v>
       </c>
       <c r="D981" s="1">
@@ -15665,10 +15683,10 @@
       <c r="A982" s="9">
         <v>44910</v>
       </c>
-      <c r="B982" s="10">
+      <c r="B982" s="6">
         <v>72</v>
       </c>
-      <c r="C982" s="10">
+      <c r="C982" s="6">
         <v>67</v>
       </c>
       <c r="D982" s="1">
@@ -15680,10 +15698,10 @@
       <c r="A983" s="9">
         <v>44911</v>
       </c>
-      <c r="B983" s="10">
+      <c r="B983" s="6">
         <v>78</v>
       </c>
-      <c r="C983" s="10">
+      <c r="C983" s="6">
         <v>76</v>
       </c>
       <c r="D983" s="1">
@@ -15695,10 +15713,10 @@
       <c r="A984" s="9">
         <v>44912</v>
       </c>
-      <c r="B984" s="10">
+      <c r="B984" s="6">
         <v>52</v>
       </c>
-      <c r="C984" s="10">
+      <c r="C984" s="6">
         <v>51</v>
       </c>
       <c r="D984" s="1">
@@ -15710,10 +15728,10 @@
       <c r="A985" s="9">
         <v>44913</v>
       </c>
-      <c r="B985" s="10">
+      <c r="B985" s="6">
         <v>55</v>
       </c>
-      <c r="C985" s="10">
+      <c r="C985" s="6">
         <v>53</v>
       </c>
       <c r="D985" s="1">
@@ -15725,10 +15743,10 @@
       <c r="A986" s="9">
         <v>44914</v>
       </c>
-      <c r="B986" s="10">
+      <c r="B986" s="6">
         <v>56</v>
       </c>
-      <c r="C986" s="10">
+      <c r="C986" s="6">
         <v>54</v>
       </c>
       <c r="D986" s="1">
@@ -15740,10 +15758,10 @@
       <c r="A987" s="9">
         <v>44915</v>
       </c>
-      <c r="B987" s="10">
+      <c r="B987" s="6">
         <v>76</v>
       </c>
-      <c r="C987" s="10">
+      <c r="C987" s="6">
         <v>72</v>
       </c>
       <c r="D987" s="1">
@@ -15755,10 +15773,10 @@
       <c r="A988" s="9">
         <v>44916</v>
       </c>
-      <c r="B988" s="10">
+      <c r="B988" s="6">
         <v>73</v>
       </c>
-      <c r="C988" s="10">
+      <c r="C988" s="6">
         <v>63</v>
       </c>
       <c r="D988" s="1">
@@ -15770,10 +15788,10 @@
       <c r="A989" s="9">
         <v>44917</v>
       </c>
-      <c r="B989" s="10">
+      <c r="B989" s="6">
         <v>62</v>
       </c>
-      <c r="C989" s="10">
+      <c r="C989" s="6">
         <v>45</v>
       </c>
       <c r="D989" s="1">
@@ -15785,10 +15803,10 @@
       <c r="A990" s="9">
         <v>44918</v>
       </c>
-      <c r="B990" s="10">
+      <c r="B990" s="6">
         <v>57</v>
       </c>
-      <c r="C990" s="10">
+      <c r="C990" s="6">
         <v>35</v>
       </c>
       <c r="D990" s="1">
@@ -15800,10 +15818,10 @@
       <c r="A991" s="9">
         <v>44919</v>
       </c>
-      <c r="B991" s="10">
+      <c r="B991" s="6">
         <v>53</v>
       </c>
-      <c r="C991" s="10">
+      <c r="C991" s="6">
         <v>41</v>
       </c>
       <c r="D991" s="1">
@@ -15815,10 +15833,10 @@
       <c r="A992" s="9">
         <v>44920</v>
       </c>
-      <c r="B992" s="10">
+      <c r="B992" s="6">
         <v>37</v>
       </c>
-      <c r="C992" s="10">
+      <c r="C992" s="6">
         <v>31</v>
       </c>
       <c r="D992" s="1">
@@ -15830,10 +15848,10 @@
       <c r="A993" s="9">
         <v>44921</v>
       </c>
-      <c r="B993" s="10">
+      <c r="B993" s="6">
         <v>58</v>
       </c>
-      <c r="C993" s="10">
+      <c r="C993" s="6">
         <v>51</v>
       </c>
       <c r="D993" s="1">
@@ -15845,10 +15863,10 @@
       <c r="A994" s="9">
         <v>44922</v>
       </c>
-      <c r="B994" s="10">
+      <c r="B994" s="6">
         <v>70</v>
       </c>
-      <c r="C994" s="10">
+      <c r="C994" s="6">
         <v>61</v>
       </c>
       <c r="D994" s="1">
@@ -15860,10 +15878,10 @@
       <c r="A995" s="9">
         <v>44923</v>
       </c>
-      <c r="B995" s="10">
+      <c r="B995" s="6">
         <v>64</v>
       </c>
-      <c r="C995" s="10">
+      <c r="C995" s="6">
         <v>60</v>
       </c>
       <c r="D995" s="1">
@@ -15875,10 +15893,10 @@
       <c r="A996" s="9">
         <v>44924</v>
       </c>
-      <c r="B996" s="10">
+      <c r="B996" s="6">
         <v>65</v>
       </c>
-      <c r="C996" s="10">
+      <c r="C996" s="6">
         <v>58</v>
       </c>
       <c r="D996" s="1">
@@ -15890,10 +15908,10 @@
       <c r="A997" s="9">
         <v>44925</v>
       </c>
-      <c r="B997" s="10">
+      <c r="B997" s="6">
         <v>62</v>
       </c>
-      <c r="C997" s="10">
+      <c r="C997" s="6">
         <v>60</v>
       </c>
       <c r="D997" s="1">
@@ -15905,10 +15923,10 @@
       <c r="A998" s="9">
         <v>44926</v>
       </c>
-      <c r="B998" s="10">
+      <c r="B998" s="6">
         <v>52</v>
       </c>
-      <c r="C998" s="10">
+      <c r="C998" s="6">
         <v>50</v>
       </c>
       <c r="D998" s="1">
@@ -15920,10 +15938,10 @@
       <c r="A999" s="9">
         <v>44927</v>
       </c>
-      <c r="B999" s="10">
+      <c r="B999" s="6">
         <v>46</v>
       </c>
-      <c r="C999" s="10">
+      <c r="C999" s="6">
         <v>44</v>
       </c>
       <c r="D999" s="1">
@@ -15935,10 +15953,10 @@
       <c r="A1000" s="9">
         <v>44928</v>
       </c>
-      <c r="B1000" s="10">
+      <c r="B1000" s="6">
         <v>50</v>
       </c>
-      <c r="C1000" s="10">
+      <c r="C1000" s="6">
         <v>48</v>
       </c>
       <c r="D1000" s="1">
@@ -15950,10 +15968,10 @@
       <c r="A1001" s="9">
         <v>44929</v>
       </c>
-      <c r="B1001" s="10">
+      <c r="B1001" s="6">
         <v>63</v>
       </c>
-      <c r="C1001" s="10">
+      <c r="C1001" s="6">
         <v>59</v>
       </c>
       <c r="D1001" s="1">
@@ -15965,10 +15983,10 @@
       <c r="A1002" s="9">
         <v>44930</v>
       </c>
-      <c r="B1002" s="10">
+      <c r="B1002" s="6">
         <v>57</v>
       </c>
-      <c r="C1002" s="10">
+      <c r="C1002" s="6">
         <v>55</v>
       </c>
       <c r="D1002" s="1">
@@ -15980,10 +15998,10 @@
       <c r="A1003" s="9">
         <v>44931</v>
       </c>
-      <c r="B1003" s="10">
+      <c r="B1003" s="6">
         <v>61</v>
       </c>
-      <c r="C1003" s="10">
+      <c r="C1003" s="6">
         <v>60</v>
       </c>
       <c r="D1003" s="1">
@@ -15995,10 +16013,10 @@
       <c r="A1004" s="9">
         <v>44932</v>
       </c>
-      <c r="B1004" s="10">
+      <c r="B1004" s="6">
         <v>71</v>
       </c>
-      <c r="C1004" s="10">
+      <c r="C1004" s="6">
         <v>69</v>
       </c>
       <c r="D1004" s="1">
@@ -16010,10 +16028,10 @@
       <c r="A1005" s="9">
         <v>44933</v>
       </c>
-      <c r="B1005" s="10">
+      <c r="B1005" s="6">
         <v>54</v>
       </c>
-      <c r="C1005" s="10">
+      <c r="C1005" s="6">
         <v>52</v>
       </c>
       <c r="D1005" s="1">
@@ -16025,10 +16043,10 @@
       <c r="A1006" s="9">
         <v>44934</v>
       </c>
-      <c r="B1006" s="10">
+      <c r="B1006" s="6">
         <v>47</v>
       </c>
-      <c r="C1006" s="10">
+      <c r="C1006" s="6">
         <v>47</v>
       </c>
       <c r="D1006" s="1">
@@ -16040,10 +16058,10 @@
       <c r="A1007" s="9">
         <v>44935</v>
       </c>
-      <c r="B1007" s="10">
+      <c r="B1007" s="6">
         <v>54</v>
       </c>
-      <c r="C1007" s="10">
+      <c r="C1007" s="6">
         <v>51</v>
       </c>
       <c r="D1007" s="1">
@@ -16055,10 +16073,10 @@
       <c r="A1008" s="9">
         <v>44936</v>
       </c>
-      <c r="B1008" s="10">
+      <c r="B1008" s="6">
         <v>65</v>
       </c>
-      <c r="C1008" s="10">
+      <c r="C1008" s="6">
         <v>61</v>
       </c>
       <c r="D1008" s="1">
@@ -16070,10 +16088,10 @@
       <c r="A1009" s="9">
         <v>44937</v>
       </c>
-      <c r="B1009" s="10">
+      <c r="B1009" s="6">
         <v>72</v>
       </c>
-      <c r="C1009" s="10">
+      <c r="C1009" s="6">
         <v>67</v>
       </c>
       <c r="D1009" s="1">
@@ -16085,10 +16103,10 @@
       <c r="A1010" s="9">
         <v>44938</v>
       </c>
-      <c r="B1010" s="10">
+      <c r="B1010" s="6">
         <v>75</v>
       </c>
-      <c r="C1010" s="10">
+      <c r="C1010" s="6">
         <v>68</v>
       </c>
       <c r="D1010" s="1">
@@ -16100,10 +16118,10 @@
       <c r="A1011" s="9">
         <v>44939</v>
       </c>
-      <c r="B1011" s="10">
+      <c r="B1011" s="6">
         <v>69</v>
       </c>
-      <c r="C1011" s="10">
+      <c r="C1011" s="6">
         <v>67</v>
       </c>
       <c r="D1011" s="1">
@@ -16115,10 +16133,10 @@
       <c r="A1012" s="9">
         <v>44940</v>
       </c>
-      <c r="B1012" s="10">
+      <c r="B1012" s="6">
         <v>50</v>
       </c>
-      <c r="C1012" s="10">
+      <c r="C1012" s="6">
         <v>49</v>
       </c>
       <c r="D1012" s="1">
@@ -16130,10 +16148,10 @@
       <c r="A1013" s="9">
         <v>44941</v>
       </c>
-      <c r="B1013" s="10">
+      <c r="B1013" s="6">
         <v>56</v>
       </c>
-      <c r="C1013" s="10">
+      <c r="C1013" s="6">
         <v>56</v>
       </c>
       <c r="D1013" s="1">
@@ -16145,10 +16163,10 @@
       <c r="A1014" s="9">
         <v>44942</v>
       </c>
-      <c r="B1014" s="10">
+      <c r="B1014" s="6">
         <v>63</v>
       </c>
-      <c r="C1014" s="10">
+      <c r="C1014" s="6">
         <v>61</v>
       </c>
       <c r="D1014" s="1">
@@ -16160,10 +16178,10 @@
       <c r="A1015" s="9">
         <v>44943</v>
       </c>
-      <c r="B1015" s="10">
+      <c r="B1015" s="6">
         <v>60</v>
       </c>
-      <c r="C1015" s="10">
+      <c r="C1015" s="6">
         <v>60</v>
       </c>
       <c r="D1015" s="1">
@@ -16175,10 +16193,10 @@
       <c r="A1016" s="9">
         <v>44944</v>
       </c>
-      <c r="B1016" s="10">
+      <c r="B1016" s="6">
         <v>66</v>
       </c>
-      <c r="C1016" s="10">
+      <c r="C1016" s="6">
         <v>66</v>
       </c>
       <c r="D1016" s="1">
@@ -16190,10 +16208,10 @@
       <c r="A1017" s="9">
         <v>44945</v>
       </c>
-      <c r="B1017" s="10">
+      <c r="B1017" s="6">
         <v>67</v>
       </c>
-      <c r="C1017" s="10">
+      <c r="C1017" s="6">
         <v>62</v>
       </c>
       <c r="D1017" s="1">
@@ -16205,10 +16223,10 @@
       <c r="A1018" s="9">
         <v>44946</v>
       </c>
-      <c r="B1018" s="10">
+      <c r="B1018" s="6">
         <v>56</v>
       </c>
-      <c r="C1018" s="10">
+      <c r="C1018" s="6">
         <v>55</v>
       </c>
       <c r="D1018" s="1">
@@ -16220,10 +16238,10 @@
       <c r="A1019" s="9">
         <v>44947</v>
       </c>
-      <c r="B1019" s="10">
+      <c r="B1019" s="6">
         <v>43</v>
       </c>
-      <c r="C1019" s="10">
+      <c r="C1019" s="6">
         <v>43</v>
       </c>
       <c r="D1019" s="1">
@@ -16235,10 +16253,10 @@
       <c r="A1020" s="9">
         <v>44948</v>
       </c>
-      <c r="B1020" s="10">
+      <c r="B1020" s="6">
         <v>52</v>
       </c>
-      <c r="C1020" s="10">
+      <c r="C1020" s="6">
         <v>52</v>
       </c>
       <c r="D1020" s="1">
@@ -16250,10 +16268,10 @@
       <c r="A1021" s="9">
         <v>44949</v>
       </c>
-      <c r="B1021" s="10">
+      <c r="B1021" s="6">
         <v>71</v>
       </c>
-      <c r="C1021" s="10">
+      <c r="C1021" s="6">
         <v>70</v>
       </c>
       <c r="D1021" s="1">
@@ -16265,10 +16283,10 @@
       <c r="A1022" s="9">
         <v>44950</v>
       </c>
-      <c r="B1022" s="10">
+      <c r="B1022" s="6">
         <v>61</v>
       </c>
-      <c r="C1022" s="10">
+      <c r="C1022" s="6">
         <v>59</v>
       </c>
       <c r="D1022" s="1">
@@ -16280,10 +16298,10 @@
       <c r="A1023" s="9">
         <v>44951</v>
       </c>
-      <c r="B1023" s="10">
+      <c r="B1023" s="6">
         <v>63</v>
       </c>
-      <c r="C1023" s="10">
+      <c r="C1023" s="6">
         <v>62</v>
       </c>
       <c r="D1023" s="1">
@@ -16295,10 +16313,10 @@
       <c r="A1024" s="9">
         <v>44952</v>
       </c>
-      <c r="B1024" s="10">
+      <c r="B1024" s="6">
         <v>85</v>
       </c>
-      <c r="C1024" s="10">
+      <c r="C1024" s="6">
         <v>83</v>
       </c>
       <c r="D1024" s="1">
@@ -16310,10 +16328,10 @@
       <c r="A1025" s="9">
         <v>44953</v>
       </c>
-      <c r="B1025" s="10">
+      <c r="B1025" s="6">
         <v>65</v>
       </c>
-      <c r="C1025" s="10">
+      <c r="C1025" s="6">
         <v>65</v>
       </c>
       <c r="D1025" s="1">
@@ -16325,10 +16343,10 @@
       <c r="A1026" s="9">
         <v>44954</v>
       </c>
-      <c r="B1026" s="10">
+      <c r="B1026" s="6">
         <v>48</v>
       </c>
-      <c r="C1026" s="10">
+      <c r="C1026" s="6">
         <v>45</v>
       </c>
       <c r="D1026" s="1">
@@ -16340,10 +16358,10 @@
       <c r="A1027" s="9">
         <v>44955</v>
       </c>
-      <c r="B1027" s="10">
+      <c r="B1027" s="6">
         <v>53</v>
       </c>
-      <c r="C1027" s="10">
+      <c r="C1027" s="6">
         <v>52</v>
       </c>
       <c r="D1027" s="1">
@@ -16355,10 +16373,10 @@
       <c r="A1028" s="9">
         <v>44956</v>
       </c>
-      <c r="B1028" s="10">
+      <c r="B1028" s="6">
         <v>58</v>
       </c>
-      <c r="C1028" s="10">
+      <c r="C1028" s="6">
         <v>56</v>
       </c>
       <c r="D1028" s="1">
@@ -16370,10 +16388,10 @@
       <c r="A1029" s="9">
         <v>44957</v>
       </c>
-      <c r="B1029" s="10">
+      <c r="B1029" s="6">
         <v>60</v>
       </c>
-      <c r="C1029" s="10">
+      <c r="C1029" s="6">
         <v>49</v>
       </c>
       <c r="D1029" s="1">
@@ -16385,10 +16403,10 @@
       <c r="A1030" s="9">
         <v>44958</v>
       </c>
-      <c r="B1030" s="10">
+      <c r="B1030" s="6">
         <v>65</v>
       </c>
-      <c r="C1030" s="10">
+      <c r="C1030" s="6">
         <v>56</v>
       </c>
       <c r="D1030" s="1">
@@ -16400,10 +16418,10 @@
       <c r="A1031" s="9">
         <v>44959</v>
       </c>
-      <c r="B1031" s="10">
+      <c r="B1031" s="6">
         <v>62</v>
       </c>
-      <c r="C1031" s="10">
+      <c r="C1031" s="6">
         <v>60</v>
       </c>
       <c r="D1031" s="1">
@@ -16415,10 +16433,10 @@
       <c r="A1032" s="9">
         <v>44960</v>
       </c>
-      <c r="B1032" s="10">
+      <c r="B1032" s="6">
         <v>71</v>
       </c>
-      <c r="C1032" s="10">
+      <c r="C1032" s="6">
         <v>67</v>
       </c>
       <c r="D1032" s="1">
@@ -16430,10 +16448,10 @@
       <c r="A1033" s="9">
         <v>44961</v>
       </c>
-      <c r="B1033" s="10">
+      <c r="B1033" s="6">
         <v>48</v>
       </c>
-      <c r="C1033" s="10">
+      <c r="C1033" s="6">
         <v>44</v>
       </c>
       <c r="D1033" s="1">
@@ -16445,10 +16463,10 @@
       <c r="A1034" s="9">
         <v>44962</v>
       </c>
-      <c r="B1034" s="10">
+      <c r="B1034" s="6">
         <v>53</v>
       </c>
-      <c r="C1034" s="10">
+      <c r="C1034" s="6">
         <v>52</v>
       </c>
       <c r="D1034" s="1">
@@ -16460,10 +16478,10 @@
       <c r="A1035" s="9">
         <v>44963</v>
       </c>
-      <c r="B1035" s="10">
+      <c r="B1035" s="6">
         <v>58</v>
       </c>
-      <c r="C1035" s="10">
+      <c r="C1035" s="6">
         <v>57</v>
       </c>
       <c r="D1035" s="1">
@@ -16475,10 +16493,10 @@
       <c r="A1036" s="9">
         <v>44964</v>
       </c>
-      <c r="B1036" s="10">
+      <c r="B1036" s="6">
         <v>62</v>
       </c>
-      <c r="C1036" s="10">
+      <c r="C1036" s="6">
         <v>62</v>
       </c>
       <c r="D1036" s="1">
@@ -16490,10 +16508,10 @@
       <c r="A1037" s="9">
         <v>44965</v>
       </c>
-      <c r="B1037" s="10">
+      <c r="B1037" s="6">
         <v>60</v>
       </c>
-      <c r="C1037" s="10">
+      <c r="C1037" s="6">
         <v>59</v>
       </c>
       <c r="D1037" s="1">
@@ -16505,10 +16523,10 @@
       <c r="A1038" s="9">
         <v>44966</v>
       </c>
-      <c r="B1038" s="10">
+      <c r="B1038" s="6">
         <v>65</v>
       </c>
-      <c r="C1038" s="10">
+      <c r="C1038" s="6">
         <v>65</v>
       </c>
       <c r="D1038" s="1">
@@ -16520,10 +16538,10 @@
       <c r="A1039" s="9">
         <v>44967</v>
       </c>
-      <c r="B1039" s="10">
+      <c r="B1039" s="6">
         <v>77</v>
       </c>
-      <c r="C1039" s="10">
+      <c r="C1039" s="6">
         <v>69</v>
       </c>
       <c r="D1039" s="1">
@@ -16535,10 +16553,10 @@
       <c r="A1040" s="9">
         <v>44968</v>
       </c>
-      <c r="B1040" s="10">
+      <c r="B1040" s="6">
         <v>49</v>
       </c>
-      <c r="C1040" s="10">
+      <c r="C1040" s="6">
         <v>47</v>
       </c>
       <c r="D1040" s="1">
@@ -16550,10 +16568,10 @@
       <c r="A1041" s="9">
         <v>44969</v>
       </c>
-      <c r="B1041" s="10">
+      <c r="B1041" s="6">
         <v>59</v>
       </c>
-      <c r="C1041" s="10">
+      <c r="C1041" s="6">
         <v>57</v>
       </c>
       <c r="D1041" s="1">
@@ -16565,10 +16583,10 @@
       <c r="A1042" s="9">
         <v>44970</v>
       </c>
-      <c r="B1042" s="10">
+      <c r="B1042" s="6">
         <v>67</v>
       </c>
-      <c r="C1042" s="10">
+      <c r="C1042" s="6">
         <v>66</v>
       </c>
       <c r="D1042" s="1">
@@ -16580,10 +16598,10 @@
       <c r="A1043" s="9">
         <v>44971</v>
       </c>
-      <c r="B1043" s="10">
+      <c r="B1043" s="6">
         <v>57</v>
       </c>
-      <c r="C1043" s="10">
+      <c r="C1043" s="6">
         <v>57</v>
       </c>
       <c r="D1043" s="1">
@@ -16595,10 +16613,10 @@
       <c r="A1044" s="9">
         <v>44972</v>
       </c>
-      <c r="B1044" s="10">
+      <c r="B1044" s="6">
         <v>71</v>
       </c>
-      <c r="C1044" s="10">
+      <c r="C1044" s="6">
         <v>65</v>
       </c>
       <c r="D1044" s="1">
@@ -16610,10 +16628,10 @@
       <c r="A1045" s="9">
         <v>44973</v>
       </c>
-      <c r="B1045" s="10">
+      <c r="B1045" s="6">
         <v>64</v>
       </c>
-      <c r="C1045" s="10">
+      <c r="C1045" s="6">
         <v>60</v>
       </c>
       <c r="D1045" s="1">
@@ -16625,10 +16643,10 @@
       <c r="A1046" s="9">
         <v>44974</v>
       </c>
-      <c r="B1046" s="10">
+      <c r="B1046" s="6">
         <v>76</v>
       </c>
-      <c r="C1046" s="10">
+      <c r="C1046" s="6">
         <v>73</v>
       </c>
       <c r="D1046" s="1">
@@ -16640,10 +16658,10 @@
       <c r="A1047" s="9">
         <v>44975</v>
       </c>
-      <c r="B1047" s="10">
+      <c r="B1047" s="6">
         <v>58</v>
       </c>
-      <c r="C1047" s="10">
+      <c r="C1047" s="6">
         <v>55</v>
       </c>
       <c r="D1047" s="1">
@@ -16655,10 +16673,10 @@
       <c r="A1048" s="9">
         <v>44976</v>
       </c>
-      <c r="B1048" s="10">
+      <c r="B1048" s="6">
         <v>52</v>
       </c>
-      <c r="C1048" s="10">
+      <c r="C1048" s="6">
         <v>52</v>
       </c>
       <c r="D1048" s="1">
@@ -16670,10 +16688,10 @@
       <c r="A1049" s="9">
         <v>44977</v>
       </c>
-      <c r="B1049" s="10">
+      <c r="B1049" s="6">
         <v>61</v>
       </c>
-      <c r="C1049" s="10">
+      <c r="C1049" s="6">
         <v>61</v>
       </c>
       <c r="D1049" s="1">
@@ -16685,10 +16703,10 @@
       <c r="A1050" s="9">
         <v>44978</v>
       </c>
-      <c r="B1050" s="10">
+      <c r="B1050" s="6">
         <v>77</v>
       </c>
-      <c r="C1050" s="10">
+      <c r="C1050" s="6">
         <v>72</v>
       </c>
       <c r="D1050" s="1">
@@ -16700,10 +16718,10 @@
       <c r="A1051" s="9">
         <v>44979</v>
       </c>
-      <c r="B1051" s="10">
+      <c r="B1051" s="6">
         <v>64</v>
       </c>
-      <c r="C1051" s="10">
+      <c r="C1051" s="6">
         <v>56</v>
       </c>
       <c r="D1051" s="1">
@@ -16715,10 +16733,10 @@
       <c r="A1052" s="9">
         <v>44980</v>
       </c>
-      <c r="B1052" s="10">
+      <c r="B1052" s="6">
         <v>68</v>
       </c>
-      <c r="C1052" s="10">
+      <c r="C1052" s="6">
         <v>64</v>
       </c>
       <c r="D1052" s="1">
@@ -16730,10 +16748,10 @@
       <c r="A1053" s="9">
         <v>44981</v>
       </c>
-      <c r="B1053" s="10">
+      <c r="B1053" s="6">
         <v>70</v>
       </c>
-      <c r="C1053" s="10">
+      <c r="C1053" s="6">
         <v>67</v>
       </c>
       <c r="D1053" s="1">
@@ -16745,10 +16763,10 @@
       <c r="A1054" s="9">
         <v>44982</v>
       </c>
-      <c r="B1054" s="10">
+      <c r="B1054" s="6">
         <v>59</v>
       </c>
-      <c r="C1054" s="10">
+      <c r="C1054" s="6">
         <v>56</v>
       </c>
       <c r="D1054" s="1">
@@ -16760,10 +16778,10 @@
       <c r="A1055" s="9">
         <v>44983</v>
       </c>
-      <c r="B1055" s="10">
+      <c r="B1055" s="6">
         <v>63</v>
       </c>
-      <c r="C1055" s="10">
+      <c r="C1055" s="6">
         <v>63</v>
       </c>
       <c r="D1055" s="1">
@@ -16775,10 +16793,10 @@
       <c r="A1056" s="9">
         <v>44984</v>
       </c>
-      <c r="B1056" s="10">
+      <c r="B1056" s="6">
         <v>60</v>
       </c>
-      <c r="C1056" s="10">
+      <c r="C1056" s="6">
         <v>55</v>
       </c>
       <c r="D1056" s="1">
@@ -16790,10 +16808,10 @@
       <c r="A1057" s="9">
         <v>44985</v>
       </c>
-      <c r="B1057" s="10">
+      <c r="B1057" s="6">
         <v>79</v>
       </c>
-      <c r="C1057" s="10">
+      <c r="C1057" s="6">
         <v>77</v>
       </c>
       <c r="D1057" s="1">
@@ -16805,10 +16823,10 @@
       <c r="A1058" s="9">
         <v>44986</v>
       </c>
-      <c r="B1058" s="10">
+      <c r="B1058" s="6">
         <v>62</v>
       </c>
-      <c r="C1058" s="10">
+      <c r="C1058" s="6">
         <v>62</v>
       </c>
       <c r="D1058" s="1">
@@ -16820,10 +16838,10 @@
       <c r="A1059" s="9">
         <v>44987</v>
       </c>
-      <c r="B1059" s="10">
+      <c r="B1059" s="6">
         <v>69</v>
       </c>
-      <c r="C1059" s="10">
+      <c r="C1059" s="6">
         <v>66</v>
       </c>
       <c r="D1059" s="1">
@@ -16835,10 +16853,10 @@
       <c r="A1060" s="9">
         <v>44988</v>
       </c>
-      <c r="B1060" s="10">
+      <c r="B1060" s="6">
         <v>66</v>
       </c>
-      <c r="C1060" s="10">
+      <c r="C1060" s="6">
         <v>61</v>
       </c>
       <c r="D1060" s="1">
@@ -16850,10 +16868,10 @@
       <c r="A1061" s="9">
         <v>44989</v>
       </c>
-      <c r="B1061" s="10">
+      <c r="B1061" s="6">
         <v>57</v>
       </c>
-      <c r="C1061" s="10">
+      <c r="C1061" s="6">
         <v>53</v>
       </c>
       <c r="D1061" s="1">
@@ -16865,10 +16883,10 @@
       <c r="A1062" s="9">
         <v>44990</v>
       </c>
-      <c r="B1062" s="10">
+      <c r="B1062" s="6">
         <v>56</v>
       </c>
-      <c r="C1062" s="10">
+      <c r="C1062" s="6">
         <v>55</v>
       </c>
       <c r="D1062" s="1">
@@ -16880,10 +16898,10 @@
       <c r="A1063" s="9">
         <v>44991</v>
       </c>
-      <c r="B1063" s="10">
+      <c r="B1063" s="6">
         <v>60</v>
       </c>
-      <c r="C1063" s="10">
+      <c r="C1063" s="6">
         <v>60</v>
       </c>
       <c r="D1063" s="1">
@@ -16895,10 +16913,10 @@
       <c r="A1064" s="9">
         <v>44992</v>
       </c>
-      <c r="B1064" s="10">
+      <c r="B1064" s="6">
         <v>62</v>
       </c>
-      <c r="C1064" s="10">
+      <c r="C1064" s="6">
         <v>62</v>
       </c>
       <c r="D1064" s="1">
@@ -16910,10 +16928,10 @@
       <c r="A1065" s="9">
         <v>44993</v>
       </c>
-      <c r="B1065" s="10">
+      <c r="B1065" s="6">
         <v>69</v>
       </c>
-      <c r="C1065" s="10">
+      <c r="C1065" s="6">
         <v>67</v>
       </c>
       <c r="D1065" s="1">
@@ -16925,10 +16943,10 @@
       <c r="A1066" s="9">
         <v>44994</v>
       </c>
-      <c r="B1066" s="10">
+      <c r="B1066" s="6">
         <v>66</v>
       </c>
-      <c r="C1066" s="10">
+      <c r="C1066" s="6">
         <v>63</v>
       </c>
       <c r="D1066" s="1">
@@ -16940,10 +16958,10 @@
       <c r="A1067" s="9">
         <v>44995</v>
       </c>
-      <c r="B1067" s="10">
+      <c r="B1067" s="6">
         <v>76</v>
       </c>
-      <c r="C1067" s="10">
+      <c r="C1067" s="6">
         <v>75</v>
       </c>
       <c r="D1067" s="1">
@@ -16955,10 +16973,10 @@
       <c r="A1068" s="9">
         <v>44996</v>
       </c>
-      <c r="B1068" s="10">
+      <c r="B1068" s="6">
         <v>59</v>
       </c>
-      <c r="C1068" s="10">
+      <c r="C1068" s="6">
         <v>56</v>
       </c>
       <c r="D1068" s="1">
@@ -16970,10 +16988,10 @@
       <c r="A1069" s="9">
         <v>44997</v>
       </c>
-      <c r="B1069" s="10">
+      <c r="B1069" s="6">
         <v>71</v>
       </c>
-      <c r="C1069" s="10">
+      <c r="C1069" s="6">
         <v>65</v>
       </c>
       <c r="D1069" s="1">
@@ -16985,10 +17003,10 @@
       <c r="A1070" s="9">
         <v>44998</v>
       </c>
-      <c r="B1070" s="10">
+      <c r="B1070" s="6">
         <v>53</v>
       </c>
-      <c r="C1070" s="10">
+      <c r="C1070" s="6">
         <v>53</v>
       </c>
       <c r="D1070" s="1">
@@ -17000,10 +17018,10 @@
       <c r="A1071" s="9">
         <v>44999</v>
       </c>
-      <c r="B1071" s="10">
+      <c r="B1071" s="6">
         <v>77</v>
       </c>
-      <c r="C1071" s="10">
+      <c r="C1071" s="6">
         <v>76</v>
       </c>
       <c r="D1071" s="1">
@@ -17015,10 +17033,10 @@
       <c r="A1072" s="9">
         <v>45000</v>
       </c>
-      <c r="B1072" s="10">
+      <c r="B1072" s="6">
         <v>65</v>
       </c>
-      <c r="C1072" s="10">
+      <c r="C1072" s="6">
         <v>64</v>
       </c>
       <c r="D1072" s="1">
@@ -17030,10 +17048,10 @@
       <c r="A1073" s="9">
         <v>45001</v>
       </c>
-      <c r="B1073" s="10">
+      <c r="B1073" s="6">
         <v>74</v>
       </c>
-      <c r="C1073" s="10">
+      <c r="C1073" s="6">
         <v>73</v>
       </c>
       <c r="D1073" s="1">
@@ -17045,10 +17063,10 @@
       <c r="A1074" s="9">
         <v>45002</v>
       </c>
-      <c r="B1074" s="10">
+      <c r="B1074" s="6">
         <v>73</v>
       </c>
-      <c r="C1074" s="10">
+      <c r="C1074" s="6">
         <v>72</v>
       </c>
       <c r="D1074" s="1">
@@ -17060,10 +17078,10 @@
       <c r="A1075" s="9">
         <v>45003</v>
       </c>
-      <c r="B1075" s="10">
+      <c r="B1075" s="6">
         <v>71</v>
       </c>
-      <c r="C1075" s="10">
+      <c r="C1075" s="6">
         <v>71</v>
       </c>
       <c r="D1075" s="1">
@@ -17075,10 +17093,10 @@
       <c r="A1076" s="9">
         <v>45004</v>
       </c>
-      <c r="B1076" s="10">
+      <c r="B1076" s="6">
         <v>90</v>
       </c>
-      <c r="C1076" s="10">
+      <c r="C1076" s="6">
         <v>84</v>
       </c>
       <c r="D1076" s="1">
@@ -17090,10 +17108,10 @@
       <c r="A1077" s="9">
         <v>45005</v>
       </c>
-      <c r="B1077" s="10">
+      <c r="B1077" s="6">
         <v>69</v>
       </c>
-      <c r="C1077" s="10">
+      <c r="C1077" s="6">
         <v>66</v>
       </c>
       <c r="D1077" s="1">
@@ -17105,10 +17123,10 @@
       <c r="A1078" s="9">
         <v>45006</v>
       </c>
-      <c r="B1078" s="10">
+      <c r="B1078" s="6">
         <v>69</v>
       </c>
-      <c r="C1078" s="10">
+      <c r="C1078" s="6">
         <v>68</v>
       </c>
       <c r="D1078" s="1">
@@ -17120,10 +17138,10 @@
       <c r="A1079" s="9">
         <v>45007</v>
       </c>
-      <c r="B1079" s="10">
+      <c r="B1079" s="6">
         <v>63</v>
       </c>
-      <c r="C1079" s="10">
+      <c r="C1079" s="6">
         <v>59</v>
       </c>
       <c r="D1079" s="1">
@@ -17135,10 +17153,10 @@
       <c r="A1080" s="9">
         <v>45008</v>
       </c>
-      <c r="B1080" s="10">
+      <c r="B1080" s="6">
         <v>75</v>
       </c>
-      <c r="C1080" s="10">
+      <c r="C1080" s="6">
         <v>72</v>
       </c>
       <c r="D1080" s="1">
@@ -17150,10 +17168,10 @@
       <c r="A1081" s="9">
         <v>45009</v>
       </c>
-      <c r="B1081" s="10">
+      <c r="B1081" s="6">
         <v>67</v>
       </c>
-      <c r="C1081" s="10">
+      <c r="C1081" s="6">
         <v>64</v>
       </c>
       <c r="D1081" s="1">
@@ -17165,10 +17183,10 @@
       <c r="A1082" s="9">
         <v>45010</v>
       </c>
-      <c r="B1082" s="10">
+      <c r="B1082" s="6">
         <v>54</v>
       </c>
-      <c r="C1082" s="10">
+      <c r="C1082" s="6">
         <v>53</v>
       </c>
       <c r="D1082" s="1">
@@ -17180,10 +17198,10 @@
       <c r="A1083" s="9">
         <v>45011</v>
       </c>
-      <c r="B1083" s="10">
+      <c r="B1083" s="6">
         <v>62</v>
       </c>
-      <c r="C1083" s="10">
+      <c r="C1083" s="6">
         <v>61</v>
       </c>
       <c r="D1083" s="1">
@@ -17195,10 +17213,10 @@
       <c r="A1084" s="9">
         <v>45012</v>
       </c>
-      <c r="B1084" s="10">
+      <c r="B1084" s="6">
         <v>66</v>
       </c>
-      <c r="C1084" s="10">
+      <c r="C1084" s="6">
         <v>63</v>
       </c>
       <c r="D1084" s="1">
@@ -17210,10 +17228,10 @@
       <c r="A1085" s="9">
         <v>45013</v>
       </c>
-      <c r="B1085" s="10">
+      <c r="B1085" s="6">
         <v>77</v>
       </c>
-      <c r="C1085" s="10">
+      <c r="C1085" s="6">
         <v>76</v>
       </c>
       <c r="D1085" s="1">
@@ -17225,10 +17243,10 @@
       <c r="A1086" s="9">
         <v>45014</v>
       </c>
-      <c r="B1086" s="10">
+      <c r="B1086" s="6">
         <v>78</v>
       </c>
-      <c r="C1086" s="10">
+      <c r="C1086" s="6">
         <v>72</v>
       </c>
       <c r="D1086" s="1">
@@ -17240,10 +17258,10 @@
       <c r="A1087" s="9">
         <v>45015</v>
       </c>
-      <c r="B1087" s="10">
+      <c r="B1087" s="6">
         <v>72</v>
       </c>
-      <c r="C1087" s="10">
+      <c r="C1087" s="6">
         <v>71</v>
       </c>
       <c r="D1087" s="1">
@@ -17255,10 +17273,10 @@
       <c r="A1088" s="9">
         <v>45016</v>
       </c>
-      <c r="B1088" s="10">
+      <c r="B1088" s="6">
         <v>65</v>
       </c>
-      <c r="C1088" s="10">
+      <c r="C1088" s="6">
         <v>56</v>
       </c>
       <c r="D1088" s="1">
@@ -17270,14 +17288,14 @@
       <c r="A1089" s="9">
         <v>45017</v>
       </c>
-      <c r="B1089" s="10">
+      <c r="B1089" s="6">
         <v>49</v>
       </c>
-      <c r="C1089" s="10">
+      <c r="C1089" s="6">
         <v>47</v>
       </c>
       <c r="D1089" s="1">
-        <f t="shared" ref="D1089:D1092" si="17">C1089/B1089</f>
+        <f t="shared" ref="D1089:D1134" si="17">C1089/B1089</f>
         <v>0.95918367346938771</v>
       </c>
     </row>
@@ -17285,10 +17303,10 @@
       <c r="A1090" s="9">
         <v>45018</v>
       </c>
-      <c r="B1090" s="10">
+      <c r="B1090" s="6">
         <v>49</v>
       </c>
-      <c r="C1090" s="10">
+      <c r="C1090" s="6">
         <v>48</v>
       </c>
       <c r="D1090" s="1">
@@ -17300,10 +17318,10 @@
       <c r="A1091" s="9">
         <v>45019</v>
       </c>
-      <c r="B1091" s="10">
+      <c r="B1091" s="6">
         <v>55</v>
       </c>
-      <c r="C1091" s="10">
+      <c r="C1091" s="6">
         <v>53</v>
       </c>
       <c r="D1091" s="1">
@@ -17312,18 +17330,648 @@
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1092" s="9">
+      <c r="A1092" s="10">
         <v>45020</v>
       </c>
-      <c r="B1092" s="10">
+      <c r="B1092">
         <v>60</v>
       </c>
-      <c r="C1092" s="10">
-        <v>58</v>
+      <c r="C1092">
+        <v>59</v>
       </c>
       <c r="D1092" s="1">
         <f t="shared" si="17"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1093" s="10">
+        <v>45021</v>
+      </c>
+      <c r="B1093">
+        <v>70</v>
+      </c>
+      <c r="C1093">
+        <v>60</v>
+      </c>
+      <c r="D1093" s="1">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1094" s="10">
+        <v>45022</v>
+      </c>
+      <c r="B1094">
+        <v>84</v>
+      </c>
+      <c r="C1094">
+        <v>79</v>
+      </c>
+      <c r="D1094" s="1">
+        <f t="shared" si="17"/>
+        <v>0.94047619047619047</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1095" s="10">
+        <v>45023</v>
+      </c>
+      <c r="B1095">
+        <v>67</v>
+      </c>
+      <c r="C1095">
+        <v>64</v>
+      </c>
+      <c r="D1095" s="1">
+        <f t="shared" si="17"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1096" s="10">
+        <v>45024</v>
+      </c>
+      <c r="B1096">
+        <v>50</v>
+      </c>
+      <c r="C1096">
+        <v>48</v>
+      </c>
+      <c r="D1096" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1097" s="10">
+        <v>45025</v>
+      </c>
+      <c r="B1097">
+        <v>54</v>
+      </c>
+      <c r="C1097">
+        <v>52</v>
+      </c>
+      <c r="D1097" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1098" s="10">
+        <v>45026</v>
+      </c>
+      <c r="B1098" s="12">
+        <v>63</v>
+      </c>
+      <c r="C1098" s="12">
+        <v>59</v>
+      </c>
+      <c r="D1098" s="1">
+        <f t="shared" si="17"/>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1099" s="10">
+        <v>45027</v>
+      </c>
+      <c r="B1099" s="12">
+        <v>75</v>
+      </c>
+      <c r="C1099" s="12">
+        <v>74</v>
+      </c>
+      <c r="D1099" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98666666666666669</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1100" s="10">
+        <v>45028</v>
+      </c>
+      <c r="B1100" s="12">
+        <v>61</v>
+      </c>
+      <c r="C1100" s="12">
+        <v>61</v>
+      </c>
+      <c r="D1100" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1101" s="10">
+        <v>45029</v>
+      </c>
+      <c r="B1101" s="12">
+        <v>78</v>
+      </c>
+      <c r="C1101" s="12">
+        <v>76</v>
+      </c>
+      <c r="D1101" s="1">
+        <f t="shared" si="17"/>
+        <v>0.97435897435897434</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1102" s="10">
+        <v>45030</v>
+      </c>
+      <c r="B1102" s="12">
+        <v>73</v>
+      </c>
+      <c r="C1102" s="12">
+        <v>72</v>
+      </c>
+      <c r="D1102" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98630136986301364</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1103" s="10">
+        <v>45031</v>
+      </c>
+      <c r="B1103" s="12">
+        <v>44</v>
+      </c>
+      <c r="C1103" s="12">
+        <v>42</v>
+      </c>
+      <c r="D1103" s="1">
+        <f t="shared" si="17"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1104" s="10">
+        <v>45032</v>
+      </c>
+      <c r="B1104" s="12">
+        <v>55</v>
+      </c>
+      <c r="C1104" s="12">
+        <v>51</v>
+      </c>
+      <c r="D1104" s="1">
+        <f t="shared" si="17"/>
+        <v>0.92727272727272725</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1105" s="10">
+        <v>45033</v>
+      </c>
+      <c r="B1105" s="12">
+        <v>62</v>
+      </c>
+      <c r="C1105" s="12">
+        <v>60</v>
+      </c>
+      <c r="D1105" s="1">
+        <f t="shared" si="17"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1106" s="10">
+        <v>45034</v>
+      </c>
+      <c r="B1106" s="12">
+        <v>80</v>
+      </c>
+      <c r="C1106" s="12">
+        <v>73</v>
+      </c>
+      <c r="D1106" s="1">
+        <f t="shared" si="17"/>
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1107" s="10">
+        <v>45035</v>
+      </c>
+      <c r="B1107" s="12">
+        <v>74</v>
+      </c>
+      <c r="C1107" s="12">
+        <v>68</v>
+      </c>
+      <c r="D1107" s="1">
+        <f t="shared" si="17"/>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1108" s="10">
+        <v>45036</v>
+      </c>
+      <c r="B1108" s="12">
+        <v>76</v>
+      </c>
+      <c r="C1108" s="12">
+        <v>72</v>
+      </c>
+      <c r="D1108" s="1">
+        <f t="shared" si="17"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1109" s="10">
+        <v>45037</v>
+      </c>
+      <c r="B1109" s="12">
+        <v>70</v>
+      </c>
+      <c r="C1109" s="12">
+        <v>62</v>
+      </c>
+      <c r="D1109" s="1">
+        <f t="shared" si="17"/>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1110" s="10">
+        <v>45038</v>
+      </c>
+      <c r="B1110" s="12">
+        <v>56</v>
+      </c>
+      <c r="C1110" s="12">
+        <v>51</v>
+      </c>
+      <c r="D1110" s="1">
+        <f t="shared" si="17"/>
+        <v>0.9107142857142857</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1111" s="10">
+        <v>45039</v>
+      </c>
+      <c r="B1111" s="12">
+        <v>64</v>
+      </c>
+      <c r="C1111" s="12">
+        <v>62</v>
+      </c>
+      <c r="D1111" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1112" s="10">
+        <v>45040</v>
+      </c>
+      <c r="B1112" s="13">
+        <v>67</v>
+      </c>
+      <c r="C1112" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1112" s="1">
+        <f t="shared" si="17"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1113" s="10">
+        <v>45041</v>
+      </c>
+      <c r="B1113" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1113" s="13">
+        <v>73</v>
+      </c>
+      <c r="D1113" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98648648648648651</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1114" s="10">
+        <v>45042</v>
+      </c>
+      <c r="B1114" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1114" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1114" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1115" s="10">
+        <v>45043</v>
+      </c>
+      <c r="B1115" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1115" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1115" s="1">
+        <f t="shared" si="17"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1116" s="10">
+        <v>45044</v>
+      </c>
+      <c r="B1116" s="13">
+        <v>72</v>
+      </c>
+      <c r="C1116" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1116" s="1">
+        <f t="shared" si="17"/>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1117" s="10">
+        <v>45045</v>
+      </c>
+      <c r="B1117" s="13">
+        <v>52</v>
+      </c>
+      <c r="C1117" s="13">
+        <v>49</v>
+      </c>
+      <c r="D1117" s="1">
+        <f t="shared" si="17"/>
+        <v>0.94230769230769229</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1118" s="10">
+        <v>45046</v>
+      </c>
+      <c r="B1118" s="13">
+        <v>59</v>
+      </c>
+      <c r="C1118" s="13">
+        <v>57</v>
+      </c>
+      <c r="D1118" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1119" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B1119" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1119" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1119" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1120" s="10">
+        <v>45048</v>
+      </c>
+      <c r="B1120" s="13">
+        <v>61</v>
+      </c>
+      <c r="C1120" s="13">
+        <v>59</v>
+      </c>
+      <c r="D1120" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1121" s="10">
+        <v>45049</v>
+      </c>
+      <c r="B1121" s="13">
+        <v>72</v>
+      </c>
+      <c r="C1121" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1121" s="1">
+        <f t="shared" si="17"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1122" s="10">
+        <v>45050</v>
+      </c>
+      <c r="B1122" s="13">
+        <v>86</v>
+      </c>
+      <c r="C1122" s="13">
+        <v>83</v>
+      </c>
+      <c r="D1122" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96511627906976749</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1123" s="10">
+        <v>45051</v>
+      </c>
+      <c r="B1123" s="13">
+        <v>82</v>
+      </c>
+      <c r="C1123" s="13">
+        <v>80</v>
+      </c>
+      <c r="D1123" s="1">
+        <f t="shared" si="17"/>
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1124" s="10">
+        <v>45052</v>
+      </c>
+      <c r="B1124" s="13">
+        <v>50</v>
+      </c>
+      <c r="C1124" s="13">
+        <v>48</v>
+      </c>
+      <c r="D1124" s="1">
+        <f t="shared" si="17"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1125" s="10">
+        <v>45053</v>
+      </c>
+      <c r="B1125" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1125" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1125" s="1">
+        <f t="shared" si="17"/>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1126" s="10">
+        <v>45054</v>
+      </c>
+      <c r="B1126" s="13">
+        <v>72</v>
+      </c>
+      <c r="C1126" s="13">
+        <v>72</v>
+      </c>
+      <c r="D1126" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1127" s="10">
+        <v>45055</v>
+      </c>
+      <c r="B1127" s="13">
+        <v>82</v>
+      </c>
+      <c r="C1127" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1127" s="1">
+        <f t="shared" si="17"/>
+        <v>0.95121951219512191</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1128" s="10">
+        <v>45056</v>
+      </c>
+      <c r="B1128" s="13">
+        <v>70</v>
+      </c>
+      <c r="C1128" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1128" s="1">
+        <f t="shared" si="17"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1129" s="10">
+        <v>45057</v>
+      </c>
+      <c r="B1129" s="13">
+        <v>90</v>
+      </c>
+      <c r="C1129" s="13">
+        <v>87</v>
+      </c>
+      <c r="D1129" s="1">
+        <f t="shared" si="17"/>
         <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1130" s="10">
+        <v>45058</v>
+      </c>
+      <c r="B1130" s="13">
+        <v>84</v>
+      </c>
+      <c r="C1130" s="13">
+        <v>81</v>
+      </c>
+      <c r="D1130" s="1">
+        <f t="shared" si="17"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1131" s="10">
+        <v>45059</v>
+      </c>
+      <c r="B1131" s="13">
+        <v>54</v>
+      </c>
+      <c r="C1131" s="13">
+        <v>53</v>
+      </c>
+      <c r="D1131" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98148148148148151</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1132" s="10">
+        <v>45060</v>
+      </c>
+      <c r="B1132" s="13">
+        <v>63</v>
+      </c>
+      <c r="C1132" s="13">
+        <v>60</v>
+      </c>
+      <c r="D1132" s="1">
+        <f t="shared" si="17"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1133" s="10">
+        <v>45061</v>
+      </c>
+      <c r="B1133" s="13">
+        <v>81</v>
+      </c>
+      <c r="C1133" s="13">
+        <v>73</v>
+      </c>
+      <c r="D1133" s="1">
+        <f t="shared" si="17"/>
+        <v>0.90123456790123457</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1134" s="10">
+        <v>45062</v>
+      </c>
+      <c r="B1134" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1134" s="13">
+        <v>72</v>
+      </c>
+      <c r="D1134" s="1">
+        <f t="shared" si="17"/>
+        <v>0.92307692307692313</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1354277-55FD-9340-B603-E7EA185BB918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F189465-712E-3E49-88FF-25AC0681BACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="3820" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>DateTime</t>
   </si>
@@ -45,6 +45,69 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-07-16</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>2023-07-22</t>
+  </si>
+  <si>
+    <t>2023-07-23</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-07-29</t>
+  </si>
+  <si>
+    <t>2023-07-30</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
   </si>
 </sst>
 </file>
@@ -559,7 +622,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -586,6 +649,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -942,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1191"/>
+  <dimension ref="A1:D1211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1159" workbookViewId="0">
-      <selection activeCell="J1173" sqref="J1173"/>
+    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
+      <selection activeCell="D1191" sqref="D1191:D1211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18245,7 +18311,7 @@
         <v>64</v>
       </c>
       <c r="D1153" s="1">
-        <f t="shared" ref="D1153:D1191" si="18">C1153/B1153</f>
+        <f t="shared" ref="D1153:D1211" si="18">C1153/B1153</f>
         <v>1</v>
       </c>
     </row>
@@ -18805,18 +18871,318 @@
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1191" s="10">
-        <v>45118</v>
-      </c>
-      <c r="B1191" s="5">
+      <c r="A1191" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1191" s="4">
         <v>87</v>
       </c>
-      <c r="C1191" s="5">
-        <v>85</v>
+      <c r="C1191" s="4">
+        <v>86</v>
       </c>
       <c r="D1191" s="1">
         <f t="shared" si="18"/>
-        <v>0.97701149425287359</v>
+        <v>0.9885057471264368</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1192" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1192" s="4">
+        <v>74</v>
+      </c>
+      <c r="C1192" s="4">
+        <v>61</v>
+      </c>
+      <c r="D1192" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82432432432432434</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1193" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1193" s="4">
+        <v>84</v>
+      </c>
+      <c r="C1193" s="4">
+        <v>83</v>
+      </c>
+      <c r="D1193" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98809523809523814</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1194" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1194" s="4">
+        <v>80</v>
+      </c>
+      <c r="C1194" s="4">
+        <v>73</v>
+      </c>
+      <c r="D1194" s="1">
+        <f t="shared" si="18"/>
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1195" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1195" s="4">
+        <v>75</v>
+      </c>
+      <c r="C1195" s="4">
+        <v>71</v>
+      </c>
+      <c r="D1195" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1196" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1196" s="4">
+        <v>68</v>
+      </c>
+      <c r="C1196" s="4">
+        <v>66</v>
+      </c>
+      <c r="D1196" s="1">
+        <f t="shared" si="18"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1197" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1197" s="4">
+        <v>71</v>
+      </c>
+      <c r="C1197" s="4">
+        <v>68</v>
+      </c>
+      <c r="D1197" s="1">
+        <f t="shared" si="18"/>
+        <v>0.95774647887323938</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1198" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1198" s="4">
+        <v>70</v>
+      </c>
+      <c r="C1198" s="4">
+        <v>70</v>
+      </c>
+      <c r="D1198" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1199" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1199" s="4">
+        <v>90</v>
+      </c>
+      <c r="C1199" s="4">
+        <v>86</v>
+      </c>
+      <c r="D1199" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1200" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1200" s="4">
+        <v>91</v>
+      </c>
+      <c r="C1200" s="4">
+        <v>85</v>
+      </c>
+      <c r="D1200" s="1">
+        <f t="shared" si="18"/>
+        <v>0.93406593406593408</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1201" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1201" s="4">
+        <v>87</v>
+      </c>
+      <c r="C1201" s="4">
+        <v>86</v>
+      </c>
+      <c r="D1201" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9885057471264368</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1202" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1202" s="4">
+        <v>68</v>
+      </c>
+      <c r="C1202" s="4">
+        <v>66</v>
+      </c>
+      <c r="D1202" s="1">
+        <f t="shared" si="18"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1203" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1203" s="4">
+        <v>65</v>
+      </c>
+      <c r="C1203" s="4">
+        <v>64</v>
+      </c>
+      <c r="D1203" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1204" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1204" s="4">
+        <v>76</v>
+      </c>
+      <c r="C1204" s="4">
+        <v>71</v>
+      </c>
+      <c r="D1204" s="1">
+        <f t="shared" si="18"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1205" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1205" s="4">
+        <v>74</v>
+      </c>
+      <c r="C1205" s="4">
+        <v>71</v>
+      </c>
+      <c r="D1205" s="1">
+        <f t="shared" si="18"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1206" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1206" s="4">
+        <v>74</v>
+      </c>
+      <c r="C1206" s="4">
+        <v>71</v>
+      </c>
+      <c r="D1206" s="1">
+        <f t="shared" si="18"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1207" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1207" s="4">
+        <v>85</v>
+      </c>
+      <c r="C1207" s="4">
+        <v>77</v>
+      </c>
+      <c r="D1207" s="1">
+        <f t="shared" si="18"/>
+        <v>0.90588235294117647</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1208" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1208" s="4">
+        <v>81</v>
+      </c>
+      <c r="C1208" s="4">
+        <v>77</v>
+      </c>
+      <c r="D1208" s="1">
+        <f t="shared" si="18"/>
+        <v>0.95061728395061729</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1209" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1209" s="4">
+        <v>78</v>
+      </c>
+      <c r="C1209" s="4">
+        <v>74</v>
+      </c>
+      <c r="D1209" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1210" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1210" s="4">
+        <v>64</v>
+      </c>
+      <c r="C1210" s="4">
+        <v>60</v>
+      </c>
+      <c r="D1210" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1211" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1211" s="4">
+        <v>72</v>
+      </c>
+      <c r="C1211" s="4">
+        <v>68</v>
+      </c>
+      <c r="D1211" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94444444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F189465-712E-3E49-88FF-25AC0681BACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B8427-2613-4B4F-825C-A34DA72EBB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="3820" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>DateTime</t>
   </si>
@@ -108,6 +107,372 @@
   </si>
   <si>
     <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-11-05</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
   </si>
 </sst>
 </file>
@@ -622,7 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -651,6 +1016,9 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1008,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1211"/>
+  <dimension ref="A1:D1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
-      <selection activeCell="D1191" sqref="D1191:D1211"/>
+    <sheetView tabSelected="1" topLeftCell="A1293" workbookViewId="0">
+      <selection activeCell="K1317" sqref="K1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18311,7 +18679,7 @@
         <v>64</v>
       </c>
       <c r="D1153" s="1">
-        <f t="shared" ref="D1153:D1211" si="18">C1153/B1153</f>
+        <f t="shared" ref="D1153:D1216" si="18">C1153/B1153</f>
         <v>1</v>
       </c>
     </row>
@@ -18964,10 +19332,10 @@
       <c r="A1197" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1197" s="4">
+      <c r="B1197" s="13">
         <v>71</v>
       </c>
-      <c r="C1197" s="4">
+      <c r="C1197" s="13">
         <v>68</v>
       </c>
       <c r="D1197" s="1">
@@ -18979,10 +19347,10 @@
       <c r="A1198" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1198" s="4">
+      <c r="B1198" s="13">
         <v>70</v>
       </c>
-      <c r="C1198" s="4">
+      <c r="C1198" s="13">
         <v>70</v>
       </c>
       <c r="D1198" s="1">
@@ -18994,10 +19362,10 @@
       <c r="A1199" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1199" s="4">
+      <c r="B1199" s="13">
         <v>90</v>
       </c>
-      <c r="C1199" s="4">
+      <c r="C1199" s="13">
         <v>86</v>
       </c>
       <c r="D1199" s="1">
@@ -19009,10 +19377,10 @@
       <c r="A1200" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1200" s="4">
+      <c r="B1200" s="13">
         <v>91</v>
       </c>
-      <c r="C1200" s="4">
+      <c r="C1200" s="13">
         <v>85</v>
       </c>
       <c r="D1200" s="1">
@@ -19024,10 +19392,10 @@
       <c r="A1201" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1201" s="4">
+      <c r="B1201" s="13">
         <v>87</v>
       </c>
-      <c r="C1201" s="4">
+      <c r="C1201" s="13">
         <v>86</v>
       </c>
       <c r="D1201" s="1">
@@ -19039,10 +19407,10 @@
       <c r="A1202" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1202" s="4">
+      <c r="B1202" s="13">
         <v>68</v>
       </c>
-      <c r="C1202" s="4">
+      <c r="C1202" s="13">
         <v>66</v>
       </c>
       <c r="D1202" s="1">
@@ -19054,10 +19422,10 @@
       <c r="A1203" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1203" s="4">
+      <c r="B1203" s="13">
         <v>65</v>
       </c>
-      <c r="C1203" s="4">
+      <c r="C1203" s="13">
         <v>64</v>
       </c>
       <c r="D1203" s="1">
@@ -19069,10 +19437,10 @@
       <c r="A1204" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1204" s="4">
+      <c r="B1204" s="13">
         <v>76</v>
       </c>
-      <c r="C1204" s="4">
+      <c r="C1204" s="13">
         <v>71</v>
       </c>
       <c r="D1204" s="1">
@@ -19084,10 +19452,10 @@
       <c r="A1205" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1205" s="4">
+      <c r="B1205" s="13">
         <v>74</v>
       </c>
-      <c r="C1205" s="4">
+      <c r="C1205" s="13">
         <v>71</v>
       </c>
       <c r="D1205" s="1">
@@ -19099,10 +19467,10 @@
       <c r="A1206" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1206" s="4">
+      <c r="B1206" s="13">
         <v>74</v>
       </c>
-      <c r="C1206" s="4">
+      <c r="C1206" s="13">
         <v>71</v>
       </c>
       <c r="D1206" s="1">
@@ -19114,10 +19482,10 @@
       <c r="A1207" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1207" s="4">
+      <c r="B1207" s="13">
         <v>85</v>
       </c>
-      <c r="C1207" s="4">
+      <c r="C1207" s="13">
         <v>77</v>
       </c>
       <c r="D1207" s="1">
@@ -19129,10 +19497,10 @@
       <c r="A1208" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1208" s="4">
+      <c r="B1208" s="13">
         <v>81</v>
       </c>
-      <c r="C1208" s="4">
+      <c r="C1208" s="13">
         <v>77</v>
       </c>
       <c r="D1208" s="1">
@@ -19144,10 +19512,10 @@
       <c r="A1209" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1209" s="4">
+      <c r="B1209" s="13">
         <v>78</v>
       </c>
-      <c r="C1209" s="4">
+      <c r="C1209" s="13">
         <v>74</v>
       </c>
       <c r="D1209" s="1">
@@ -19159,10 +19527,10 @@
       <c r="A1210" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1210" s="4">
+      <c r="B1210" s="13">
         <v>64</v>
       </c>
-      <c r="C1210" s="4">
+      <c r="C1210" s="13">
         <v>60</v>
       </c>
       <c r="D1210" s="1">
@@ -19174,15 +19542,1845 @@
       <c r="A1211" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1211" s="4">
+      <c r="B1211" s="13">
         <v>72</v>
       </c>
-      <c r="C1211" s="4">
+      <c r="C1211" s="13">
         <v>68</v>
       </c>
       <c r="D1211" s="1">
         <f t="shared" si="18"/>
         <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1212" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1212" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1212" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1212" s="1">
+        <f t="shared" si="18"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1213" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1213" s="13">
+        <v>64</v>
+      </c>
+      <c r="C1213" s="13">
+        <v>63</v>
+      </c>
+      <c r="D1213" s="1">
+        <f t="shared" si="18"/>
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1214" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1214" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1214" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1214" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1215" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1215" s="13">
+        <v>90</v>
+      </c>
+      <c r="C1215" s="13">
+        <v>82</v>
+      </c>
+      <c r="D1215" s="1">
+        <f t="shared" si="18"/>
+        <v>0.91111111111111109</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1216" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1216" s="13">
+        <v>58</v>
+      </c>
+      <c r="C1216" s="13">
+        <v>55</v>
+      </c>
+      <c r="D1216" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1217" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1217" s="13">
+        <v>61</v>
+      </c>
+      <c r="C1217" s="13">
+        <v>58</v>
+      </c>
+      <c r="D1217" s="1">
+        <f t="shared" ref="D1217:D1280" si="19">C1217/B1217</f>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1218" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1218" s="13">
+        <v>81</v>
+      </c>
+      <c r="C1218" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1218" s="1">
+        <f t="shared" si="19"/>
+        <v>0.9135802469135802</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1219" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1219" s="13">
+        <v>88</v>
+      </c>
+      <c r="C1219" s="13">
+        <v>83</v>
+      </c>
+      <c r="D1219" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94318181818181823</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1220" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1220" s="13">
+        <v>73</v>
+      </c>
+      <c r="C1220" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1220" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1221" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1221" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1221" s="13">
+        <v>76</v>
+      </c>
+      <c r="D1221" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97435897435897434</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1222" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1222" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1222" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1222" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1223" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1223" s="13">
+        <v>84</v>
+      </c>
+      <c r="C1223" s="13">
+        <v>79</v>
+      </c>
+      <c r="D1223" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94047619047619047</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1224" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1224" s="13">
+        <v>77</v>
+      </c>
+      <c r="C1224" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1224" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97402597402597402</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1225" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1225" s="13">
+        <v>92</v>
+      </c>
+      <c r="C1225" s="13">
+        <v>86</v>
+      </c>
+      <c r="D1225" s="1">
+        <f t="shared" si="19"/>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1226" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1226" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1226" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1226" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1227" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1227" s="13">
+        <v>84</v>
+      </c>
+      <c r="C1227" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1227" s="1">
+        <f t="shared" si="19"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1228" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1228" s="13">
+        <v>84</v>
+      </c>
+      <c r="C1228" s="13">
+        <v>82</v>
+      </c>
+      <c r="D1228" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97619047619047616</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1229" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1229" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1229" s="13">
+        <v>72</v>
+      </c>
+      <c r="D1229" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1230" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1230" s="13">
+        <v>52</v>
+      </c>
+      <c r="C1230" s="13">
+        <v>51</v>
+      </c>
+      <c r="D1230" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98076923076923073</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1231" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1231" s="13">
+        <v>57</v>
+      </c>
+      <c r="C1231" s="13">
+        <v>56</v>
+      </c>
+      <c r="D1231" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1232" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1232" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1232" s="13">
+        <v>76</v>
+      </c>
+      <c r="D1232" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96202531645569622</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1233" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1233" s="13">
+        <v>61</v>
+      </c>
+      <c r="C1233" s="13">
+        <v>59</v>
+      </c>
+      <c r="D1233" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1234" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1234" s="13">
+        <v>68</v>
+      </c>
+      <c r="C1234" s="13">
+        <v>63</v>
+      </c>
+      <c r="D1234" s="1">
+        <f t="shared" si="19"/>
+        <v>0.92647058823529416</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1235" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1235" s="13">
+        <v>87</v>
+      </c>
+      <c r="C1235" s="13">
+        <v>82</v>
+      </c>
+      <c r="D1235" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94252873563218387</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1236" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1236" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1236" s="13">
+        <v>72</v>
+      </c>
+      <c r="D1236" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1237" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1237" s="13">
+        <v>55</v>
+      </c>
+      <c r="C1237" s="13">
+        <v>51</v>
+      </c>
+      <c r="D1237" s="1">
+        <f t="shared" si="19"/>
+        <v>0.92727272727272725</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1238" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1238" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1238" s="13">
+        <v>61</v>
+      </c>
+      <c r="D1238" s="1">
+        <f t="shared" si="19"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1239" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1239" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1239" s="13">
+        <v>64</v>
+      </c>
+      <c r="D1239" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1240" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1240" s="13">
+        <v>71</v>
+      </c>
+      <c r="C1240" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1240" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1241" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1241" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1241" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1241" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98734177215189878</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1242" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1242" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1242" s="13">
+        <v>76</v>
+      </c>
+      <c r="D1242" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96202531645569622</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1243" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1243" s="13">
+        <v>71</v>
+      </c>
+      <c r="C1243" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1243" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95774647887323938</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1244" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1244" s="13">
+        <v>47</v>
+      </c>
+      <c r="C1244" s="13">
+        <v>47</v>
+      </c>
+      <c r="D1244" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1245" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1245" s="13">
+        <v>48</v>
+      </c>
+      <c r="C1245" s="13">
+        <v>47</v>
+      </c>
+      <c r="D1245" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1246" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1246" s="13">
+        <v>57</v>
+      </c>
+      <c r="C1246" s="13">
+        <v>56</v>
+      </c>
+      <c r="D1246" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1247" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1247" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1247" s="13">
+        <v>55</v>
+      </c>
+      <c r="D1247" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88709677419354838</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1248" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1248" s="13">
+        <v>75</v>
+      </c>
+      <c r="C1248" s="13">
+        <v>73</v>
+      </c>
+      <c r="D1248" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1249" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1249" s="13">
+        <v>70</v>
+      </c>
+      <c r="C1249" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1249" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1250" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1250" s="13">
+        <v>81</v>
+      </c>
+      <c r="C1250" s="13">
+        <v>80</v>
+      </c>
+      <c r="D1250" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98765432098765427</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1251" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1251" s="13">
+        <v>54</v>
+      </c>
+      <c r="C1251" s="13">
+        <v>51</v>
+      </c>
+      <c r="D1251" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1252" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1252" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1252" s="13">
+        <v>63</v>
+      </c>
+      <c r="D1252" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96923076923076923</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1253" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1253" s="13">
+        <v>73</v>
+      </c>
+      <c r="C1253" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1253" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1254" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1254" s="13">
+        <v>72</v>
+      </c>
+      <c r="C1254" s="13">
+        <v>64</v>
+      </c>
+      <c r="D1254" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1255" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1255" s="13">
+        <v>81</v>
+      </c>
+      <c r="C1255" s="13">
+        <v>79</v>
+      </c>
+      <c r="D1255" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97530864197530864</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1256" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1256" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1256" s="13">
+        <v>79</v>
+      </c>
+      <c r="D1256" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1257" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1257" s="13">
+        <v>90</v>
+      </c>
+      <c r="C1257" s="13">
+        <v>79</v>
+      </c>
+      <c r="D1257" s="1">
+        <f t="shared" si="19"/>
+        <v>0.87777777777777777</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1258" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1258" s="13">
+        <v>55</v>
+      </c>
+      <c r="C1258" s="13">
+        <v>54</v>
+      </c>
+      <c r="D1258" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1259" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1259" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1259" s="13">
+        <v>63</v>
+      </c>
+      <c r="D1259" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96923076923076923</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1260" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1260" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1260" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1260" s="1">
+        <f t="shared" si="19"/>
+        <v>0.93243243243243246</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1261" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1261" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1261" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1261" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98734177215189878</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1262" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1262" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1262" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1262" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1263" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1263" s="13">
+        <v>85</v>
+      </c>
+      <c r="C1263" s="13">
+        <v>83</v>
+      </c>
+      <c r="D1263" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97647058823529409</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1264" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1264" s="13">
+        <v>85</v>
+      </c>
+      <c r="C1264" s="13">
+        <v>77</v>
+      </c>
+      <c r="D1264" s="1">
+        <f t="shared" si="19"/>
+        <v>0.90588235294117647</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1265" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1265" s="13">
+        <v>49</v>
+      </c>
+      <c r="C1265" s="13">
+        <v>44</v>
+      </c>
+      <c r="D1265" s="1">
+        <f t="shared" si="19"/>
+        <v>0.89795918367346939</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1266" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1266" s="13">
+        <v>71</v>
+      </c>
+      <c r="C1266" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1266" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95774647887323938</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1267" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1267" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1267" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1267" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1268" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1268" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1268" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1268" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94594594594594594</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1269" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1269" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1269" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1269" s="1">
+        <f t="shared" si="19"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1270" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1270" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1270" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1270" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1271" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1271" s="13">
+        <v>77</v>
+      </c>
+      <c r="C1271" s="13">
+        <v>77</v>
+      </c>
+      <c r="D1271" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1272" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1272" s="13">
+        <v>56</v>
+      </c>
+      <c r="C1272" s="13">
+        <v>55</v>
+      </c>
+      <c r="D1272" s="1">
+        <f t="shared" si="19"/>
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1273" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1273" s="13">
+        <v>57</v>
+      </c>
+      <c r="C1273" s="13">
+        <v>57</v>
+      </c>
+      <c r="D1273" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1274" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1274" s="13">
+        <v>59</v>
+      </c>
+      <c r="C1274" s="13">
+        <v>58</v>
+      </c>
+      <c r="D1274" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1275" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1275" s="13">
+        <v>70</v>
+      </c>
+      <c r="C1275" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1275" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1276" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1276" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1276" s="13">
+        <v>77</v>
+      </c>
+      <c r="D1276" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98717948717948723</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1277" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1277" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1277" s="13">
+        <v>76</v>
+      </c>
+      <c r="D1277" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1278" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1278" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1278" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1278" s="1">
+        <f t="shared" si="19"/>
+        <v>0.93670886075949367</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1279" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1279" s="13">
+        <v>61</v>
+      </c>
+      <c r="C1279" s="13">
+        <v>59</v>
+      </c>
+      <c r="D1279" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1280" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1280" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1280" s="13">
+        <v>62</v>
+      </c>
+      <c r="D1280" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1281" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1281" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1281" s="13">
+        <v>67</v>
+      </c>
+      <c r="D1281" s="1">
+        <f t="shared" ref="D1281:D1333" si="20">C1281/B1281</f>
+        <v>0.97101449275362317</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1282" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1282" s="13">
+        <v>67</v>
+      </c>
+      <c r="C1282" s="13">
+        <v>65</v>
+      </c>
+      <c r="D1282" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1283" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1283" s="13">
+        <v>71</v>
+      </c>
+      <c r="C1283" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1283" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95774647887323938</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1284" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1284" s="13">
+        <v>77</v>
+      </c>
+      <c r="C1284" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1284" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97402597402597402</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1285" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1285" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1285" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1285" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1286" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1286" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1286" s="13">
+        <v>64</v>
+      </c>
+      <c r="D1286" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1287" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1287" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1287" s="13">
+        <v>62</v>
+      </c>
+      <c r="D1287" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1288" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1288" s="13">
+        <v>68</v>
+      </c>
+      <c r="C1288" s="13">
+        <v>65</v>
+      </c>
+      <c r="D1288" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95588235294117652</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1289" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1289" s="13">
+        <v>63</v>
+      </c>
+      <c r="C1289" s="13">
+        <v>62</v>
+      </c>
+      <c r="D1289" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1290" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1290" s="13">
+        <v>67</v>
+      </c>
+      <c r="C1290" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1290" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1291" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1291" s="13">
+        <v>83</v>
+      </c>
+      <c r="C1291" s="13">
+        <v>81</v>
+      </c>
+      <c r="D1291" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97590361445783136</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1292" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1292" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1292" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1292" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98684210526315785</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1293" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1293" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1293" s="13">
+        <v>60</v>
+      </c>
+      <c r="D1293" s="1">
+        <f t="shared" si="20"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1294" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1294" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1294" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1294" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1295" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1295" s="13">
+        <v>67</v>
+      </c>
+      <c r="C1295" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1295" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1296" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1296" s="13">
+        <v>84</v>
+      </c>
+      <c r="C1296" s="13">
+        <v>81</v>
+      </c>
+      <c r="D1296" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1297" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1297" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1297" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1297" s="1">
+        <f t="shared" si="20"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1298" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1298" s="13">
+        <v>88</v>
+      </c>
+      <c r="C1298" s="13">
+        <v>83</v>
+      </c>
+      <c r="D1298" s="1">
+        <f t="shared" si="20"/>
+        <v>0.94318181818181823</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1299" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1299" s="13">
+        <v>77</v>
+      </c>
+      <c r="C1299" s="13">
+        <v>75</v>
+      </c>
+      <c r="D1299" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97402597402597402</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1300" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1300" s="13">
+        <v>53</v>
+      </c>
+      <c r="C1300" s="13">
+        <v>51</v>
+      </c>
+      <c r="D1300" s="1">
+        <f t="shared" si="20"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1301" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1301" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1301" s="13">
+        <v>60</v>
+      </c>
+      <c r="D1301" s="1">
+        <f t="shared" si="20"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1302" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1302" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1302" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1302" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1303" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1303" s="13">
+        <v>56</v>
+      </c>
+      <c r="C1303" s="13">
+        <v>53</v>
+      </c>
+      <c r="D1303" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1304" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1304" s="13">
+        <v>68</v>
+      </c>
+      <c r="C1304" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1304" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1305" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1305" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1305" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1305" s="1">
+        <f t="shared" si="20"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1306" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1306" s="13">
+        <v>71</v>
+      </c>
+      <c r="C1306" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1306" s="1">
+        <f t="shared" si="20"/>
+        <v>0.971830985915493</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1307" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1307" s="13">
+        <v>46</v>
+      </c>
+      <c r="C1307" s="13">
+        <v>45</v>
+      </c>
+      <c r="D1307" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1308" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1308" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1308" s="13">
+        <v>58</v>
+      </c>
+      <c r="D1308" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89230769230769236</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1309" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1309" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1309" s="13">
+        <v>63</v>
+      </c>
+      <c r="D1309" s="1">
+        <f t="shared" si="20"/>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1310" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1310" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1310" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1310" s="1">
+        <f t="shared" si="20"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1311" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1311" s="13">
+        <v>73</v>
+      </c>
+      <c r="C1311" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1311" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93150684931506844</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1312" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1312" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1312" s="13">
+        <v>73</v>
+      </c>
+      <c r="D1312" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9358974358974359</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1313" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1313" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1313" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1313" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93670886075949367</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1314" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1314" s="13">
+        <v>60</v>
+      </c>
+      <c r="C1314" s="13">
+        <v>54</v>
+      </c>
+      <c r="D1314" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1315" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1315" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1315" s="13">
+        <v>60</v>
+      </c>
+      <c r="D1315" s="1">
+        <f t="shared" si="20"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1316" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1316" s="13">
+        <v>73</v>
+      </c>
+      <c r="C1316" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1316" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1317" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1317" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1317" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1317" s="1">
+        <f t="shared" si="20"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1318" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1318" s="13">
+        <v>70</v>
+      </c>
+      <c r="C1318" s="13">
+        <v>67</v>
+      </c>
+      <c r="D1318" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1319" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1319" s="13">
+        <v>84</v>
+      </c>
+      <c r="C1319" s="13">
+        <v>81</v>
+      </c>
+      <c r="D1319" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1320" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1320" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1320" s="13">
+        <v>72</v>
+      </c>
+      <c r="D1320" s="1">
+        <f t="shared" si="20"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1321" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1321" s="13">
+        <v>64</v>
+      </c>
+      <c r="C1321" s="13">
+        <v>62</v>
+      </c>
+      <c r="D1321" s="1">
+        <f t="shared" si="20"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1322" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1322" s="13">
+        <v>70</v>
+      </c>
+      <c r="C1322" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1322" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1323" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1323" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1323" s="13">
+        <v>61</v>
+      </c>
+      <c r="D1323" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1324" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1324" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1324" s="13">
+        <v>64</v>
+      </c>
+      <c r="D1324" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1325" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1325" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1325" s="13">
+        <v>62</v>
+      </c>
+      <c r="D1325" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1326" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1326" s="13">
+        <v>38</v>
+      </c>
+      <c r="C1326" s="13">
+        <v>37</v>
+      </c>
+      <c r="D1326" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1327" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1327" s="13">
+        <v>51</v>
+      </c>
+      <c r="C1327" s="13">
+        <v>47</v>
+      </c>
+      <c r="D1327" s="1">
+        <f t="shared" si="20"/>
+        <v>0.92156862745098034</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1328" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1328" s="13">
+        <v>62</v>
+      </c>
+      <c r="C1328" s="13">
+        <v>59</v>
+      </c>
+      <c r="D1328" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1329" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1329" s="13">
+        <v>73</v>
+      </c>
+      <c r="C1329" s="13">
+        <v>69</v>
+      </c>
+      <c r="D1329" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1330" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1330" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1330" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1330" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98734177215189878</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1331" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1331" s="13">
+        <v>67</v>
+      </c>
+      <c r="C1331" s="13">
+        <v>65</v>
+      </c>
+      <c r="D1331" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1332" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1332" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1332" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1332" s="1">
+        <f t="shared" si="20"/>
+        <v>0.89743589743589747</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1333" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1333" s="13">
+        <v>76</v>
+      </c>
+      <c r="C1333" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1333" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97368421052631582</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/DSM Scheduled Flights vs actual.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Library/CloudStorage/Box-Box/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B8427-2613-4B4F-825C-A34DA72EBB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B88FCA-E9A2-2F43-BCD8-660E8F611488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>DateTime</t>
   </si>
@@ -473,6 +474,78 @@
   </si>
   <si>
     <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>2023-12-23</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1333"/>
+  <dimension ref="A1:D1358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1293" workbookViewId="0">
-      <selection activeCell="K1317" sqref="K1317"/>
+    <sheetView tabSelected="1" topLeftCell="A1336" workbookViewId="0">
+      <selection activeCell="D1357" sqref="D1357:D1358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20599,7 +20672,7 @@
         <v>67</v>
       </c>
       <c r="D1281" s="1">
-        <f t="shared" ref="D1281:D1333" si="20">C1281/B1281</f>
+        <f t="shared" ref="D1281:D1345" si="20">C1281/B1281</f>
         <v>0.97101449275362317</v>
       </c>
     </row>
@@ -21381,6 +21454,372 @@
       <c r="D1333" s="1">
         <f t="shared" si="20"/>
         <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1334" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1334" s="13">
+        <v>73</v>
+      </c>
+      <c r="C1334" s="13">
+        <v>71</v>
+      </c>
+      <c r="D1334" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9726027397260274</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1335" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1335" s="13">
+        <v>53</v>
+      </c>
+      <c r="C1335" s="13">
+        <v>52</v>
+      </c>
+      <c r="D1335" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1336" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1336" s="13">
+        <v>60</v>
+      </c>
+      <c r="C1336" s="13">
+        <v>59</v>
+      </c>
+      <c r="D1336" s="1">
+        <f t="shared" si="20"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1337" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1337" s="13">
+        <v>59</v>
+      </c>
+      <c r="C1337" s="13">
+        <v>59</v>
+      </c>
+      <c r="D1337" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1338" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1338" s="13">
+        <v>65</v>
+      </c>
+      <c r="C1338" s="13">
+        <v>62</v>
+      </c>
+      <c r="D1338" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1339" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1339" s="13">
+        <v>71</v>
+      </c>
+      <c r="C1339" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1339" s="1">
+        <f t="shared" si="20"/>
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1340" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1340" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1340" s="13">
+        <v>78</v>
+      </c>
+      <c r="D1340" s="1">
+        <f t="shared" si="20"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1341" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1341" s="13">
+        <v>80</v>
+      </c>
+      <c r="C1341" s="13">
+        <v>77</v>
+      </c>
+      <c r="D1341" s="1">
+        <f t="shared" si="20"/>
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1342" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1342" s="13">
+        <v>60</v>
+      </c>
+      <c r="C1342" s="13">
+        <v>57</v>
+      </c>
+      <c r="D1342" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1343" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1343" s="13">
+        <v>61</v>
+      </c>
+      <c r="C1343" s="13">
+        <v>61</v>
+      </c>
+      <c r="D1343" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1344" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1344" s="13">
+        <v>83</v>
+      </c>
+      <c r="C1344" s="13">
+        <v>79</v>
+      </c>
+      <c r="D1344" s="1">
+        <f t="shared" si="20"/>
+        <v>0.95180722891566261</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1345" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1345" s="13">
+        <v>74</v>
+      </c>
+      <c r="C1345" s="13">
+        <v>68</v>
+      </c>
+      <c r="D1345" s="1">
+        <f t="shared" si="20"/>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1346" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1346" s="13">
+        <v>79</v>
+      </c>
+      <c r="C1346" s="13">
+        <v>70</v>
+      </c>
+      <c r="D1346" s="1">
+        <f t="shared" ref="D1346:D1358" si="21">C1346/B1346</f>
+        <v>0.88607594936708856</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1347" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1347" s="13">
+        <v>90</v>
+      </c>
+      <c r="C1347" s="13">
+        <v>87</v>
+      </c>
+      <c r="D1347" s="1">
+        <f t="shared" si="21"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1348" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1348" s="13">
+        <v>78</v>
+      </c>
+      <c r="C1348" s="13">
+        <v>74</v>
+      </c>
+      <c r="D1348" s="1">
+        <f t="shared" si="21"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1349" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1349" s="13">
+        <v>54</v>
+      </c>
+      <c r="C1349" s="13">
+        <v>47</v>
+      </c>
+      <c r="D1349" s="1">
+        <f t="shared" si="21"/>
+        <v>0.87037037037037035</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1350" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1350" s="13">
+        <v>64</v>
+      </c>
+      <c r="C1350" s="13">
+        <v>60</v>
+      </c>
+      <c r="D1350" s="1">
+        <f t="shared" si="21"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1351" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1351" s="13">
+        <v>70</v>
+      </c>
+      <c r="C1351" s="13">
+        <v>67</v>
+      </c>
+      <c r="D1351" s="1">
+        <f t="shared" si="21"/>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1352" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1352" s="13">
+        <v>66</v>
+      </c>
+      <c r="C1352" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1352" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1353" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1353" s="13">
+        <v>66</v>
+      </c>
+      <c r="C1353" s="13">
+        <v>63</v>
+      </c>
+      <c r="D1353" s="1">
+        <f t="shared" si="21"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1354" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1354" s="13">
+        <v>93</v>
+      </c>
+      <c r="C1354" s="13">
+        <v>83</v>
+      </c>
+      <c r="D1354" s="1">
+        <f t="shared" si="21"/>
+        <v>0.89247311827956988</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1355" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1355" s="13">
+        <v>69</v>
+      </c>
+      <c r="C1355" s="13">
+        <v>66</v>
+      </c>
+      <c r="D1355" s="1">
+        <f t="shared" si="21"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1356" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1356" s="13">
+        <v>53</v>
+      </c>
+      <c r="C1356" s="13">
+        <v>51</v>
+      </c>
+      <c r="D1356" s="1">
+        <f t="shared" si="21"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1357" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1357" s="13">
+        <v>58</v>
+      </c>
+      <c r="C1357" s="13">
+        <v>55</v>
+      </c>
+      <c r="D1357" s="1">
+        <f t="shared" si="21"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1358" s="1" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
